--- a/newman/excel/StatisticsToolsRespondus.xlsx
+++ b/newman/excel/StatisticsToolsRespondus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Newman\Dropbox\github\SanJacMath.github.io\SanJacMath.github.io\newman\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9528BE25-643E-4B33-93B9-34978F350C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E48A299-39AD-4988-8C15-3F8D26FAA55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleStats" sheetId="1" r:id="rId1"/>
@@ -3551,7 +3551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5122,7 +5122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6183,7 +6185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8275,7 +8279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10096,7 +10102,9 @@
       <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="43">
+        <v>10</v>
+      </c>
       <c r="C2" s="11" t="str">
         <f>IF(OR(ISBLANK(B2),AND(IF(ISNUMBER(B2),AND(B2&gt;0,INT(B2)=B2),FALSE))),"","n must be a positive integer")</f>
         <v/>
@@ -10112,30 +10120,32 @@
       <c r="A3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="43">
+        <v>0.5</v>
+      </c>
       <c r="C3" s="11" t="str">
         <f>IF(AND(B3&lt;=1,B3&gt;=0),"","p must be between 0 and 1")</f>
         <v/>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="1">
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50),0,"")</f>
-        <v/>
-      </c>
-      <c r="E3" s="46" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" s="46">
         <f>IF(ISNUMBER(D3),_xlfn.BINOM.DIST(D3,B2,B3,FALSE),"")</f>
-        <v/>
+        <v>9.765625E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="1" t="str">
-        <f>IF(D3&lt;B2,D3+1,"")</f>
-        <v/>
-      </c>
-      <c r="E4" s="46" t="str">
+      <c r="D4" s="1">
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D3&lt;B2),D3+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="46">
         <f>IF(ISNUMBER(D4),_xlfn.BINOM.DIST(D4,B2,B3,FALSE),"")</f>
-        <v/>
+        <v>9.7656250000000017E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10143,62 +10153,64 @@
         <v>55</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="1" t="str">
-        <f>IF(D4&lt;B2,D4+1,"")</f>
-        <v/>
-      </c>
-      <c r="E5" s="46" t="str">
+      <c r="D5" s="1">
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D4&lt;B2),D4+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="46">
         <f>IF(ISNUMBER(D5),_xlfn.BINOM.DIST(D5,B2,B3,FALSE),"")</f>
-        <v/>
+        <v>4.3945312499999972E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="43">
+        <v>3</v>
+      </c>
       <c r="C6" s="11" t="str">
         <f>IF(AND(INT(B6)=B6,B6&gt;=0,B6&lt;=B2),"","x must be an integer between 0 and n")</f>
         <v/>
       </c>
-      <c r="D6" s="1" t="str">
-        <f>IF(D5&lt;B2,D5+1,"")</f>
-        <v/>
-      </c>
-      <c r="E6" s="46" t="str">
+      <c r="D6" s="1">
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D5&lt;B2),D5+1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="46">
         <f>IF(ISNUMBER(D6),_xlfn.BINOM.DIST(D6,B2,B3,FALSE),"")</f>
-        <v/>
+        <v>0.11718750000000003</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="41" t="str">
+      <c r="B7" s="41">
         <f>IF(ISNUMBER(B6),IF(AND(B2&gt;0,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1,B6&gt;=0,B6&lt;=B2,INT(B6)=B6),_xlfn.BINOM.DIST(B6,B2,B3,FALSE),"Input error"),"")</f>
-        <v/>
+        <v>0.11718750000000003</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="1" t="str">
-        <f>IF(D6&lt;B2,D6+1,"")</f>
-        <v/>
-      </c>
-      <c r="E7" s="46" t="str">
+      <c r="D7" s="1">
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D6&lt;B2),D6+1,"")</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="46">
         <f>IF(ISNUMBER(D7),_xlfn.BINOM.DIST(D7,B2,B3,FALSE),"")</f>
-        <v/>
+        <v>0.20507812500000006</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12"/>
-      <c r="D8" s="1" t="str">
-        <f>IF(D7&lt;B2,D7+1,"")</f>
-        <v/>
-      </c>
-      <c r="E8" s="46" t="str">
+      <c r="D8" s="1">
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D7&lt;B2),D7+1,"")</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="46">
         <f>IF(ISNUMBER(D8),_xlfn.BINOM.DIST(D8,B2,B3,FALSE),"")</f>
-        <v/>
+        <v>0.24609375000000008</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10206,83 +10218,87 @@
         <v>59</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="1" t="str">
-        <f>IF(D8&lt;B2,D8+1,"")</f>
-        <v/>
-      </c>
-      <c r="E9" s="46" t="str">
+      <c r="D9" s="1">
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D8&lt;B2),D8+1,"")</f>
+        <v>6</v>
+      </c>
+      <c r="E9" s="46">
         <f>IF(ISNUMBER(D9),_xlfn.BINOM.DIST(D9,B2,B3,FALSE),"")</f>
-        <v/>
+        <v>0.20507812500000006</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="43">
+        <v>0</v>
+      </c>
       <c r="C10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="1" t="str">
-        <f>IF(D9&lt;B2,D9+1,"")</f>
-        <v/>
-      </c>
-      <c r="E10" s="46" t="str">
+      <c r="D10" s="1">
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D9&lt;B2),D9+1,"")</f>
+        <v>7</v>
+      </c>
+      <c r="E10" s="46">
         <f>IF(ISNUMBER(D10),_xlfn.BINOM.DIST(D10,B2,B3,FALSE),"")</f>
-        <v/>
+        <v>0.11718750000000003</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="43">
+        <v>8</v>
+      </c>
       <c r="C11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1" t="str">
-        <f>IF(D10&lt;B2,D10+1,"")</f>
-        <v/>
-      </c>
-      <c r="E11" s="46" t="str">
+      <c r="D11" s="1">
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D10&lt;B2),D10+1,"")</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="46">
         <f>IF(ISNUMBER(D11),_xlfn.BINOM.DIST(D11,B2,B3,FALSE),"")</f>
-        <v/>
+        <v>4.3945312499999986E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="str">
         <f>CONCATENATE("P(", IF(ISBLANK(B10),"","lower ≤ "),"x",IF(ISBLANK(B11),""," ≤ upper"),") =")</f>
-        <v>P(x) =</v>
-      </c>
-      <c r="B12" s="41" t="str">
-        <f>IF(OR(ISNUMBER(B10),ISNUMBER(B11)),IF(AND(B2&gt;0,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1, OR(ISBLANK(B10),AND(B10&gt;=0,B10&lt;=B2,IF(ISNUMBER(B10),INT(B10)=B10,FALSE),OR(ISBLANK(B11),B10&lt;=B11))),OR(ISBLANK(B11),AND(B11&gt;=0,B11&lt;=B2,IF(ISNUMBER(B11),INT(B11)=B11,FALSE),OR(ISBLANK(B10),B10&lt;=B11)))),_xlfn.BINOM.DIST.RANGE(B2,B3,IF(ISBLANK(B10),0,B10),IF(ISBLANK(B11),B2,B11)),"Input error"),"")</f>
-        <v/>
+        <v>P(lower ≤ x ≤ upper) =</v>
+      </c>
+      <c r="B12" s="41">
+        <f>IF(OR(ISNUMBER(B10),ISNUMBER(B11)),IF(AND(B2&gt;0,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1, OR(ISBLANK(B10),AND(B10&gt;=0,B10&lt;=B2,IF(ISNUMBER(B10),INT(B10)=B10,FALSE),OR(ISBLANK(B11),B10&lt;=B11))),OR(ISBLANK(B11),AND(B11&gt;=0,B11&lt;=B2,IF(ISNUMBER(B11),INT(B11)=B11,FALSE),OR(ISBLANK(B10),B10&lt;=B11)))),IF(ISBLANK(B10),_xlfn.BINOM.DIST(B11,B2,B3,TRUE),IF(ISBLANK(B11),IF(B10=0,1,1-_xlfn.BINOM.DIST(B10-1,B2,B3,TRUE)),_xlfn.BINOM.DIST(B11,B2,B3,TRUE)-IF(B10=0,0,_xlfn.BINOM.DIST(B10-1,B2,B3,TRUE)))),"Input error"),"")</f>
+        <v>0.9892578125</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="1" t="str">
-        <f>IF(D11&lt;B2,D11+1,"")</f>
-        <v/>
-      </c>
-      <c r="E12" s="46" t="str">
+      <c r="D12" s="1">
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D11&lt;B2),D11+1,"")</f>
+        <v>9</v>
+      </c>
+      <c r="E12" s="46">
         <f>IF(ISNUMBER(D12),_xlfn.BINOM.DIST(D12,B2,B3,FALSE),"")</f>
-        <v/>
+        <v>9.7656250000000017E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="str">
-        <f>IF(D12&lt;B2,D12+1,"")</f>
-        <v/>
-      </c>
-      <c r="E13" s="46" t="str">
+      <c r="D13" s="1">
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D12&lt;B2),D12+1,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E13" s="46">
         <f>IF(ISNUMBER(D13),_xlfn.BINOM.DIST(D13,B2,B3,FALSE),"")</f>
-        <v/>
+        <v>9.765625E-4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="str">
-        <f>IF(D13&lt;B2,D13+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D13&lt;B2),D13+1,"")</f>
         <v/>
       </c>
       <c r="E14" s="46" t="str">
@@ -10292,7 +10308,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="str">
-        <f>IF(D14&lt;B2,D14+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D14&lt;B2),D14+1,"")</f>
         <v/>
       </c>
       <c r="E15" s="46" t="str">
@@ -10302,7 +10318,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="str">
-        <f>IF(D15&lt;B2,D15+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D15&lt;B2),D15+1,"")</f>
         <v/>
       </c>
       <c r="E16" s="46" t="str">
@@ -10312,7 +10328,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="str">
-        <f>IF(D16&lt;B2,D16+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D16&lt;B2),D16+1,"")</f>
         <v/>
       </c>
       <c r="E17" s="46" t="str">
@@ -10322,7 +10338,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="str">
-        <f>IF(D17&lt;B2,D17+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D17&lt;B2),D17+1,"")</f>
         <v/>
       </c>
       <c r="E18" s="46" t="str">
@@ -10332,7 +10348,7 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="str">
-        <f>IF(D18&lt;B2,D18+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D18&lt;B2),D18+1,"")</f>
         <v/>
       </c>
       <c r="E19" s="46" t="str">
@@ -10342,7 +10358,7 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="str">
-        <f>IF(D19&lt;B2,D19+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D19&lt;B2),D19+1,"")</f>
         <v/>
       </c>
       <c r="E20" s="46" t="str">
@@ -10352,7 +10368,7 @@
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="str">
-        <f>IF(D20&lt;B2,D20+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D20&lt;B2),D20+1,"")</f>
         <v/>
       </c>
       <c r="E21" s="46" t="str">
@@ -10362,7 +10378,7 @@
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="str">
-        <f>IF(D21&lt;B2,D21+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D21&lt;B2),D21+1,"")</f>
         <v/>
       </c>
       <c r="E22" s="46" t="str">
@@ -10372,7 +10388,7 @@
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="str">
-        <f>IF(D22&lt;B2,D22+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D22&lt;B2),D22+1,"")</f>
         <v/>
       </c>
       <c r="E23" s="46" t="str">
@@ -10382,7 +10398,7 @@
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="str">
-        <f>IF(D23&lt;B2,D23+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D23&lt;B2),D23+1,"")</f>
         <v/>
       </c>
       <c r="E24" s="46" t="str">
@@ -10392,7 +10408,7 @@
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="str">
-        <f>IF(D24&lt;B2,D24+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D24&lt;B2),D24+1,"")</f>
         <v/>
       </c>
       <c r="E25" s="46" t="str">
@@ -10402,7 +10418,7 @@
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="str">
-        <f>IF(D25&lt;B2,D25+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D25&lt;B2),D25+1,"")</f>
         <v/>
       </c>
       <c r="E26" s="46" t="str">
@@ -10412,7 +10428,7 @@
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="str">
-        <f>IF(D26&lt;B2,D26+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D26&lt;B2),D26+1,"")</f>
         <v/>
       </c>
       <c r="E27" s="46" t="str">
@@ -10422,7 +10438,7 @@
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="str">
-        <f>IF(D27&lt;B2,D27+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D27&lt;B2),D27+1,"")</f>
         <v/>
       </c>
       <c r="E28" s="46" t="str">
@@ -10432,7 +10448,7 @@
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="str">
-        <f>IF(D28&lt;B2,D28+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D28&lt;B2),D28+1,"")</f>
         <v/>
       </c>
       <c r="E29" s="46" t="str">
@@ -10442,7 +10458,7 @@
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="str">
-        <f>IF(D29&lt;B2,D29+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D29&lt;B2),D29+1,"")</f>
         <v/>
       </c>
       <c r="E30" s="46" t="str">
@@ -10452,7 +10468,7 @@
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="str">
-        <f>IF(D30&lt;B2,D30+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D30&lt;B2),D30+1,"")</f>
         <v/>
       </c>
       <c r="E31" s="46" t="str">
@@ -10462,7 +10478,7 @@
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="str">
-        <f>IF(D31&lt;B2,D31+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D31&lt;B2),D31+1,"")</f>
         <v/>
       </c>
       <c r="E32" s="46" t="str">
@@ -10472,7 +10488,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="str">
-        <f>IF(D32&lt;B2,D32+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D32&lt;B2),D32+1,"")</f>
         <v/>
       </c>
       <c r="E33" s="46" t="str">
@@ -10482,7 +10498,7 @@
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="str">
-        <f>IF(D33&lt;B2,D33+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D33&lt;B2),D33+1,"")</f>
         <v/>
       </c>
       <c r="E34" s="46" t="str">
@@ -10492,7 +10508,7 @@
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="str">
-        <f>IF(D34&lt;B2,D34+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D34&lt;B2),D34+1,"")</f>
         <v/>
       </c>
       <c r="E35" s="46" t="str">
@@ -10502,7 +10518,7 @@
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="str">
-        <f>IF(D35&lt;B2,D35+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D35&lt;B2),D35+1,"")</f>
         <v/>
       </c>
       <c r="E36" s="46" t="str">
@@ -10512,7 +10528,7 @@
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="str">
-        <f>IF(D36&lt;B2,D36+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D36&lt;B2),D36+1,"")</f>
         <v/>
       </c>
       <c r="E37" s="46" t="str">
@@ -10522,7 +10538,7 @@
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="str">
-        <f>IF(D37&lt;B2,D37+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D37&lt;B2),D37+1,"")</f>
         <v/>
       </c>
       <c r="E38" s="46" t="str">
@@ -10532,7 +10548,7 @@
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="str">
-        <f>IF(D38&lt;B2,D38+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D38&lt;B2),D38+1,"")</f>
         <v/>
       </c>
       <c r="E39" s="46" t="str">
@@ -10542,7 +10558,7 @@
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="str">
-        <f>IF(D39&lt;B2,D39+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D39&lt;B2),D39+1,"")</f>
         <v/>
       </c>
       <c r="E40" s="46" t="str">
@@ -10552,7 +10568,7 @@
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="str">
-        <f>IF(D40&lt;B2,D40+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D40&lt;B2),D40+1,"")</f>
         <v/>
       </c>
       <c r="E41" s="46" t="str">
@@ -10562,7 +10578,7 @@
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="str">
-        <f>IF(D41&lt;B2,D41+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D41&lt;B2),D41+1,"")</f>
         <v/>
       </c>
       <c r="E42" s="46" t="str">
@@ -10572,7 +10588,7 @@
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="str">
-        <f>IF(D42&lt;B2,D42+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D42&lt;B2),D42+1,"")</f>
         <v/>
       </c>
       <c r="E43" s="46" t="str">
@@ -10582,7 +10598,7 @@
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="str">
-        <f>IF(D43&lt;B2,D43+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D43&lt;B2),D43+1,"")</f>
         <v/>
       </c>
       <c r="E44" s="46" t="str">
@@ -10592,7 +10608,7 @@
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="str">
-        <f>IF(D44&lt;B2,D44+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D44&lt;B2),D44+1,"")</f>
         <v/>
       </c>
       <c r="E45" s="46" t="str">
@@ -10602,7 +10618,7 @@
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="str">
-        <f>IF(D45&lt;B2,D45+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D45&lt;B2),D45+1,"")</f>
         <v/>
       </c>
       <c r="E46" s="46" t="str">
@@ -10612,7 +10628,7 @@
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="str">
-        <f>IF(D46&lt;B2,D46+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D46&lt;B2),D46+1,"")</f>
         <v/>
       </c>
       <c r="E47" s="46" t="str">
@@ -10622,7 +10638,7 @@
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="str">
-        <f>IF(D47&lt;B2,D47+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D47&lt;B2),D47+1,"")</f>
         <v/>
       </c>
       <c r="E48" s="46" t="str">
@@ -10632,7 +10648,7 @@
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="str">
-        <f>IF(D48&lt;B2,D48+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D48&lt;B2),D48+1,"")</f>
         <v/>
       </c>
       <c r="E49" s="46" t="str">
@@ -10642,7 +10658,7 @@
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="str">
-        <f>IF(D49&lt;B2,D49+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D49&lt;B2),D49+1,"")</f>
         <v/>
       </c>
       <c r="E50" s="46" t="str">
@@ -10652,7 +10668,7 @@
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="str">
-        <f>IF(D50&lt;B2,D50+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D50&lt;B2),D50+1,"")</f>
         <v/>
       </c>
       <c r="E51" s="46" t="str">
@@ -10662,7 +10678,7 @@
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="str">
-        <f>IF(D51&lt;B2,D51+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D51&lt;B2),D51+1,"")</f>
         <v/>
       </c>
       <c r="E52" s="46" t="str">
@@ -10672,7 +10688,7 @@
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="str">
-        <f>IF(D52&lt;B2,D52+1,"")</f>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D52&lt;B2),D52+1,"")</f>
         <v/>
       </c>
       <c r="E53" s="46" t="str">
@@ -10905,7 +10921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11092,7 +11110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/newman/excel/StatisticsToolsRespondus.xlsx
+++ b/newman/excel/StatisticsToolsRespondus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Newman\Dropbox\github\SanJacMath.github.io\SanJacMath.github.io\newman\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E48A299-39AD-4988-8C15-3F8D26FAA55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8CD7CC-A181-4475-9CAB-8E4E8FCAA196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleStats" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="176">
   <si>
     <t>Type sample data in the column below, and the statistics will calculate on the right</t>
   </si>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>=CHISQ.INV.RT(α, Degrees of Freedom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -922,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1059,6 +1062,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3551,7 +3557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3605,6 +3611,9 @@
         <f>COUNT(B3:B202)</f>
         <v>0</v>
       </c>
+      <c r="F4" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3622,6 +3631,9 @@
         <f>IF(E4=0,"",AVERAGE(B3:B202))</f>
         <v/>
       </c>
+      <c r="F5" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
@@ -3639,6 +3651,9 @@
         <f>IF(E4&lt;2,"",_xlfn.STDEV.S(B3:B202))</f>
         <v/>
       </c>
+      <c r="F6" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
@@ -3656,6 +3671,9 @@
         <f>IF(E4&lt;2,"",(_xlfn.STDEV.S(B3:B202))^2)</f>
         <v/>
       </c>
+      <c r="F7" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
@@ -3673,6 +3691,9 @@
         <f>IF(E4=0,"",MAX(B3:B202)-MIN(B3:B202))</f>
         <v/>
       </c>
+      <c r="F8" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
@@ -3690,6 +3711,9 @@
         <f>IF(E4=0,"",SUM(B3:B202))</f>
         <v/>
       </c>
+      <c r="F9" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>16</v>
       </c>
@@ -3707,6 +3731,9 @@
         <f>IF(E4=0,"",SUMPRODUCT(B3:B202,B3:B202))</f>
         <v/>
       </c>
+      <c r="F10" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
@@ -3717,6 +3744,9 @@
         <v/>
       </c>
       <c r="B11" s="42"/>
+      <c r="F11" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
@@ -3731,6 +3761,9 @@
         <f>IF(E4=0,"",MIN(B3:B202))</f>
         <v/>
       </c>
+      <c r="F12" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="G12" s="6" t="s">
         <v>20</v>
       </c>
@@ -3748,6 +3781,9 @@
         <f>IF(E4=0,"",IF(INT(E4*25/100)=E4*25/100,AVERAGE(SMALL(B3:B202,E4*25/100),SMALL(B3:B202,E4*25/100+1)),SMALL(B3:B202,ROUNDUP(E4*25/100,0))))</f>
         <v/>
       </c>
+      <c r="F13" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="G13" s="6" t="s">
         <v>22</v>
       </c>
@@ -3766,6 +3802,9 @@
         <f>IF(E4=0,"",MEDIAN(B3:B202))</f>
         <v/>
       </c>
+      <c r="F14" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="G14" s="6" t="s">
         <v>23</v>
       </c>
@@ -3783,6 +3822,9 @@
         <f>IF(E4=0,"",IF(INT(E4*75/100)=E4*75/100,AVERAGE(SMALL(B3:B202,E4*75/100),SMALL(B3:B202,E4*75/100+1)),SMALL(B3:B202,ROUNDUP(E4*75/100,0))))</f>
         <v/>
       </c>
+      <c r="F15" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="G15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3800,6 +3842,9 @@
       <c r="E16" s="50" t="str">
         <f>IF(E4=0,"",MAX(B3:B202))</f>
         <v/>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>27</v>
@@ -6185,9 +6230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8279,9 +8322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8337,6 +8378,9 @@
         <f>IF(AND(MAX(A3:A102)=COUNT(B3:B102),MAX(A3:A102)=COUNT(C3:C102)),MAX(A3:A102),"Input Error")</f>
         <v>0</v>
       </c>
+      <c r="G4" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>31</v>
       </c>
@@ -8355,7 +8399,9 @@
         <f>IF(OR(F4="Input Error",F4&lt;2),"",AVERAGE(B3:B102))</f>
         <v/>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="54" t="s">
+        <v>175</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>32</v>
       </c>
@@ -8374,6 +8420,9 @@
         <f>IF(OR(F4="Input Error",F4&lt;2),"",AVERAGE(C3:C102))</f>
         <v/>
       </c>
+      <c r="G6" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>33</v>
       </c>
@@ -8392,7 +8441,9 @@
         <f>IF(OR(F4="Input Error",F4&lt;2),"",CORREL(B3:B102,C3:C102))</f>
         <v/>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="54" t="s">
+        <v>175</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>35</v>
       </c>
@@ -8411,6 +8462,9 @@
         <f>IF(OR(F4="Input Error",F4&lt;2),"",(CORREL(B3:B102,C3:C102))^2)</f>
         <v/>
       </c>
+      <c r="G8" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="H8" s="6" t="s">
         <v>37</v>
       </c>
@@ -8426,6 +8480,9 @@
         <v>38</v>
       </c>
       <c r="F9" s="8"/>
+      <c r="G9" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
@@ -8441,6 +8498,9 @@
         <f>IF(OR(F4="Input Error",F4&lt;2),"",(SUM(C3:C102)*SUMPRODUCT(B3:B102,B3:B102)-SUM(B3:B102)*SUMPRODUCT(B3:B102,C3:C102))/(F4*SUMPRODUCT(B3:B102,B3:B102)-(SUM(B3:B102))^2))</f>
         <v/>
       </c>
+      <c r="G10" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="H10" s="6" t="s">
         <v>40</v>
       </c>
@@ -8458,6 +8518,9 @@
       <c r="F11" s="41" t="str">
         <f>IF(OR(F4="Input Error",F4&lt;2),"",(F4*SUMPRODUCT(B3:B102,C3:C102)-SUM(B3:B102)*SUM(C3:C102))/(F4*SUMPRODUCT(B3:B102,B3:B102)-(SUM(B3:B102)^2)))</f>
         <v/>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>42</v>
@@ -9239,8 +9302,11 @@
         <f>IF(AND(ISNUMBER(B3),ISNUMBER(C3)),MAX(A1:A2)+1,"")</f>
         <v/>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
@@ -9250,8 +9316,11 @@
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(C4)),MAX(A1:A3)+1,"")</f>
         <v/>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="E4" s="37" t="s">
         <v>45</v>
       </c>
@@ -9259,6 +9328,9 @@
         <f>IF(AND(COUNT(A3:A102)=COUNT(B3:B102),COUNT(A3:A102)=COUNT(C3:C102)),SUM(C3:C102),"")</f>
         <v>0</v>
       </c>
+      <c r="G4" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>46</v>
       </c>
@@ -9268,8 +9340,11 @@
         <f>IF(AND(ISNUMBER(B5),ISNUMBER(C5)),MAX(A1:A4)+1,"")</f>
         <v/>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="E5" s="37" t="s">
         <v>47</v>
       </c>
@@ -9277,6 +9352,9 @@
         <f>IF(AND(COUNT(A3:A102)=COUNT(B3:B102),COUNT(A3:A102)=COUNT(C3:C102)),SUMPRODUCT(B3:B102,C3:C102),"")</f>
         <v>0</v>
       </c>
+      <c r="G5" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>48</v>
       </c>
@@ -9286,8 +9364,11 @@
         <f>IF(AND(ISNUMBER(B6),ISNUMBER(C6)),MAX(A1:A5)+1,"")</f>
         <v/>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="E6" s="37" t="s">
         <v>49</v>
       </c>
@@ -9295,7 +9376,9 @@
         <f>IF(AND(COUNT(A3:A102)=COUNT(B3:B102),COUNT(A3:A102)=COUNT(C3:C102)),SQRT(SUMPRODUCT(B3:B102,B3:B102,C3:C102)-(SUMPRODUCT(B3:B102,C3:C102))^2),"")</f>
         <v>0</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="54" t="s">
+        <v>175</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>50</v>
       </c>
@@ -9305,768 +9388,1056 @@
         <f>IF(AND(ISNUMBER(B7),ISNUMBER(C7)),MAX(A1:A6)+1,"")</f>
         <v/>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f>IF(AND(ISNUMBER(B8),ISNUMBER(C8)),MAX(A1:A7)+1,"")</f>
         <v/>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f>IF(AND(ISNUMBER(B9),ISNUMBER(C9)),MAX(A1:A8)+1,"")</f>
         <v/>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f>IF(AND(ISNUMBER(B10),ISNUMBER(C10)),MAX(A1:A9)+1,"")</f>
         <v/>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f>IF(AND(ISNUMBER(B11),ISNUMBER(C11)),MAX(A1:A10)+1,"")</f>
         <v/>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f>IF(AND(ISNUMBER(B12),ISNUMBER(C12)),MAX(A1:A11)+1,"")</f>
         <v/>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f>IF(AND(ISNUMBER(B13),ISNUMBER(C13)),MAX(A1:A12)+1,"")</f>
         <v/>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f>IF(AND(ISNUMBER(B14),ISNUMBER(C14)),MAX(A1:A13)+1,"")</f>
         <v/>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f>IF(AND(ISNUMBER(B15),ISNUMBER(C15)),MAX(A1:A14)+1,"")</f>
         <v/>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f>IF(AND(ISNUMBER(B16),ISNUMBER(C16)),MAX(A1:A15)+1,"")</f>
         <v/>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f>IF(AND(ISNUMBER(B17),ISNUMBER(C17)),MAX(A1:A16)+1,"")</f>
         <v/>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f>IF(AND(ISNUMBER(B18),ISNUMBER(C18)),MAX(A1:A17)+1,"")</f>
         <v/>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f>IF(AND(ISNUMBER(B19),ISNUMBER(C19)),MAX(A1:A18)+1,"")</f>
         <v/>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f>IF(AND(ISNUMBER(B20),ISNUMBER(C20)),MAX(A1:A19)+1,"")</f>
         <v/>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f>IF(AND(ISNUMBER(B21),ISNUMBER(C21)),MAX(A1:A20)+1,"")</f>
         <v/>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f>IF(AND(ISNUMBER(B22),ISNUMBER(C22)),MAX(A1:A21)+1,"")</f>
         <v/>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f>IF(AND(ISNUMBER(B23),ISNUMBER(C23)),MAX(A1:A22)+1,"")</f>
         <v/>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f>IF(AND(ISNUMBER(B24),ISNUMBER(C24)),MAX(A1:A23)+1,"")</f>
         <v/>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f>IF(AND(ISNUMBER(B25),ISNUMBER(C25)),MAX(A1:A24)+1,"")</f>
         <v/>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f>IF(AND(ISNUMBER(B26),ISNUMBER(C26)),MAX(A1:A25)+1,"")</f>
         <v/>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f>IF(AND(ISNUMBER(B27),ISNUMBER(C27)),MAX(A1:A26)+1,"")</f>
         <v/>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f>IF(AND(ISNUMBER(B28),ISNUMBER(C28)),MAX(A1:A27)+1,"")</f>
         <v/>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f>IF(AND(ISNUMBER(B29),ISNUMBER(C29)),MAX(A1:A28)+1,"")</f>
         <v/>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f>IF(AND(ISNUMBER(B30),ISNUMBER(C30)),MAX(A1:A29)+1,"")</f>
         <v/>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f>IF(AND(ISNUMBER(B31),ISNUMBER(C31)),MAX(A1:A30)+1,"")</f>
         <v/>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f>IF(AND(ISNUMBER(B32),ISNUMBER(C32)),MAX(A1:A31)+1,"")</f>
         <v/>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f>IF(AND(ISNUMBER(B33),ISNUMBER(C33)),MAX(A1:A32)+1,"")</f>
         <v/>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f>IF(AND(ISNUMBER(B34),ISNUMBER(C34)),MAX(A1:A33)+1,"")</f>
         <v/>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f>IF(AND(ISNUMBER(B35),ISNUMBER(C35)),MAX(A1:A34)+1,"")</f>
         <v/>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f>IF(AND(ISNUMBER(B36),ISNUMBER(C36)),MAX(A1:A35)+1,"")</f>
         <v/>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f>IF(AND(ISNUMBER(B37),ISNUMBER(C37)),MAX(A1:A36)+1,"")</f>
         <v/>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f>IF(AND(ISNUMBER(B38),ISNUMBER(C38)),MAX(A1:A37)+1,"")</f>
         <v/>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f>IF(AND(ISNUMBER(B39),ISNUMBER(C39)),MAX(A1:A38)+1,"")</f>
         <v/>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f>IF(AND(ISNUMBER(B40),ISNUMBER(C40)),MAX(A1:A39)+1,"")</f>
         <v/>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f>IF(AND(ISNUMBER(B41),ISNUMBER(C41)),MAX(A1:A40)+1,"")</f>
         <v/>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f>IF(AND(ISNUMBER(B42),ISNUMBER(C42)),MAX(A1:A41)+1,"")</f>
         <v/>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f>IF(AND(ISNUMBER(B43),ISNUMBER(C43)),MAX(A1:A42)+1,"")</f>
         <v/>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f>IF(AND(ISNUMBER(B44),ISNUMBER(C44)),MAX(A1:A43)+1,"")</f>
         <v/>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f>IF(AND(ISNUMBER(B45),ISNUMBER(C45)),MAX(A1:A44)+1,"")</f>
         <v/>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f>IF(AND(ISNUMBER(B46),ISNUMBER(C46)),MAX(A1:A45)+1,"")</f>
         <v/>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f>IF(AND(ISNUMBER(B47),ISNUMBER(C47)),MAX(A1:A46)+1,"")</f>
         <v/>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f>IF(AND(ISNUMBER(B48),ISNUMBER(C48)),MAX(A1:A47)+1,"")</f>
         <v/>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f>IF(AND(ISNUMBER(B49),ISNUMBER(C49)),MAX(A1:A48)+1,"")</f>
         <v/>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f>IF(AND(ISNUMBER(B50),ISNUMBER(C50)),MAX(A1:A49)+1,"")</f>
         <v/>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f>IF(AND(ISNUMBER(B51),ISNUMBER(C51)),MAX(A1:A50)+1,"")</f>
         <v/>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f>IF(AND(ISNUMBER(B52),ISNUMBER(C52)),MAX(A1:A51)+1,"")</f>
         <v/>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f>IF(AND(ISNUMBER(B53),ISNUMBER(C53)),MAX(A1:A52)+1,"")</f>
         <v/>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f>IF(AND(ISNUMBER(B54),ISNUMBER(C54)),MAX(A1:A53)+1,"")</f>
         <v/>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f>IF(AND(ISNUMBER(B55),ISNUMBER(C55)),MAX(A1:A54)+1,"")</f>
         <v/>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f>IF(AND(ISNUMBER(B56),ISNUMBER(C56)),MAX(A1:A55)+1,"")</f>
         <v/>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f>IF(AND(ISNUMBER(B57),ISNUMBER(C57)),MAX(A1:A56)+1,"")</f>
         <v/>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f>IF(AND(ISNUMBER(B58),ISNUMBER(C58)),MAX(A1:A57)+1,"")</f>
         <v/>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f>IF(AND(ISNUMBER(B59),ISNUMBER(C59)),MAX(A1:A58)+1,"")</f>
         <v/>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f>IF(AND(ISNUMBER(B60),ISNUMBER(C60)),MAX(A1:A59)+1,"")</f>
         <v/>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f>IF(AND(ISNUMBER(B61),ISNUMBER(C61)),MAX(A1:A60)+1,"")</f>
         <v/>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f>IF(AND(ISNUMBER(B62),ISNUMBER(C62)),MAX(A1:A61)+1,"")</f>
         <v/>
       </c>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f>IF(AND(ISNUMBER(B63),ISNUMBER(C63)),MAX(A1:A62)+1,"")</f>
         <v/>
       </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f>IF(AND(ISNUMBER(B64),ISNUMBER(C64)),MAX(A1:A63)+1,"")</f>
         <v/>
       </c>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f>IF(AND(ISNUMBER(B65),ISNUMBER(C65)),MAX(A1:A64)+1,"")</f>
         <v/>
       </c>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f>IF(AND(ISNUMBER(B66),ISNUMBER(C66)),MAX(A1:A65)+1,"")</f>
         <v/>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f>IF(AND(ISNUMBER(B67),ISNUMBER(C67)),MAX(A1:A66)+1,"")</f>
         <v/>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f>IF(AND(ISNUMBER(B68),ISNUMBER(C68)),MAX(A1:A67)+1,"")</f>
         <v/>
       </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f>IF(AND(ISNUMBER(B69),ISNUMBER(C69)),MAX(A1:A68)+1,"")</f>
         <v/>
       </c>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f>IF(AND(ISNUMBER(B70),ISNUMBER(C70)),MAX(A1:A69)+1,"")</f>
         <v/>
       </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
         <f>IF(AND(ISNUMBER(B71),ISNUMBER(C71)),MAX(A1:A70)+1,"")</f>
         <v/>
       </c>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
         <f>IF(AND(ISNUMBER(B72),ISNUMBER(C72)),MAX(A1:A71)+1,"")</f>
         <v/>
       </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="str">
         <f>IF(AND(ISNUMBER(B73),ISNUMBER(C73)),MAX(A1:A72)+1,"")</f>
         <v/>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="str">
         <f>IF(AND(ISNUMBER(B74),ISNUMBER(C74)),MAX(A1:A73)+1,"")</f>
         <v/>
       </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="str">
         <f>IF(AND(ISNUMBER(B75),ISNUMBER(C75)),MAX(A1:A74)+1,"")</f>
         <v/>
       </c>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="str">
         <f>IF(AND(ISNUMBER(B76),ISNUMBER(C76)),MAX(A1:A75)+1,"")</f>
         <v/>
       </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="str">
         <f>IF(AND(ISNUMBER(B77),ISNUMBER(C77)),MAX(A1:A76)+1,"")</f>
         <v/>
       </c>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f>IF(AND(ISNUMBER(B78),ISNUMBER(C78)),MAX(A1:A77)+1,"")</f>
         <v/>
       </c>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f>IF(AND(ISNUMBER(B79),ISNUMBER(C79)),MAX(A1:A78)+1,"")</f>
         <v/>
       </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
         <f>IF(AND(ISNUMBER(B80),ISNUMBER(C80)),MAX(A1:A79)+1,"")</f>
         <v/>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f>IF(AND(ISNUMBER(B81),ISNUMBER(C81)),MAX(A1:A80)+1,"")</f>
         <v/>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f>IF(AND(ISNUMBER(B82),ISNUMBER(C82)),MAX(A1:A81)+1,"")</f>
         <v/>
       </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f>IF(AND(ISNUMBER(B83),ISNUMBER(C83)),MAX(A1:A82)+1,"")</f>
         <v/>
       </c>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
         <f>IF(AND(ISNUMBER(B84),ISNUMBER(C84)),MAX(A1:A83)+1,"")</f>
         <v/>
       </c>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
         <f>IF(AND(ISNUMBER(B85),ISNUMBER(C85)),MAX(A1:A84)+1,"")</f>
         <v/>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
         <f>IF(AND(ISNUMBER(B86),ISNUMBER(C86)),MAX(A1:A85)+1,"")</f>
         <v/>
       </c>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f>IF(AND(ISNUMBER(B87),ISNUMBER(C87)),MAX(A1:A86)+1,"")</f>
         <v/>
       </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f>IF(AND(ISNUMBER(B88),ISNUMBER(C88)),MAX(A1:A87)+1,"")</f>
         <v/>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f>IF(AND(ISNUMBER(B89),ISNUMBER(C89)),MAX(A1:A88)+1,"")</f>
         <v/>
       </c>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f>IF(AND(ISNUMBER(B90),ISNUMBER(C90)),MAX(A1:A89)+1,"")</f>
         <v/>
       </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f>IF(AND(ISNUMBER(B91),ISNUMBER(C91)),MAX(A1:A90)+1,"")</f>
         <v/>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="str">
         <f>IF(AND(ISNUMBER(B92),ISNUMBER(C92)),MAX(A1:A91)+1,"")</f>
         <v/>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="str">
         <f>IF(AND(ISNUMBER(B93),ISNUMBER(C93)),MAX(A1:A92)+1,"")</f>
         <v/>
       </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="53"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="str">
         <f>IF(AND(ISNUMBER(B94),ISNUMBER(C94)),MAX(A1:A93)+1,"")</f>
         <v/>
       </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="str">
         <f>IF(AND(ISNUMBER(B95),ISNUMBER(C95)),MAX(A1:A94)+1,"")</f>
         <v/>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="str">
         <f>IF(AND(ISNUMBER(B96),ISNUMBER(C96)),MAX(A1:A95)+1,"")</f>
         <v/>
       </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="str">
         <f>IF(AND(ISNUMBER(B97),ISNUMBER(C97)),MAX(A1:A96)+1,"")</f>
         <v/>
       </c>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="str">
         <f>IF(AND(ISNUMBER(B98),ISNUMBER(C98)),MAX(A1:A97)+1,"")</f>
         <v/>
       </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="str">
         <f>IF(AND(ISNUMBER(B99),ISNUMBER(C99)),MAX(A1:A98)+1,"")</f>
         <v/>
       </c>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="str">
         <f>IF(AND(ISNUMBER(B100),ISNUMBER(C100)),MAX(A1:A99)+1,"")</f>
         <v/>
       </c>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="str">
         <f>IF(AND(ISNUMBER(B101),ISNUMBER(C101)),MAX(A1:A100)+1,"")</f>
         <v/>
       </c>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="str">
         <f>IF(AND(ISNUMBER(B102),ISNUMBER(C102)),MAX(A1:A101)+1,"")</f>
         <v/>
       </c>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10102,9 +10473,7 @@
       <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="43">
-        <v>10</v>
-      </c>
+      <c r="B2" s="43"/>
       <c r="C2" s="11" t="str">
         <f>IF(OR(ISBLANK(B2),AND(IF(ISNUMBER(B2),AND(B2&gt;0,INT(B2)=B2),FALSE))),"","n must be a positive integer")</f>
         <v/>
@@ -10120,32 +10489,30 @@
       <c r="A3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="43">
-        <v>0.5</v>
-      </c>
+      <c r="B3" s="43"/>
       <c r="C3" s="11" t="str">
         <f>IF(AND(B3&lt;=1,B3&gt;=0),"","p must be between 0 and 1")</f>
         <v/>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="str">
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="46">
+        <v/>
+      </c>
+      <c r="E3" s="46" t="str">
         <f>IF(ISNUMBER(D3),_xlfn.BINOM.DIST(D3,B2,B3,FALSE),"")</f>
-        <v>9.765625E-4</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="str">
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D3&lt;B2),D3+1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="46">
+        <v/>
+      </c>
+      <c r="E4" s="46" t="str">
         <f>IF(ISNUMBER(D4),_xlfn.BINOM.DIST(D4,B2,B3,FALSE),"")</f>
-        <v>9.7656250000000017E-3</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10153,64 +10520,62 @@
         <v>55</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="str">
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D4&lt;B2),D4+1,"")</f>
-        <v>2</v>
-      </c>
-      <c r="E5" s="46">
+        <v/>
+      </c>
+      <c r="E5" s="46" t="str">
         <f>IF(ISNUMBER(D5),_xlfn.BINOM.DIST(D5,B2,B3,FALSE),"")</f>
-        <v>4.3945312499999972E-2</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="43">
-        <v>3</v>
-      </c>
+      <c r="B6" s="43"/>
       <c r="C6" s="11" t="str">
         <f>IF(AND(INT(B6)=B6,B6&gt;=0,B6&lt;=B2),"","x must be an integer between 0 and n")</f>
         <v/>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="str">
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D5&lt;B2),D5+1,"")</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="46">
+        <v/>
+      </c>
+      <c r="E6" s="46" t="str">
         <f>IF(ISNUMBER(D6),_xlfn.BINOM.DIST(D6,B2,B3,FALSE),"")</f>
-        <v>0.11718750000000003</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="41" t="str">
         <f>IF(ISNUMBER(B6),IF(AND(B2&gt;0,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1,B6&gt;=0,B6&lt;=B2,INT(B6)=B6),_xlfn.BINOM.DIST(B6,B2,B3,FALSE),"Input error"),"")</f>
-        <v>0.11718750000000003</v>
+        <v/>
       </c>
       <c r="C7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="str">
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D6&lt;B2),D6+1,"")</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="46">
+        <v/>
+      </c>
+      <c r="E7" s="46" t="str">
         <f>IF(ISNUMBER(D7),_xlfn.BINOM.DIST(D7,B2,B3,FALSE),"")</f>
-        <v>0.20507812500000006</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12"/>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="str">
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D7&lt;B2),D7+1,"")</f>
-        <v>5</v>
-      </c>
-      <c r="E8" s="46">
+        <v/>
+      </c>
+      <c r="E8" s="46" t="str">
         <f>IF(ISNUMBER(D8),_xlfn.BINOM.DIST(D8,B2,B3,FALSE),"")</f>
-        <v>0.24609375000000008</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10218,82 +10583,78 @@
         <v>59</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="str">
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D8&lt;B2),D8+1,"")</f>
-        <v>6</v>
-      </c>
-      <c r="E9" s="46">
+        <v/>
+      </c>
+      <c r="E9" s="46" t="str">
         <f>IF(ISNUMBER(D9),_xlfn.BINOM.DIST(D9,B2,B3,FALSE),"")</f>
-        <v>0.20507812500000006</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="43">
-        <v>0</v>
-      </c>
+      <c r="B10" s="43"/>
       <c r="C10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="str">
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D9&lt;B2),D9+1,"")</f>
-        <v>7</v>
-      </c>
-      <c r="E10" s="46">
+        <v/>
+      </c>
+      <c r="E10" s="46" t="str">
         <f>IF(ISNUMBER(D10),_xlfn.BINOM.DIST(D10,B2,B3,FALSE),"")</f>
-        <v>0.11718750000000003</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="43">
-        <v>8</v>
-      </c>
+      <c r="B11" s="43"/>
       <c r="C11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="str">
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D10&lt;B2),D10+1,"")</f>
-        <v>8</v>
-      </c>
-      <c r="E11" s="46">
+        <v/>
+      </c>
+      <c r="E11" s="46" t="str">
         <f>IF(ISNUMBER(D11),_xlfn.BINOM.DIST(D11,B2,B3,FALSE),"")</f>
-        <v>4.3945312499999986E-2</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="str">
         <f>CONCATENATE("P(", IF(ISBLANK(B10),"","lower ≤ "),"x",IF(ISBLANK(B11),""," ≤ upper"),") =")</f>
-        <v>P(lower ≤ x ≤ upper) =</v>
-      </c>
-      <c r="B12" s="41">
+        <v>P(x) =</v>
+      </c>
+      <c r="B12" s="41" t="str">
         <f>IF(OR(ISNUMBER(B10),ISNUMBER(B11)),IF(AND(B2&gt;0,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1, OR(ISBLANK(B10),AND(B10&gt;=0,B10&lt;=B2,IF(ISNUMBER(B10),INT(B10)=B10,FALSE),OR(ISBLANK(B11),B10&lt;=B11))),OR(ISBLANK(B11),AND(B11&gt;=0,B11&lt;=B2,IF(ISNUMBER(B11),INT(B11)=B11,FALSE),OR(ISBLANK(B10),B10&lt;=B11)))),IF(ISBLANK(B10),_xlfn.BINOM.DIST(B11,B2,B3,TRUE),IF(ISBLANK(B11),IF(B10=0,1,1-_xlfn.BINOM.DIST(B10-1,B2,B3,TRUE)),_xlfn.BINOM.DIST(B11,B2,B3,TRUE)-IF(B10=0,0,_xlfn.BINOM.DIST(B10-1,B2,B3,TRUE)))),"Input error"),"")</f>
-        <v>0.9892578125</v>
+        <v/>
       </c>
       <c r="C12" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="str">
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D11&lt;B2),D11+1,"")</f>
-        <v>9</v>
-      </c>
-      <c r="E12" s="46">
+        <v/>
+      </c>
+      <c r="E12" s="46" t="str">
         <f>IF(ISNUMBER(D12),_xlfn.BINOM.DIST(D12,B2,B3,FALSE),"")</f>
-        <v>9.7656250000000017E-3</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="str">
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D12&lt;B2),D12+1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="E13" s="46">
+        <v/>
+      </c>
+      <c r="E13" s="46" t="str">
         <f>IF(ISNUMBER(D13),_xlfn.BINOM.DIST(D13,B2,B3,FALSE),"")</f>
-        <v>9.765625E-4</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -10877,7 +11238,7 @@
         <v>P(t) =</v>
       </c>
       <c r="B7" s="41" t="str">
-        <f>IF(AND(ISBLANK(B5),ISBLANK(B6)),"",IF(OR(NOT(OR(ISBLANK(B5),ISNUMBER(B5))),NOT(OR(ISBLANK(B6),ISNUMBER(B6)))),"Input Error",IF(IF(OR(ISBLANK(B5),ISBLANK(B6)),FALSE,B5&gt;B6),"Input Error",IF(B2&gt;0,_xlfn.T.DIST(IF(ISBLANK(B6),1E+100,B6),B2,TRUE)-_xlfn.T.DIST(IF(ISBLANK(B5),-1E+100,B5),B2,TRUE),"Input df"))))</f>
+        <f>IF(AND(ISBLANK(B5),ISBLANK(B6)),"",IF(OR(NOT(OR(ISBLANK(B5),ISNUMBER(B5))),NOT(OR(ISBLANK(B6),ISNUMBER(B6)))),"Input Error",IF(IF(OR(ISBLANK(B5),ISBLANK(B6)),FALSE,B5&gt;B6),"Input Error",IF(B2&gt;0,_xlfn.T.DIST(IF(ISBLANK(B6),10^100,B6),B2,TRUE)-_xlfn.T.DIST(IF(ISBLANK(B5),-1*10^100,B5),B2,TRUE),"Input df"))))</f>
         <v/>
       </c>
       <c r="C7" s="14" t="s">
@@ -10921,9 +11282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/newman/excel/StatisticsToolsRespondus.xlsx
+++ b/newman/excel/StatisticsToolsRespondus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Newman\Dropbox\github\SanJacMath.github.io\SanJacMath.github.io\newman\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8CD7CC-A181-4475-9CAB-8E4E8FCAA196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8600951-8481-4C4E-8A1E-9DF445297265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="178">
   <si>
     <t>Type sample data in the column below, and the statistics will calculate on the right</t>
   </si>
@@ -762,16 +762,23 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Scatterplot tool not available in Respondus</t>
+  </si>
+  <si>
+    <t>Usage warnings here</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,6 +819,19 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -925,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1066,6 +1086,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2013,15 +2039,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>322385</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161192</xdr:rowOff>
+      <xdr:colOff>505558</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>212481</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>153865</xdr:rowOff>
+      <xdr:colOff>395654</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2036,7 +2062,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1846385" y="3209192"/>
+          <a:off x="2029558" y="3260481"/>
           <a:ext cx="5707673" cy="1897673"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2278,15 +2304,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3555,7 +3581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K202"/>
+  <dimension ref="A1:AI202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -3572,15 +3598,21 @@
     <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="V1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3588,7 +3620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>IF(ISNUMBER(B3),MAX(A1:A2)+1,"")</f>
         <v/>
@@ -3598,7 +3630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>IF(ISNUMBER(B4),MAX(A1:A3)+1,"")</f>
         <v/>
@@ -3618,7 +3650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>IF(ISNUMBER(B5),MAX(A1:A4)+1,"")</f>
         <v/>
@@ -3638,7 +3670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>IF(ISNUMBER(B6),MAX(A1:A5)+1,"")</f>
         <v/>
@@ -3658,7 +3690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f>IF(ISNUMBER(B7),MAX(A1:A6)+1,"")</f>
         <v/>
@@ -3678,7 +3710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f>IF(ISNUMBER(B8),MAX(A1:A7)+1,"")</f>
         <v/>
@@ -3698,7 +3730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f>IF(ISNUMBER(B9),MAX(A1:A8)+1,"")</f>
         <v/>
@@ -3718,7 +3750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f>IF(ISNUMBER(B10),MAX(A1:A9)+1,"")</f>
         <v/>
@@ -3738,7 +3770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f>IF(ISNUMBER(B11),MAX(A1:A10)+1,"")</f>
         <v/>
@@ -3748,7 +3780,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f>IF(ISNUMBER(B12),MAX(A1:A11)+1,"")</f>
         <v/>
@@ -3768,7 +3800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f>IF(ISNUMBER(B13),MAX(A1:A12)+1,"")</f>
         <v/>
@@ -3789,7 +3821,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f>IF(ISNUMBER(B14),MAX(A1:A13)+1,"")</f>
         <v/>
@@ -3809,7 +3841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f>IF(ISNUMBER(B15),MAX(A1:A14)+1,"")</f>
         <v/>
@@ -3830,7 +3862,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f>IF(ISNUMBER(B16),MAX(A1:A15)+1,"")</f>
         <v/>
@@ -3850,112 +3882,115 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f>IF(ISNUMBER(B17),MAX(A1:A16)+1,"")</f>
         <v/>
       </c>
       <c r="B17" s="42"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f>IF(ISNUMBER(B18),MAX(A1:A17)+1,"")</f>
         <v/>
       </c>
       <c r="B18" s="42"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f>IF(ISNUMBER(B19),MAX(A1:A18)+1,"")</f>
         <v/>
       </c>
       <c r="B19" s="42"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f>IF(ISNUMBER(B20),MAX(A1:A19)+1,"")</f>
         <v/>
       </c>
       <c r="B20" s="42"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f>IF(ISNUMBER(B21),MAX(A1:A20)+1,"")</f>
         <v/>
       </c>
       <c r="B21" s="42"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f>IF(ISNUMBER(B22),MAX(A1:A21)+1,"")</f>
         <v/>
       </c>
       <c r="B22" s="42"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f>IF(ISNUMBER(B23),MAX(A1:A22)+1,"")</f>
         <v/>
       </c>
       <c r="B23" s="42"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f>IF(ISNUMBER(B24),MAX(A1:A23)+1,"")</f>
         <v/>
       </c>
       <c r="B24" s="42"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f>IF(ISNUMBER(B25),MAX(A1:A24)+1,"")</f>
         <v/>
       </c>
       <c r="B25" s="42"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f>IF(ISNUMBER(B26),MAX(A1:A25)+1,"")</f>
         <v/>
       </c>
       <c r="B26" s="42"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f>IF(ISNUMBER(B27),MAX(A1:A26)+1,"")</f>
         <v/>
       </c>
       <c r="B27" s="42"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f>IF(ISNUMBER(B28),MAX(A1:A27)+1,"")</f>
         <v/>
       </c>
       <c r="B28" s="42"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f>IF(ISNUMBER(B29),MAX(A1:A28)+1,"")</f>
         <v/>
       </c>
       <c r="B29" s="42"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f>IF(ISNUMBER(B30),MAX(A1:A29)+1,"")</f>
         <v/>
       </c>
       <c r="B30" s="42"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f>IF(ISNUMBER(B31),MAX(A1:A30)+1,"")</f>
         <v/>
       </c>
       <c r="B31" s="42"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f>IF(ISNUMBER(B32),MAX(A1:A31)+1,"")</f>
         <v/>
@@ -5165,11 +5200,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5178,16 +5211,19 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E1" s="16"/>
-      <c r="O1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S1" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>120</v>
       </c>
@@ -5213,7 +5249,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -5248,7 +5284,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -5260,7 +5296,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -5292,7 +5328,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -5306,29 +5342,35 @@
         <f>IF(H4&lt;&gt;"","",COUNT(H3:M3)-1)</f>
         <v/>
       </c>
-      <c r="I6" s="51" t="str">
+      <c r="I6" s="55" t="str">
         <f>IF(H4&lt;&gt;"","",IF(COUNT(A3:A102)=0,0,COUNT(A3:A102)*(AVERAGE(A3:A102)-AVERAGE(A3:F102))^2)+IF(COUNT(B3:B102)=0,0,COUNT(B3:B102)*(AVERAGE(B3:B102)-AVERAGE(A3:F102))^2)+IF(COUNT(C3:C102)=0,0,COUNT(C3:C102)*(AVERAGE(C3:C102)-AVERAGE(A3:F102))^2)+IF(COUNT(D3:D102)=0,0,COUNT(D3:D102)*(AVERAGE(D3:D102)-AVERAGE(A3:F102))^2)+IF(COUNT(E3:E102)=0,0,COUNT(E3:E102)*(AVERAGE(E3:E102)-AVERAGE(A3:F102))^2)+IF(COUNT(F3:F102)=0,0,COUNT(F3:F102)*(AVERAGE(F3:F102)-AVERAGE(A3:F102))^2))</f>
         <v/>
       </c>
-      <c r="J6" s="51" t="str">
+      <c r="J6" s="55" t="str">
         <f>IF(H4&lt;&gt;"","",I6/H6)</f>
         <v/>
       </c>
-      <c r="K6" s="51" t="str">
+      <c r="K6" s="55" t="str">
         <f>IF(H4&lt;&gt;"","",J6/J7)</f>
         <v/>
       </c>
-      <c r="L6" s="51" t="str">
-        <f>IF(H4&lt;&gt;"","",_xlfn.F.DIST.RT(K6,H6,H7))</f>
-        <v/>
+      <c r="L6" s="55" t="str">
+        <f>IF(H4&lt;&gt;"","",FDIST(K6,H6,H7))</f>
+        <v/>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="N6" s="53"/>
-      <c r="O6" s="51" t="str">
-        <f>IF(H4&lt;&gt;"","",IF(ISBLANK(N6),"",IF(OR(NOT(ISNUMBER(N6)),N6&gt;=1,N6&lt;=0),"",_xlfn.F.INV.RT(N6,H6,H7))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="55" t="str">
+        <f>IF(H4&lt;&gt;"","",IF(ISBLANK(N6),"",IF(OR(NOT(ISNUMBER(N6)),N6&gt;=1,N6&lt;=0),"",FINV(N6,H6,H7))))</f>
+        <v/>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -5342,22 +5384,24 @@
         <f>IF(H4&lt;&gt;"","",COUNT(A3:F102)-COUNT(H3:M3))</f>
         <v/>
       </c>
-      <c r="I7" s="51" t="str">
+      <c r="I7" s="55" t="str">
         <f>IF(H4&lt;&gt;"","",IF(COUNT(A3:A102)=0,0,(COUNT(A3:A102)-1)*(_xlfn.STDEV.S(A3:A102))^2)+IF(COUNT(B3:B102)=0,0,(COUNT(B3:B102)-1)*(_xlfn.STDEV.S(B3:B102))^2)+IF(COUNT(C3:C102)=0,0,(COUNT(C3:C102)-1)*(_xlfn.STDEV.S(C3:C102))^2)+IF(COUNT(D3:D102)=0,0,(COUNT(D3:D102)-1)*(_xlfn.STDEV.S(D3:D102))^2)+IF(COUNT(E3:E102)=0,0,(COUNT(E3:E102)-1)*(_xlfn.STDEV.S(E3:E102))^2)+IF(COUNT(F3:F102)=0,0,(COUNT(F3:F102)-1)*(_xlfn.STDEV.S(F3:F102))^2))</f>
         <v/>
       </c>
-      <c r="J7" s="51" t="str">
+      <c r="J7" s="55" t="str">
         <f>IF(H4&lt;&gt;"","",I7/H7)</f>
         <v/>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="L7" s="22"/>
       <c r="N7" s="16" t="str">
         <f>IF(ISBLANK(N6),"",IF(OR(NOT(ISNUMBER(N6)),N6&gt;=1,N6&lt;=0),"α must be between 0 and 1",""))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -5371,15 +5415,17 @@
         <f>IF(H4&lt;&gt;"","",H6+H7)</f>
         <v/>
       </c>
-      <c r="I8" s="51" t="str">
+      <c r="I8" s="55" t="str">
         <f>IF(H4&lt;&gt;"","",I6+I7)</f>
         <v/>
       </c>
-      <c r="J8" s="22"/>
+      <c r="J8" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -5387,7 +5433,7 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -5398,7 +5444,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -5416,7 +5462,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -5430,7 +5476,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -5444,7 +5490,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -5455,7 +5501,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
@@ -5469,7 +5515,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
@@ -6228,7 +6274,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:U102"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
@@ -6245,16 +6291,19 @@
     <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U1" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -6274,7 +6323,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>IF(AND(ISNUMBER(B3),ISNUMBER(C3)),MAX(A1:A2)+1,"")</f>
         <v/>
@@ -6297,7 +6346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(C4)),MAX(A1:A3)+1,"")</f>
         <v/>
@@ -6323,11 +6372,14 @@
         <f>IF(MAX(A3:A102)=0,"",IF(AND(MAX(A3:A102)=COUNT(B3:B102),MAX(A3:A102)=COUNT(C3:C102)),SUM(F3:F102),"Input Error"))</f>
         <v/>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="K4" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>IF(AND(ISNUMBER(B5),ISNUMBER(C5)),MAX(A1:A4)+1,"")</f>
         <v/>
@@ -6354,9 +6406,12 @@
         <f>IF(OR(I4="",I4="Input Error"),"",MAX(A3:A102)-1)</f>
         <v/>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>IF(AND(ISNUMBER(B6),ISNUMBER(C6)),MAX(A1:A5)+1,"")</f>
         <v/>
@@ -6379,14 +6434,17 @@
         <v>170</v>
       </c>
       <c r="I6" s="41" t="str">
-        <f>IF(OR(I4="",I4="Input Error"),"",_xlfn.CHISQ.DIST.RT(I4,I5))</f>
-        <v/>
+        <f>IF(OR(I4="",I4="Input Error"),"",CHIDIST(I4,I5))</f>
+        <v/>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f>IF(AND(ISNUMBER(B7),ISNUMBER(C7)),MAX(A1:A6)+1,"")</f>
         <v/>
@@ -6408,7 +6466,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f>IF(AND(ISNUMBER(B8),ISNUMBER(C8)),MAX(A1:A7)+1,"")</f>
         <v/>
@@ -6430,13 +6488,15 @@
       <c r="H8" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="44">
+        <v>0.05</v>
+      </c>
       <c r="J8" s="16" t="str">
-        <f>IF(ISBLANK(I8),"",IF(OR(NOT(ISNUMBER(I8)),I8&gt;=1,I8&lt;=0),"α must be between 0 and 1",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(I8),"",IF(OR(NOT(ISNUMBER(I8)),I8&gt;=1,I8&lt;=0),"α must be between 0 and 1"," "))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f>IF(AND(ISNUMBER(B9),ISNUMBER(C9)),MAX(A1:A8)+1,"")</f>
         <v/>
@@ -6459,14 +6519,17 @@
         <v>173</v>
       </c>
       <c r="I9" s="49" t="str">
-        <f>IF(MAX(A3:A102)=0,"",IF(ISBLANK(I8),"",IF(OR(NOT(ISNUMBER(I8)),I8&gt;=1,I8&lt;=0),"",_xlfn.CHISQ.INV.RT(I8,I5))))</f>
-        <v/>
+        <f>IF(MAX(A3:A102)=0,"",IF(ISBLANK(I8),"",IF(OR(NOT(ISNUMBER(I8)),I8&gt;=1,I8&lt;=0),"",CHIINV(I8,I5))))</f>
+        <v/>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f>IF(AND(ISNUMBER(B10),ISNUMBER(C10)),MAX(A1:A9)+1,"")</f>
         <v/>
@@ -6486,7 +6549,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f>IF(AND(ISNUMBER(B11),ISNUMBER(C11)),MAX(A1:A10)+1,"")</f>
         <v/>
@@ -6507,7 +6570,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f>IF(AND(ISNUMBER(B12),ISNUMBER(C12)),MAX(A1:A11)+1,"")</f>
         <v/>
@@ -6528,7 +6591,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f>IF(AND(ISNUMBER(B13),ISNUMBER(C13)),MAX(A1:A12)+1,"")</f>
         <v/>
@@ -6548,7 +6611,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f>IF(AND(ISNUMBER(B14),ISNUMBER(C14)),MAX(A1:A13)+1,"")</f>
         <v/>
@@ -6568,7 +6631,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f>IF(AND(ISNUMBER(B15),ISNUMBER(C15)),MAX(A1:A14)+1,"")</f>
         <v/>
@@ -6588,7 +6651,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f>IF(AND(ISNUMBER(B16),ISNUMBER(C16)),MAX(A1:A15)+1,"")</f>
         <v/>
@@ -8320,7 +8383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:Y115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -8333,16 +8396,19 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Y1" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -8353,7 +8419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>IF(AND(ISNUMBER(B3),ISNUMBER(C3)),MAX(A1:A2)+1,"")</f>
         <v/>
@@ -8364,7 +8430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(C4)),MAX(A1:A3)+1,"")</f>
         <v/>
@@ -8385,7 +8451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>IF(AND(ISNUMBER(B5),ISNUMBER(C5)),MAX(A1:A4)+1,"")</f>
         <v/>
@@ -8406,7 +8472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>IF(AND(ISNUMBER(B6),ISNUMBER(C6)),MAX(A1:A5)+1,"")</f>
         <v/>
@@ -8427,7 +8493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f>IF(AND(ISNUMBER(B7),ISNUMBER(C7)),MAX(A1:A6)+1,"")</f>
         <v/>
@@ -8448,7 +8514,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f>IF(AND(ISNUMBER(B8),ISNUMBER(C8)),MAX(A1:A7)+1,"")</f>
         <v/>
@@ -8469,7 +8535,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f>IF(AND(ISNUMBER(B9),ISNUMBER(C9)),MAX(A1:A8)+1,"")</f>
         <v/>
@@ -8484,7 +8550,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f>IF(AND(ISNUMBER(B10),ISNUMBER(C10)),MAX(A1:A9)+1,"")</f>
         <v/>
@@ -8505,7 +8571,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f>IF(AND(ISNUMBER(B11),ISNUMBER(C11)),MAX(A1:A10)+1,"")</f>
         <v/>
@@ -8526,7 +8592,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f>IF(AND(ISNUMBER(B12),ISNUMBER(C12)),MAX(A1:A11)+1,"")</f>
         <v/>
@@ -8535,7 +8601,7 @@
       <c r="C12" s="42"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f>IF(AND(ISNUMBER(B13),ISNUMBER(C13)),MAX(A1:A12)+1,"")</f>
         <v/>
@@ -8544,7 +8610,7 @@
       <c r="C13" s="42"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f>IF(AND(ISNUMBER(B14),ISNUMBER(C14)),MAX(A1:A13)+1,"")</f>
         <v/>
@@ -8553,16 +8619,18 @@
       <c r="C14" s="42"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f>IF(AND(ISNUMBER(B15),ISNUMBER(C15)),MAX(A1:A14)+1,"")</f>
         <v/>
       </c>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f>IF(AND(ISNUMBER(B16),ISNUMBER(C16)),MAX(A1:A15)+1,"")</f>
         <v/>
@@ -8571,16 +8639,15 @@
       <c r="C16" s="42"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f>IF(AND(ISNUMBER(B17),ISNUMBER(C17)),MAX(A1:A16)+1,"")</f>
         <v/>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f>IF(AND(ISNUMBER(B18),ISNUMBER(C18)),MAX(A1:A17)+1,"")</f>
         <v/>
@@ -8588,7 +8655,7 @@
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f>IF(AND(ISNUMBER(B19),ISNUMBER(C19)),MAX(A1:A18)+1,"")</f>
         <v/>
@@ -8596,7 +8663,7 @@
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f>IF(AND(ISNUMBER(B20),ISNUMBER(C20)),MAX(A1:A19)+1,"")</f>
         <v/>
@@ -8604,7 +8671,7 @@
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f>IF(AND(ISNUMBER(B21),ISNUMBER(C21)),MAX(A1:A20)+1,"")</f>
         <v/>
@@ -8612,7 +8679,7 @@
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f>IF(AND(ISNUMBER(B22),ISNUMBER(C22)),MAX(A1:A21)+1,"")</f>
         <v/>
@@ -8620,7 +8687,7 @@
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f>IF(AND(ISNUMBER(B23),ISNUMBER(C23)),MAX(A1:A22)+1,"")</f>
         <v/>
@@ -8628,7 +8695,7 @@
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f>IF(AND(ISNUMBER(B24),ISNUMBER(C24)),MAX(A1:A23)+1,"")</f>
         <v/>
@@ -8636,7 +8703,7 @@
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f>IF(AND(ISNUMBER(B25),ISNUMBER(C25)),MAX(A1:A24)+1,"")</f>
         <v/>
@@ -8644,7 +8711,7 @@
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f>IF(AND(ISNUMBER(B26),ISNUMBER(C26)),MAX(A1:A25)+1,"")</f>
         <v/>
@@ -8652,7 +8719,7 @@
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f>IF(AND(ISNUMBER(B27),ISNUMBER(C27)),MAX(A1:A26)+1,"")</f>
         <v/>
@@ -8660,7 +8727,7 @@
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f>IF(AND(ISNUMBER(B28),ISNUMBER(C28)),MAX(A1:A27)+1,"")</f>
         <v/>
@@ -8668,7 +8735,7 @@
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f>IF(AND(ISNUMBER(B29),ISNUMBER(C29)),MAX(A1:A28)+1,"")</f>
         <v/>
@@ -8676,7 +8743,7 @@
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f>IF(AND(ISNUMBER(B30),ISNUMBER(C30)),MAX(A1:A29)+1,"")</f>
         <v/>
@@ -8684,7 +8751,7 @@
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f>IF(AND(ISNUMBER(B31),ISNUMBER(C31)),MAX(A1:A30)+1,"")</f>
         <v/>
@@ -8692,7 +8759,7 @@
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f>IF(AND(ISNUMBER(B32),ISNUMBER(C32)),MAX(A1:A31)+1,"")</f>
         <v/>
@@ -9259,6 +9326,11 @@
       </c>
       <c r="B102" s="42"/>
       <c r="C102" s="42"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9269,7 +9341,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -9278,15 +9350,18 @@
     <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W1" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -9297,7 +9372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>IF(AND(ISNUMBER(B3),ISNUMBER(C3)),MAX(A1:A2)+1,"")</f>
         <v/>
@@ -9311,7 +9386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(C4)),MAX(A1:A3)+1,"")</f>
         <v/>
@@ -9335,7 +9410,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>IF(AND(ISNUMBER(B5),ISNUMBER(C5)),MAX(A1:A4)+1,"")</f>
         <v/>
@@ -9359,7 +9434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>IF(AND(ISNUMBER(B6),ISNUMBER(C6)),MAX(A1:A5)+1,"")</f>
         <v/>
@@ -9383,7 +9458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f>IF(AND(ISNUMBER(B7),ISNUMBER(C7)),MAX(A1:A6)+1,"")</f>
         <v/>
@@ -9394,7 +9469,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f>IF(AND(ISNUMBER(B8),ISNUMBER(C8)),MAX(A1:A7)+1,"")</f>
         <v/>
@@ -9405,7 +9480,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f>IF(AND(ISNUMBER(B9),ISNUMBER(C9)),MAX(A1:A8)+1,"")</f>
         <v/>
@@ -9416,7 +9491,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f>IF(AND(ISNUMBER(B10),ISNUMBER(C10)),MAX(A1:A9)+1,"")</f>
         <v/>
@@ -9427,7 +9502,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f>IF(AND(ISNUMBER(B11),ISNUMBER(C11)),MAX(A1:A10)+1,"")</f>
         <v/>
@@ -9438,7 +9513,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f>IF(AND(ISNUMBER(B12),ISNUMBER(C12)),MAX(A1:A11)+1,"")</f>
         <v/>
@@ -9449,7 +9524,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f>IF(AND(ISNUMBER(B13),ISNUMBER(C13)),MAX(A1:A12)+1,"")</f>
         <v/>
@@ -9460,7 +9535,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f>IF(AND(ISNUMBER(B14),ISNUMBER(C14)),MAX(A1:A13)+1,"")</f>
         <v/>
@@ -9471,7 +9546,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f>IF(AND(ISNUMBER(B15),ISNUMBER(C15)),MAX(A1:A14)+1,"")</f>
         <v/>
@@ -9482,7 +9557,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f>IF(AND(ISNUMBER(B16),ISNUMBER(C16)),MAX(A1:A15)+1,"")</f>
         <v/>
@@ -10447,7 +10522,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
@@ -10458,18 +10533,22 @@
     <col min="3" max="3" width="63.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
@@ -10485,7 +10564,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>54</v>
       </c>
@@ -10495,104 +10574,118 @@
         <v/>
       </c>
       <c r="D3" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50),0,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50),0," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" s="46" t="str">
-        <f>IF(ISNUMBER(D3),_xlfn.BINOM.DIST(D3,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D3),COMBIN(B2,D3)*B3^D3*(1-B3)^(B2-D3),"")</f>
+        <v/>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="C4" s="12"/>
       <c r="D4" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D3&lt;B2),D3+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D3),D3&lt;B2),D3+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" s="46" t="str">
-        <f>IF(ISNUMBER(D4),_xlfn.BINOM.DIST(D4,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D4),COMBIN(B2,D4)*B3^D4*(1-B3)^(B2-D4),"")</f>
+        <v/>
+      </c>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D4&lt;B2),D4+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D4),D4&lt;B2),D4+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E5" s="46" t="str">
-        <f>IF(ISNUMBER(D5),_xlfn.BINOM.DIST(D5,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D5),COMBIN(B2,D5)*B3^D5*(1-B3)^(B2-D5),"")</f>
+        <v/>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="11" t="str">
-        <f>IF(AND(INT(B6)=B6,B6&gt;=0,B6&lt;=B2),"","x must be an integer between 0 and n")</f>
-        <v/>
+        <f>IF(ISBLANK(B6)," ",IF(AND(INT(B6)=B6,B6&gt;=0,B6&lt;=B2)," ","x must be an integer between 0 and n"))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D5&lt;B2),D5+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D5),D5&lt;B2),D5+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="46" t="str">
-        <f>IF(ISNUMBER(D6),_xlfn.BINOM.DIST(D6,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D6),COMBIN(B2,D6)*B3^D6*(1-B3)^(B2-D6),"")</f>
+        <v/>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="41" t="str">
-        <f>IF(ISNUMBER(B6),IF(AND(B2&gt;0,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1,B6&gt;=0,B6&lt;=B2,INT(B6)=B6),_xlfn.BINOM.DIST(B6,B2,B3,FALSE),"Input error"),"")</f>
+        <f>IF(ISNUMBER(B6),IF(AND(B2&gt;0,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1,B6&gt;=0,B6&lt;=B2,INT(B6)=B6),COMBIN(B2,B6)*B3^B6*(1-B3)^(B2-B6),"Input error"),"")</f>
         <v/>
       </c>
       <c r="C7" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D6&lt;B2),D6+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D6),D6&lt;B2),D6+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="46" t="str">
-        <f>IF(ISNUMBER(D7),_xlfn.BINOM.DIST(D7,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D7),COMBIN(B2,D7)*B3^D7*(1-B3)^(B2-D7),"")</f>
+        <v/>
+      </c>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" s="12"/>
       <c r="D8" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D7&lt;B2),D7+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D7),D7&lt;B2),D7+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="46" t="str">
-        <f>IF(ISNUMBER(D8),_xlfn.BINOM.DIST(D8,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D8),COMBIN(B2,D8)*B3^D8*(1-B3)^(B2-D8),"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D8&lt;B2),D8+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D8),D8&lt;B2),D8+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E9" s="46" t="str">
-        <f>IF(ISNUMBER(D9),_xlfn.BINOM.DIST(D9,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D9),COMBIN(B2,D9)*B3^D9*(1-B3)^(B2-D9),"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>60</v>
       </c>
@@ -10601,15 +10694,17 @@
         <v>61</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D9&lt;B2),D9+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D9),D9&lt;B2),D9+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E10" s="46" t="str">
-        <f>IF(ISNUMBER(D10),_xlfn.BINOM.DIST(D10,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D10),COMBIN(B2,D10)*B3^D10*(1-B3)^(B2-D10),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>62</v>
       </c>
@@ -10618,443 +10713,539 @@
         <v>63</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D10&lt;B2),D10+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D10),D10&lt;B2),D10+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E11" s="46" t="str">
-        <f>IF(ISNUMBER(D11),_xlfn.BINOM.DIST(D11,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D11),COMBIN(B2,D11)*B3^D11*(1-B3)^(B2-D11),"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="str">
         <f>CONCATENATE("P(", IF(ISBLANK(B10),"","lower ≤ "),"x",IF(ISBLANK(B11),""," ≤ upper"),") =")</f>
         <v>P(x) =</v>
       </c>
       <c r="B12" s="41" t="str">
-        <f>IF(OR(ISNUMBER(B10),ISNUMBER(B11)),IF(AND(B2&gt;0,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1, OR(ISBLANK(B10),AND(B10&gt;=0,B10&lt;=B2,IF(ISNUMBER(B10),INT(B10)=B10,FALSE),OR(ISBLANK(B11),B10&lt;=B11))),OR(ISBLANK(B11),AND(B11&gt;=0,B11&lt;=B2,IF(ISNUMBER(B11),INT(B11)=B11,FALSE),OR(ISBLANK(B10),B10&lt;=B11)))),IF(ISBLANK(B10),_xlfn.BINOM.DIST(B11,B2,B3,TRUE),IF(ISBLANK(B11),IF(B10=0,1,1-_xlfn.BINOM.DIST(B10-1,B2,B3,TRUE)),_xlfn.BINOM.DIST(B11,B2,B3,TRUE)-IF(B10=0,0,_xlfn.BINOM.DIST(B10-1,B2,B3,TRUE)))),"Input error"),"")</f>
+        <f>IF(OR(ISNUMBER(B10),ISNUMBER(B11)),IF(AND(B2&gt;0,B2&lt;=50,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1, OR(ISBLANK(B10),AND(B10&gt;=0,B10&lt;=B2,IF(ISNUMBER(B10),INT(B10)=B10,FALSE),OR(ISBLANK(B11),B10&lt;=B11))),OR(ISBLANK(B11),AND(B11&gt;=0,B11&lt;=B2,IF(ISNUMBER(B11),INT(B11)=B11,FALSE),OR(ISBLANK(B10),B10&lt;=B11)))),IF(ISBLANK(B10),SUMIF(D3:D53,"&lt;="&amp;B11,E3:E53),IF(ISBLANK(B11),SUMIF(D3:D53,"&gt;="&amp;B10,E3:E53),SUMIF(D3:D53,"&lt;="&amp;B11,E3:E53)-SUMIF(D3:D53,"&lt;"&amp;B10,E3:E53))),"Input error"),"")</f>
         <v/>
       </c>
       <c r="C12" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D11&lt;B2),D11+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D11),D11&lt;B2),D11+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="46" t="str">
-        <f>IF(ISNUMBER(D12),_xlfn.BINOM.DIST(D12,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D12),COMBIN(B2,D12)*B3^D12*(1-B3)^(B2-D12),"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="str">
+        <f>IF(AND(NOT(AND(ISBLANK(B10),ISBLANK(B11))),B2&gt;50),"Binomial Range tool in Respondus currently only works for n &lt;= 50"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B13" s="58"/>
       <c r="D13" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D12&lt;B2),D12+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D12),D12&lt;B2),D12+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="46" t="str">
-        <f>IF(ISNUMBER(D13),_xlfn.BINOM.DIST(D13,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D13),COMBIN(B2,D13)*B3^D13*(1-B3)^(B2-D13),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D13&lt;B2),D13+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D13),D13&lt;B2),D13+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="46" t="str">
-        <f>IF(ISNUMBER(D14),_xlfn.BINOM.DIST(D14,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D14),COMBIN(B2,D14)*B3^D14*(1-B3)^(B2-D14),"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D14&lt;B2),D14+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D14),D14&lt;B2),D14+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="46" t="str">
-        <f>IF(ISNUMBER(D15),_xlfn.BINOM.DIST(D15,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D15),COMBIN(B2,D15)*B3^D15*(1-B3)^(B2-D15),"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D15&lt;B2),D15+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D15),D15&lt;B2),D15+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E16" s="46" t="str">
-        <f>IF(ISNUMBER(D16),_xlfn.BINOM.DIST(D16,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D16),COMBIN(B2,D16)*B3^D16*(1-B3)^(B2-D16),"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D16&lt;B2),D16+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D16),D16&lt;B2),D16+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E17" s="46" t="str">
-        <f>IF(ISNUMBER(D17),_xlfn.BINOM.DIST(D17,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D17),COMBIN(B2,D17)*B3^D17*(1-B3)^(B2-D17),"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D17&lt;B2),D17+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D17),D17&lt;B2),D17+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E18" s="46" t="str">
-        <f>IF(ISNUMBER(D18),_xlfn.BINOM.DIST(D18,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D18),COMBIN(B2,D18)*B3^D18*(1-B3)^(B2-D18),"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D18&lt;B2),D18+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D18),D18&lt;B2),D18+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E19" s="46" t="str">
-        <f>IF(ISNUMBER(D19),_xlfn.BINOM.DIST(D19,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D19),COMBIN(B2,D19)*B3^D19*(1-B3)^(B2-D19),"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D19&lt;B2),D19+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D19),D19&lt;B2),D19+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E20" s="46" t="str">
-        <f>IF(ISNUMBER(D20),_xlfn.BINOM.DIST(D20,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D20),COMBIN(B2,D20)*B3^D20*(1-B3)^(B2-D20),"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D20&lt;B2),D20+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D20),D20&lt;B2),D20+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E21" s="46" t="str">
-        <f>IF(ISNUMBER(D21),_xlfn.BINOM.DIST(D21,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D21),COMBIN(B2,D21)*B3^D21*(1-B3)^(B2-D21),"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D21&lt;B2),D21+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D21),D21&lt;B2),D21+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="46" t="str">
-        <f>IF(ISNUMBER(D22),_xlfn.BINOM.DIST(D22,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D22),COMBIN(B2,D22)*B3^D22*(1-B3)^(B2-D22),"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D22&lt;B2),D22+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D22),D22&lt;B2),D22+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E23" s="46" t="str">
-        <f>IF(ISNUMBER(D23),_xlfn.BINOM.DIST(D23,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D23),COMBIN(B2,D23)*B3^D23*(1-B3)^(B2-D23),"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D23&lt;B2),D23+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D23),D23&lt;B2),D23+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="46" t="str">
-        <f>IF(ISNUMBER(D24),_xlfn.BINOM.DIST(D24,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D24),COMBIN(B2,D24)*B3^D24*(1-B3)^(B2-D24),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D24&lt;B2),D24+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D24),D24&lt;B2),D24+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="46" t="str">
-        <f>IF(ISNUMBER(D25),_xlfn.BINOM.DIST(D25,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D25),COMBIN(B2,D25)*B3^D25*(1-B3)^(B2-D25),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D25&lt;B2),D25+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D25),D25&lt;B2),D25+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="46" t="str">
-        <f>IF(ISNUMBER(D26),_xlfn.BINOM.DIST(D26,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D26),COMBIN(B2,D26)*B3^D26*(1-B3)^(B2-D26),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D26&lt;B2),D26+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D26),D26&lt;B2),D26+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E27" s="46" t="str">
-        <f>IF(ISNUMBER(D27),_xlfn.BINOM.DIST(D27,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D27),COMBIN(B2,D27)*B3^D27*(1-B3)^(B2-D27),"")</f>
+        <v/>
+      </c>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D27&lt;B2),D27+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D27),D27&lt;B2),D27+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E28" s="46" t="str">
-        <f>IF(ISNUMBER(D28),_xlfn.BINOM.DIST(D28,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D28),COMBIN(B2,D28)*B3^D28*(1-B3)^(B2-D28),"")</f>
+        <v/>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D28&lt;B2),D28+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D28),D28&lt;B2),D28+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E29" s="46" t="str">
-        <f>IF(ISNUMBER(D29),_xlfn.BINOM.DIST(D29,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D29),COMBIN(B2,D29)*B3^D29*(1-B3)^(B2-D29),"")</f>
+        <v/>
+      </c>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D29&lt;B2),D29+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D29),D29&lt;B2),D29+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E30" s="46" t="str">
-        <f>IF(ISNUMBER(D30),_xlfn.BINOM.DIST(D30,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D30),COMBIN(B2,D30)*B3^D30*(1-B3)^(B2-D30),"")</f>
+        <v/>
+      </c>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D30&lt;B2),D30+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D30),D30&lt;B2),D30+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E31" s="46" t="str">
-        <f>IF(ISNUMBER(D31),_xlfn.BINOM.DIST(D31,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D31),COMBIN(B2,D31)*B3^D31*(1-B3)^(B2-D31),"")</f>
+        <v/>
+      </c>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D31&lt;B2),D31+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D31),D31&lt;B2),D31+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E32" s="46" t="str">
-        <f>IF(ISNUMBER(D32),_xlfn.BINOM.DIST(D32,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D32),COMBIN(B2,D32)*B3^D32*(1-B3)^(B2-D32),"")</f>
+        <v/>
+      </c>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D32&lt;B2),D32+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D32),D32&lt;B2),D32+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E33" s="46" t="str">
-        <f>IF(ISNUMBER(D33),_xlfn.BINOM.DIST(D33,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D33),COMBIN(B2,D33)*B3^D33*(1-B3)^(B2-D33),"")</f>
+        <v/>
+      </c>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D33&lt;B2),D33+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D33),D33&lt;B2),D33+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E34" s="46" t="str">
-        <f>IF(ISNUMBER(D34),_xlfn.BINOM.DIST(D34,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D34),COMBIN(B2,D34)*B3^D34*(1-B3)^(B2-D34),"")</f>
+        <v/>
+      </c>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D34&lt;B2),D34+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D34),D34&lt;B2),D34+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E35" s="46" t="str">
-        <f>IF(ISNUMBER(D35),_xlfn.BINOM.DIST(D35,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D35),COMBIN(B2,D35)*B3^D35*(1-B3)^(B2-D35),"")</f>
+        <v/>
+      </c>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D35&lt;B2),D35+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D35),D35&lt;B2),D35+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E36" s="46" t="str">
-        <f>IF(ISNUMBER(D36),_xlfn.BINOM.DIST(D36,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D36),COMBIN(B2,D36)*B3^D36*(1-B3)^(B2-D36),"")</f>
+        <v/>
+      </c>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D36&lt;B2),D36+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D36),D36&lt;B2),D36+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E37" s="46" t="str">
-        <f>IF(ISNUMBER(D37),_xlfn.BINOM.DIST(D37,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D37),COMBIN(B2,D37)*B3^D37*(1-B3)^(B2-D37),"")</f>
+        <v/>
+      </c>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D37&lt;B2),D37+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D37),D37&lt;B2),D37+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E38" s="46" t="str">
-        <f>IF(ISNUMBER(D38),_xlfn.BINOM.DIST(D38,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D38),COMBIN(B2,D38)*B3^D38*(1-B3)^(B2-D38),"")</f>
+        <v/>
+      </c>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D38&lt;B2),D38+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D38),D38&lt;B2),D38+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E39" s="46" t="str">
-        <f>IF(ISNUMBER(D39),_xlfn.BINOM.DIST(D39,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D39),COMBIN(B2,D39)*B3^D39*(1-B3)^(B2-D39),"")</f>
+        <v/>
+      </c>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D39&lt;B2),D39+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D39),D39&lt;B2),D39+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E40" s="46" t="str">
-        <f>IF(ISNUMBER(D40),_xlfn.BINOM.DIST(D40,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D40),COMBIN(B2,D40)*B3^D40*(1-B3)^(B2-D40),"")</f>
+        <v/>
+      </c>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D40&lt;B2),D40+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D40),D40&lt;B2),D40+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E41" s="46" t="str">
-        <f>IF(ISNUMBER(D41),_xlfn.BINOM.DIST(D41,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D41),COMBIN(B2,D41)*B3^D41*(1-B3)^(B2-D41),"")</f>
+        <v/>
+      </c>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D41&lt;B2),D41+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D41),D41&lt;B2),D41+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E42" s="46" t="str">
-        <f>IF(ISNUMBER(D42),_xlfn.BINOM.DIST(D42,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D42),COMBIN(B2,D42)*B3^D42*(1-B3)^(B2-D42),"")</f>
+        <v/>
+      </c>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D42&lt;B2),D42+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D42),D42&lt;B2),D42+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E43" s="46" t="str">
-        <f>IF(ISNUMBER(D43),_xlfn.BINOM.DIST(D43,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D43),COMBIN(B2,D43)*B3^D43*(1-B3)^(B2-D43),"")</f>
+        <v/>
+      </c>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D43&lt;B2),D43+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D43),D43&lt;B2),D43+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E44" s="46" t="str">
-        <f>IF(ISNUMBER(D44),_xlfn.BINOM.DIST(D44,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D44),COMBIN(B2,D44)*B3^D44*(1-B3)^(B2-D44),"")</f>
+        <v/>
+      </c>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D44&lt;B2),D44+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D44),D44&lt;B2),D44+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E45" s="46" t="str">
-        <f>IF(ISNUMBER(D45),_xlfn.BINOM.DIST(D45,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D45),COMBIN(B2,D45)*B3^D45*(1-B3)^(B2-D45),"")</f>
+        <v/>
+      </c>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D45&lt;B2),D45+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D45),D45&lt;B2),D45+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E46" s="46" t="str">
-        <f>IF(ISNUMBER(D46),_xlfn.BINOM.DIST(D46,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D46),COMBIN(B2,D46)*B3^D46*(1-B3)^(B2-D46),"")</f>
+        <v/>
+      </c>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D46&lt;B2),D46+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D46),D46&lt;B2),D46+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E47" s="46" t="str">
-        <f>IF(ISNUMBER(D47),_xlfn.BINOM.DIST(D47,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D47),COMBIN(B2,D47)*B3^D47*(1-B3)^(B2-D47),"")</f>
+        <v/>
+      </c>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D47&lt;B2),D47+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D47),D47&lt;B2),D47+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E48" s="46" t="str">
-        <f>IF(ISNUMBER(D48),_xlfn.BINOM.DIST(D48,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D48),COMBIN(B2,D48)*B3^D48*(1-B3)^(B2-D48),"")</f>
+        <v/>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D48&lt;B2),D48+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D48),D48&lt;B2),D48+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E49" s="46" t="str">
-        <f>IF(ISNUMBER(D49),_xlfn.BINOM.DIST(D49,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D49),COMBIN(B2,D49)*B3^D49*(1-B3)^(B2-D49),"")</f>
+        <v/>
+      </c>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D49&lt;B2),D49+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D49),D49&lt;B2),D49+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E50" s="46" t="str">
-        <f>IF(ISNUMBER(D50),_xlfn.BINOM.DIST(D50,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D50),COMBIN(B2,D50)*B3^D50*(1-B3)^(B2-D50),"")</f>
+        <v/>
+      </c>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D50&lt;B2),D50+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D50),D50&lt;B2),D50+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E51" s="46" t="str">
-        <f>IF(ISNUMBER(D51),_xlfn.BINOM.DIST(D51,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D51),COMBIN(B2,D51)*B3^D51*(1-B3)^(B2-D51),"")</f>
+        <v/>
+      </c>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D51&lt;B2),D51+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D51),D51&lt;B2),D51+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E52" s="46" t="str">
-        <f>IF(ISNUMBER(D52),_xlfn.BINOM.DIST(D52,B2,B3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER(D52),COMBIN(B2,D52)*B3^D52*(1-B3)^(B2-D52),"")</f>
+        <v/>
+      </c>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="str">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50,D52&lt;B2),D52+1,"")</f>
-        <v/>
+        <f>IF(AND(ISNUMBER(D52),D52&lt;B2),D52+1," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E53" s="46" t="str">
-        <f>IF(ISNUMBER(D53),_xlfn.BINOM.DIST(D53,B2,B3,FALSE),"")</f>
-        <v/>
+        <f>IF(ISNUMBER(D53),COMBIN(B2,D53)*B3^D53*(1-B3)^(B2-D53),"")</f>
+        <v/>
+      </c>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -11065,7 +11256,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
@@ -11077,15 +11268,18 @@
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>66</v>
       </c>
@@ -11093,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>67</v>
       </c>
@@ -11101,15 +11295,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>60</v>
       </c>
@@ -11118,7 +11312,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>62</v>
       </c>
@@ -11127,7 +11321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="str">
         <f>CONCATENATE("P(", IF(ISBLANK(B6),"","lower ≤ "),IF(AND(B2=0,B3=1),"z","x"),IF(ISBLANK(B7),""," ≤ upper"),") =")</f>
         <v>P(z) =</v>
@@ -11141,12 +11335,12 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>73</v>
       </c>
@@ -11156,7 +11350,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="str">
         <f>IF(AND(B2=0,B3=1),"z =","x =")</f>
         <v>z =</v>
@@ -11167,6 +11361,11 @@
       </c>
       <c r="C12" s="14" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -11176,7 +11375,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
@@ -11188,15 +11387,18 @@
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>76</v>
       </c>
@@ -11206,15 +11408,15 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>60</v>
       </c>
@@ -11223,7 +11425,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>62</v>
       </c>
@@ -11232,13 +11434,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE("P(", IF(ISBLANK(B5),"","lower ≤ "),"t",IF(ISBLANK(B6),""," ≤ upper"),") =")</f>
         <v>P(t) =</v>
       </c>
       <c r="B7" s="41" t="str">
-        <f>IF(AND(ISBLANK(B5),ISBLANK(B6)),"",IF(OR(NOT(OR(ISBLANK(B5),ISNUMBER(B5))),NOT(OR(ISBLANK(B6),ISNUMBER(B6)))),"Input Error",IF(IF(OR(ISBLANK(B5),ISBLANK(B6)),FALSE,B5&gt;B6),"Input Error",IF(B2&gt;0,_xlfn.T.DIST(IF(ISBLANK(B6),10^100,B6),B2,TRUE)-_xlfn.T.DIST(IF(ISBLANK(B5),-1*10^100,B5),B2,TRUE),"Input df"))))</f>
+        <f>IF(AND(ISBLANK(B5),ISBLANK(B6)),"",IF(OR(NOT(OR(ISBLANK(B5),ISNUMBER(B5))),NOT(OR(ISBLANK(B6),ISNUMBER(B6)))),"Input Error",IF(IF(OR(ISBLANK(B5),ISBLANK(B6)),FALSE,B5&gt;B6),"Input Error",IF(B2&gt;0,IF(ISBLANK(B5),IF(B6&lt;0,TDIST(ABS(B6),B2,1),1-TDIST(ABS(B6),B2,1)),IF(ISBLANK(B6),IF(B5&lt;0,1-TDIST(ABS(B5),B2,1),TDIST(ABS(B5),B2,1)),IF(B5*B6&gt;=0,ABS(TDIST(ABS(B6),B2,1)-TDIST(ABS(B5),B2,1)),1-TDIST(ABS(B6),B2,1)-TDIST(ABS(B5),B2,1)))),"Input df"))))</f>
         <v/>
       </c>
       <c r="C7" s="14" t="s">
@@ -11246,12 +11448,12 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>73</v>
       </c>
@@ -11261,7 +11463,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>80</v>
       </c>
@@ -11271,6 +11473,11 @@
       </c>
       <c r="C11" s="14" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -11280,7 +11487,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
@@ -11290,18 +11497,21 @@
     <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>82</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q1" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>84</v>
       </c>
@@ -11319,7 +11529,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>49</v>
       </c>
@@ -11337,7 +11547,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
@@ -11352,7 +11562,7 @@
       <c r="G4" s="44"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>85</v>
       </c>
@@ -11369,11 +11579,11 @@
         <v/>
       </c>
       <c r="H5" s="16" t="str">
-        <f>IF(OR(ISBLANK(G4),IF(ISNUMBER(G4),OR(AND(G4&gt;=0.5,G4&lt;1),AND(G4&gt;=50,G4&lt;100)),FALSE)),"","C-Level must be between 50 and 99.99 or between .5 and .9999")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f>IF(OR(ISBLANK(G4),IF(ISNUMBER(G4),OR(AND(G4&gt;=0.5,G4&lt;1),AND(G4&gt;=50,G4&lt;100)),FALSE))," ","C-Level must be between 50 and 99.99 or between .5 and .9999")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>86</v>
       </c>
@@ -11399,12 +11609,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>84</v>
       </c>
@@ -11414,7 +11624,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>9</v>
       </c>
@@ -11424,7 +11634,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>5</v>
       </c>
@@ -11434,7 +11644,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>85</v>
       </c>
@@ -11444,7 +11654,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>86</v>
       </c>
@@ -11456,6 +11666,11 @@
       <c r="D13" s="30" t="str">
         <f>IF(AND(ISNUMBER(B9),ISNUMBER(B10),ISNUMBER(B11),ISNUMBER(B12)),IF(AND(B10&gt;0,INT(B11)=B11,B11&gt;0,OR(AND(B12&gt;=0.5,B12&lt;1),AND(B12&gt;=50,B12&lt;100))),CONCATENATE(ROUND(B9+B10/SQRT(B11)*_xlfn.T.INV(1-(IF(B12&lt;1,1-B12,1-B12/100)/2),B11-1),IF(B9+B10/SQRT(B11)*_xlfn.T.INV(1-(IF(B12&lt;1,1-B12,1-B12/100)/2),B11-1)&gt;1000,1,4)),")"),"Input "),"")</f>
         <v/>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -11467,11 +11682,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11484,18 +11697,21 @@
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>88</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S1" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>90</v>
       </c>
@@ -11504,8 +11720,8 @@
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="16" t="str">
-        <f>IF(OR(ISBLANK(C2),ISNUMBER(C2)),"","µ must be a number")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(C2),ISNUMBER(C2))," ","µ must be a number")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H2" s="23" t="s">
         <v>91</v>
@@ -11515,22 +11731,25 @@
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="16" t="str">
-        <f>IF(OR(ISBLANK(J2),IF(ISNUMBER(J2),AND(J2&gt;0,J2&lt;1),FALSE)),"","p must be a number between 0 and 1")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(J2),IF(ISNUMBER(J2),AND(J2&gt;0,J2&lt;1),FALSE))," ","p must be a number between 0 and 1")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C3" s="25" t="str">
         <f>IF(ISNUMBER(C2),C2,"")</f>
         <v/>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="H3" s="23" t="s">
         <v>94</v>
       </c>
@@ -11541,17 +11760,20 @@
         <f>IF(ISNUMBER(J2),J2,"")</f>
         <v/>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="16" t="str">
-        <f>IF(OR(ISBLANK(C4),ISNUMBER(C4)),"","xbar must be a number")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(C4),ISNUMBER(C4))," ","xbar must be a number")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" s="23" t="s">
         <v>95</v>
@@ -11561,12 +11783,12 @@
       </c>
       <c r="J4" s="44"/>
       <c r="K4" s="16" t="str">
-        <f>IF(OR(ISBLANK(J4),IF(ISNUMBER(J4),AND(J4&gt;0,INT(J4)=J4),FALSE)),"","n must be a positive integer")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(J4),IF(ISNUMBER(J4),AND(J4&gt;0,INT(J4)=J4),FALSE))," ","n must be a positive integer")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>96</v>
       </c>
@@ -11575,8 +11797,8 @@
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="16" t="str">
-        <f>IF(OR(ISBLANK(C5),IF(ISNUMBER(C5),C5&gt;0,FALSE)),"","σ must be a positive number")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(C5),IF(ISNUMBER(C5),C5&gt;0,FALSE))," ","σ must be a positive number")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H5" s="23" t="s">
         <v>52</v>
@@ -11586,11 +11808,11 @@
       </c>
       <c r="J5" s="44"/>
       <c r="K5" s="16" t="str">
-        <f>IF(OR(ISBLANK(J5),IF(ISNUMBER(J5),AND(J5&gt;0,INT(J5)=J5),FALSE)),IF(OR(ISBLANK(J4),NOT(ISNUMBER(J4))),"",IF(J5&lt;J4,"","x must be less than n")),"x must be a positive integer")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f>IF(OR(ISBLANK(J5),IF(ISNUMBER(J5),AND(J5&gt;0,INT(J5)=J5),FALSE)),IF(OR(ISBLANK(J4),NOT(ISNUMBER(J4)))," ",IF(J5&lt;J4,"","x must be less than n")),"x must be a positive integer")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>95</v>
       </c>
@@ -11599,27 +11821,29 @@
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="16" t="str">
-        <f>IF(OR(ISBLANK(C6),IF(ISNUMBER(C6),AND(C6&gt;0,INT(C6)=C6),FALSE)),"","n must be a positive integer")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(C6),IF(ISNUMBER(C6),AND(C6&gt;0,INT(C6)=C6),FALSE))," ","n must be a positive integer")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="25" t="str">
         <f>IF(AND(ISNUMBER(J2),ISNUMBER(J4),ISNUMBER(J5)),IF(AND(INT(J4)=J4,INT(J5)=J5,J2&gt;0,J2&lt;1,J5&gt;0,J5&lt;J4),J5/J4,""),"")</f>
         <v/>
       </c>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K6" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="D7" s="16"/>
       <c r="H7" s="4"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>97</v>
       </c>
@@ -11630,7 +11854,9 @@
         <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C2)),IF(AND(INT(C6)=C6,C6&gt;0,C5&gt;0),(C4-C2)/(C5/SQRT(C6)),"Input Error"),"")</f>
         <v/>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="H8" s="28" t="s">
         <v>97</v>
       </c>
@@ -11641,9 +11867,11 @@
         <f>IF(AND(ISNUMBER(J2),ISNUMBER(J4),ISNUMBER(J5)),IF(AND(INT(J4)=J4,INT(J5)=J5,J2&gt;0,J2&lt;1,J5&gt;0,J5&lt;J4),(J6-J2)/SQRT(J2*(1-J2)/J4),"Input Error"),"")</f>
         <v/>
       </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K8" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>98</v>
       </c>
@@ -11651,10 +11879,12 @@
         <v>7</v>
       </c>
       <c r="C9" s="30" t="str">
-        <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C2)),IF(AND(INT(C6)=C6,C6&gt;0,C5&gt;0),IF(B3="≠",2*IF(C8&lt;0,_xlfn.NORM.S.DIST(C8,TRUE),1-_xlfn.NORM.S.DIST(C8,TRUE)),IF(B3="&lt;",_xlfn.NORM.S.DIST(C8,TRUE),IF(B3="&gt;",1-_xlfn.NORM.S.DIST(C8,TRUE),"Select H1"))),"Input Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="13"/>
+        <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C2)),IF(AND(INT(C6)=C6,C6&gt;0,C5&gt;0),IF(B3="≠",2*IF(C8&lt;0,NORMSDIST(C8),1-NORMSDIST(C8)),IF(B3="&lt;",NORMSDIST(C8),IF(B3="&gt;",1-NORMSDIST(C8),"Select H1"))),"Input Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="H9" s="28" t="s">
         <v>98</v>
       </c>
@@ -11662,17 +11892,19 @@
         <v>7</v>
       </c>
       <c r="J9" s="30" t="str">
-        <f>IF(AND(ISNUMBER(J2),ISNUMBER(J4),ISNUMBER(J5)),IF(AND(INT(J4)=J4,INT(J5)=J5,J2&gt;0,J2&lt;1,J5&gt;0,J5&lt;J4),IF(I3="≠",2*IF(J8&lt;0,_xlfn.NORM.S.DIST(J8,TRUE),1-_xlfn.NORM.S.DIST(J8,TRUE)),IF(I3="&lt;",_xlfn.NORM.S.DIST(J8,TRUE),IF(I3="&gt;",1-_xlfn.NORM.S.DIST(J8,TRUE),"Select H1"))),"Input Error"),"")</f>
-        <v/>
-      </c>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <f>IF(AND(ISNUMBER(J2),ISNUMBER(J4),ISNUMBER(J5)),IF(AND(INT(J4)=J4,INT(J5)=J5,J2&gt;0,J2&lt;1,J5&gt;0,J5&lt;J4),IF(I3="≠",2*IF(J8&lt;0,NORMSDIST(J8),1-NORMSDIST(J8)),IF(I3="&lt;",NORMSDIST(J8),IF(I3="&gt;",1-NORMSDIST(J8),"Select H1"))),"Input Error"),"")</f>
+        <v/>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>90</v>
       </c>
@@ -11681,11 +11913,11 @@
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="16" t="str">
-        <f>IF(OR(ISBLANK(C12),ISNUMBER(C12)),"","µ must be a number")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <f>IF(OR(ISBLANK(C12),ISNUMBER(C12))," ","µ must be a number")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>92</v>
       </c>
@@ -11696,19 +11928,22 @@
         <f>IF(ISNUMBER(C12),C12,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="16" t="str">
-        <f>IF(OR(ISBLANK(C14),ISNUMBER(C14)),"","xbar must be a number")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <f>IF(OR(ISBLANK(C14),ISNUMBER(C14))," ","xbar must be a number")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>100</v>
       </c>
@@ -11717,11 +11952,11 @@
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="16" t="str">
-        <f>IF(OR(ISBLANK(C15),IF(ISNUMBER(C15),C15&gt;0,FALSE)),"","s must be a positive number")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <f>IF(OR(ISBLANK(C15),IF(ISNUMBER(C15),C15&gt;0,FALSE))," ","s must be a positive number")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>95</v>
       </c>
@@ -11730,8 +11965,8 @@
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="16" t="str">
-        <f>IF(OR(ISBLANK(C16),IF(ISNUMBER(C16),AND(C16&gt;0,INT(C16)=C16),FALSE)),"","n must be a positive integer")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(C16),IF(ISNUMBER(C16),AND(C16&gt;0,INT(C16)=C16),FALSE))," ","n must be a positive integer")</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11750,7 +11985,9 @@
         <f>IF(AND(ISNUMBER(C14),ISNUMBER(C15),ISNUMBER(C16),ISNUMBER(C12)),IF(AND(INT(C16)=C16,C16&gt;0,C15&gt;0),(C14-C12)/(C15/SQRT(C16)),"Input Error"),"")</f>
         <v/>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
@@ -11760,10 +11997,20 @@
         <v>7</v>
       </c>
       <c r="C19" s="30" t="str">
-        <f>IF(AND(ISNUMBER(C14),ISNUMBER(C15),ISNUMBER(C16),ISNUMBER(C12)),IF(AND(INT(C16)=C16,C16&gt;0,C15&gt;0),IF(B13="≠",2*IF(C18&lt;0,_xlfn.T.DIST(C18,C16-1,TRUE),1-_xlfn.T.DIST(C18,C16-1,TRUE)),IF(B13="&lt;",_xlfn.T.DIST(C18,C16-1,TRUE),IF(B13="&gt;",1-_xlfn.T.DIST(C18,C16-1,TRUE),"Select H1"))),"Input Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D19" s="13"/>
+        <f>IF(AND(ISNUMBER(C14),ISNUMBER(C15),ISNUMBER(C16),ISNUMBER(C12)),IF(AND(INT(C16)=C16,C16&gt;0,C15&gt;0),IF(B13="≠",TDIST(ABS(C18),C16-1,2),IF(B13="&lt;",IF(C18&lt;0,TDIST(ABS(C18),C16-1,1),1-TDIST(ABS(C18),C16-1,1)),IF(B13="&gt;",IF(C18&lt;0,1-TDIST(ABS(C18),C16-1,1),TDIST(ABS(C18),C16-1,1)),"Select H1"))),"Input Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
@@ -11794,7 +12041,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:S95"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
@@ -11809,18 +12056,21 @@
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S1" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -11843,7 +12093,7 @@
       <c r="K2" s="16"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>110</v>
       </c>
@@ -11857,22 +12107,22 @@
         <v>111</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>109</v>
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="16" t="str">
-        <f>IF(OR(ISBLANK(C4),ISNUMBER(C4)),"","xbar must be a number")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(C4),ISNUMBER(C4))," ","xbar must be a number")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" s="23" t="s">
         <v>112</v>
@@ -11882,12 +12132,12 @@
       </c>
       <c r="J4" s="44"/>
       <c r="K4" s="16" t="str">
-        <f>IF(OR(ISBLANK(J4),IF(ISNUMBER(J4),AND(J4&gt;0,INT(J4)=J4),FALSE)),"","n must be a positive integer")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(J4),IF(ISNUMBER(J4),AND(J4&gt;0,INT(J4)=J4),FALSE))," ","n must be a positive integer")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>113</v>
       </c>
@@ -11896,8 +12146,8 @@
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="16" t="str">
-        <f>IF(OR(ISBLANK(C5),IF(ISNUMBER(C5),C5&gt;0,FALSE)),"","s must be a positive number")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(C5),IF(ISNUMBER(C5),C5&gt;0,FALSE))," ","s must be a positive number")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H5" s="23" t="s">
         <v>114</v>
@@ -11907,11 +12157,11 @@
       </c>
       <c r="J5" s="44"/>
       <c r="K5" s="16" t="str">
-        <f>IF(OR(ISBLANK(J5),IF(ISNUMBER(J5),AND(J5&gt;0,INT(J5)=J5),FALSE)),IF(OR(ISBLANK(J4),NOT(ISNUMBER(J4))),"",IF(J5&lt;J4,"","x must be less than n")),"x must be a positive integer")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f>IF(OR(ISBLANK(J5),IF(ISNUMBER(J5),AND(J5&gt;0,INT(J5)=J5),FALSE)),IF(OR(ISBLANK(J4),NOT(ISNUMBER(J4)))," ",IF(J5&lt;J4," ","x must be less than n")),"x must be a positive integer")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>112</v>
       </c>
@@ -11920,28 +12170,30 @@
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="16" t="str">
-        <f>IF(OR(ISBLANK(C6),IF(ISNUMBER(C6),AND(C6&gt;0,INT(C6)=C6),FALSE)),"","n must be a positive integer")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(C6),IF(ISNUMBER(C6),AND(C6&gt;0,INT(C6)=C6),FALSE))," ","n must be a positive integer")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="25" t="str">
         <f>IF(AND(ISNUMBER(J4),ISNUMBER(J5)),IF(AND(INT(J4)=J4,INT(J5)=J5,J5&gt;0,J5&lt;J4),J5/J4,""),"")</f>
         <v/>
       </c>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K6" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="16" t="str">
-        <f>IF(OR(ISBLANK(C7),ISNUMBER(C7)),"","xbar must be a number")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(C7),ISNUMBER(C7))," ","xbar must be a number")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H7" s="23" t="s">
         <v>115</v>
@@ -11951,11 +12203,11 @@
       </c>
       <c r="J7" s="44"/>
       <c r="K7" s="16" t="str">
-        <f>IF(OR(ISBLANK(J7),IF(ISNUMBER(J7),AND(J7&gt;0,INT(J7)=J7),FALSE)),"","n must be a positive integer")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <f>IF(OR(ISBLANK(J7),IF(ISNUMBER(J7),AND(J7&gt;0,INT(J7)=J7),FALSE))," ","n must be a positive integer")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>116</v>
       </c>
@@ -11964,8 +12216,8 @@
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="16" t="str">
-        <f>IF(OR(ISBLANK(C8),IF(ISNUMBER(C8),C8&gt;0,FALSE)),"","s must be a positive number")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(C8),IF(ISNUMBER(C8),C8&gt;0,FALSE))," ","s must be a positive number")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H8" s="23" t="s">
         <v>117</v>
@@ -11975,11 +12227,11 @@
       </c>
       <c r="J8" s="44"/>
       <c r="K8" s="16" t="str">
-        <f>IF(OR(ISBLANK(J8),IF(ISNUMBER(J8),AND(J8&gt;0,INT(J8)=J8),FALSE)),IF(OR(ISBLANK(J7),NOT(ISNUMBER(J7))),"",IF(J8&lt;J7,"","x must be less than n")),"x must be a positive integer")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <f>IF(OR(ISBLANK(J8),IF(ISNUMBER(J8),AND(J8&gt;0,INT(J8)=J8),FALSE)),IF(OR(ISBLANK(J7),NOT(ISNUMBER(J7)))," ",IF(J8&lt;J7," ","x must be less than n")),"x must be a positive integer")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>115</v>
       </c>
@@ -11988,27 +12240,29 @@
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="16" t="str">
-        <f>IF(OR(ISBLANK(C9),IF(ISNUMBER(C9),AND(C9&gt;0,INT(C9)=C9),FALSE)),"","n must be a positive integer")</f>
-        <v/>
+        <f>IF(OR(ISBLANK(C9),IF(ISNUMBER(C9),AND(C9&gt;0,INT(C9)=C9),FALSE))," ","n must be a positive integer")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="32" t="str">
+      <c r="J9" s="25" t="str">
         <f>IF(AND(ISNUMBER(J7),ISNUMBER(J8)),IF(AND(INT(J7)=J7,INT(J8)=J8,J8&gt;0,J8&lt;J7),J8/J7,""),"")</f>
         <v/>
       </c>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K9" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="14"/>
       <c r="C10" s="16"/>
       <c r="H10" s="4"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>101</v>
       </c>
@@ -12019,7 +12273,9 @@
         <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C7),ISNUMBER(C8),ISNUMBER(C9)),IF(AND(INT(C6)=C6,C6&gt;0,C5&gt;0,INT(C9)=C9,C9&gt;0,C8&gt;0),(C4-C7)/SQRT(C5^2/C6+C8^2/C9),"Input Error"),"")</f>
         <v/>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="H11" s="28" t="s">
         <v>97</v>
       </c>
@@ -12030,9 +12286,11 @@
         <f>IF(AND(ISNUMBER(J4),ISNUMBER(J5),ISNUMBER(J7),ISNUMBER(J8)),IF(AND(INT(J4)=J4,INT(J5)=J5,J5&gt;0,J5&lt;J4,INT(J7)=J7,INT(J8)=J8,J8&gt;0,J8&lt;J7),(J6-J9)/SQRT(((J5+J8)/(J4+J7))*(1-((J5+J8)/(J4+J7)))/J4+((J5+J8)/(J4+J7))*(1-((J5+J8)/(J4+J7)))/J7),"Input Error"),"")</f>
         <v/>
       </c>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K11" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>118</v>
       </c>
@@ -12043,7 +12301,9 @@
         <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C7),ISNUMBER(C8),ISNUMBER(C9)),IF(AND(INT(C6)=C6,C6&gt;0,C5&gt;0,INT(C9)=C9,C9&gt;0,C8&gt;0),(C5^2/C6+C8^2/C9)^2/((C5^2/C6)^2/(C6-1)+(C8^2/C9)^2/(C9-1)),"Input Error"),"")</f>
         <v/>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="H12" s="28" t="s">
         <v>98</v>
       </c>
@@ -12051,12 +12311,14 @@
         <v>7</v>
       </c>
       <c r="J12" s="30" t="str">
-        <f>IF(AND(ISNUMBER(J4),ISNUMBER(J5),ISNUMBER(J7),ISNUMBER(J8)),IF(AND(INT(J4)=J4,INT(J5)=J5,J5&gt;0,J5&lt;J4,INT(J7)=J7,INT(J8)=J8,J8&gt;0,J8&lt;J7),IF(I3="≠",2*IF(J11&lt;0,_xlfn.NORM.S.DIST(J11,TRUE),1-_xlfn.NORM.S.DIST(J11,TRUE)),IF(I3="&lt;",_xlfn.NORM.S.DIST(J11,TRUE),IF(I3="&gt;",1-_xlfn.NORM.S.DIST(J11,TRUE),"Select H1"))),"Input Error"),"")</f>
-        <v/>
-      </c>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <f>IF(AND(ISNUMBER(J4),ISNUMBER(J5),ISNUMBER(J7),ISNUMBER(J8)),IF(AND(INT(J4)=J4,INT(J5)=J5,J5&gt;0,J5&lt;J4,INT(J7)=J7,INT(J8)=J8,J8&gt;0,J8&lt;J7),IF(I3="≠",2*IF(J11&lt;0,NORMSDIST(J11),1-NORMSDIST(J11)),IF(I3="&lt;",NORMSDIST(J11),IF(I3="&gt;",1-NORMSDIST(J11),"Select H1"))),"Input Error"),"")</f>
+        <v/>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>98</v>
       </c>
@@ -12064,10 +12326,17 @@
         <v>7</v>
       </c>
       <c r="C13" s="30" t="str">
-        <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C7),ISNUMBER(C8),ISNUMBER(C9)),IF(AND(INT(C6)=C6,C6&gt;0,C5&gt;0,INT(C9)=C9,C9&gt;0,C8&gt;0), IF(B3="≠",2*IF(C11&lt;0,_xlfn.T.DIST(C11,C12,TRUE),1-_xlfn.T.DIST(C11,C12,TRUE)),IF(B3="&lt;",_xlfn.T.DIST(C11,C12,TRUE),IF(B3="&gt;",1-_xlfn.T.DIST(C11,C12,TRUE),"Select H1"))),"Input Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D13" s="13"/>
+        <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C7),ISNUMBER(C8),ISNUMBER(C9)),IF(AND(INT(C6)=C6,C6&gt;0,C5&gt;0,INT(C9)=C9,C9&gt;0,C8&gt;0), IF(B3="≠",TDIST(ABS(C11),C12,2),IF(B3="&lt;",IF(C11&lt;0,TDIST(ABS(C11),C12,1),1-TDIST(ABS(C11),C12,1)),IF(B3="&gt;",IF(C11&lt;0,1-TDIST(ABS(C11),C12,1),TDIST(ABS(C11),C12,1)),"Select H1"))),"Input Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">

--- a/newman/excel/StatisticsToolsRespondus.xlsx
+++ b/newman/excel/StatisticsToolsRespondus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Newman\Dropbox\github\SanJacMath.github.io\SanJacMath.github.io\newman\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8600951-8481-4C4E-8A1E-9DF445297265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C75E89D-B8D2-4A86-B455-AAD7D461FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="1890" windowWidth="21600" windowHeight="13380" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleStats" sheetId="1" r:id="rId1"/>

--- a/newman/excel/StatisticsToolsRespondus.xlsx
+++ b/newman/excel/StatisticsToolsRespondus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Newman\Dropbox\github\SanJacMath.github.io\SanJacMath.github.io\newman\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C75E89D-B8D2-4A86-B455-AAD7D461FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483D515A-22CB-4D3D-9A77-86E940B75F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="1890" windowWidth="21600" windowHeight="13380" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1695" windowWidth="21600" windowHeight="13380" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleStats" sheetId="1" r:id="rId1"/>
@@ -102,15 +102,9 @@
     <t>=MAX(select cells)-MIN(select cells)</t>
   </si>
   <si>
-    <t xml:space="preserve">Σx = </t>
-  </si>
-  <si>
     <t>=SUM(select cells)</t>
   </si>
   <si>
-    <t xml:space="preserve">Σx² = </t>
-  </si>
-  <si>
     <t>=SUMPRODUCT(select cells,select cells)</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
   </si>
   <si>
     <t>=QUARTILE.EXC(select cells,3) gets close to our method, but this is our method: =IF(INT(COUNT(select cells)*75/100)=COUNT(select cells)*75/100,AVERAGE(SMALL(select cells,COUNT(select cells)*75/100),SMALL(select cells,COUNT(select cells)*75/100+1)),SMALL(select cells,ROUNDUP(COUNT(select cells)*75/100,0)))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max = </t>
   </si>
   <si>
     <t>=MAX(select cells)</t>
@@ -768,15 +759,25 @@
   <si>
     <t>Usage warnings here</t>
   </si>
+  <si>
+    <t>max =</t>
+  </si>
+  <si>
+    <t>Σx² =</t>
+  </si>
+  <si>
+    <t>Σx =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.######"/>
+    <numFmt numFmtId="169" formatCode="0.#####"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -945,7 +946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1031,17 +1032,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1060,12 +1052,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1076,9 +1064,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1086,12 +1071,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2211,15 +2231,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381387</xdr:colOff>
+      <xdr:colOff>293464</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>6758</xdr:rowOff>
+      <xdr:rowOff>14085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>540063</xdr:colOff>
+      <xdr:colOff>452140</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>165434</xdr:rowOff>
+      <xdr:rowOff>172761</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2242,7 +2262,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2516992" y="768758"/>
+          <a:off x="2425599" y="776085"/>
           <a:ext cx="158676" cy="158676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2255,13 +2275,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>360947</xdr:colOff>
+      <xdr:colOff>295005</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>20054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>513882</xdr:colOff>
+      <xdr:colOff>447940</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>185224</xdr:rowOff>
     </xdr:to>
@@ -2286,7 +2306,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2496552" y="2496554"/>
+          <a:off x="2427140" y="2496554"/>
           <a:ext cx="152935" cy="165170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2340,13 +2360,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514390</xdr:colOff>
+      <xdr:colOff>428665</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>181016</xdr:rowOff>
     </xdr:to>
@@ -2371,7 +2391,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2781299" y="771525"/>
+          <a:off x="2695574" y="771525"/>
           <a:ext cx="171491" cy="171491"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2384,15 +2404,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>332232</xdr:colOff>
+      <xdr:colOff>246507</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514397</xdr:colOff>
+      <xdr:colOff>428672</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2415,7 +2435,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2770632" y="971550"/>
+          <a:off x="2684907" y="962025"/>
           <a:ext cx="182165" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3591,7 +3611,7 @@
     <col min="2" max="2" width="13.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="9.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="27" style="3" customWidth="1"/>
     <col min="8" max="14" width="8.5703125" style="3" customWidth="1"/>
@@ -3606,10 +3626,10 @@
         <v>1</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -3625,7 +3645,7 @@
         <f>IF(ISNUMBER(B3),MAX(A1:A2)+1,"")</f>
         <v/>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="39"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3635,16 +3655,16 @@
         <f>IF(ISNUMBER(B4),MAX(A1:A3)+1,"")</f>
         <v/>
       </c>
-      <c r="B4" s="42"/>
-      <c r="D4" s="38" t="s">
+      <c r="B4" s="39"/>
+      <c r="D4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="45">
         <f>COUNT(B3:B202)</f>
         <v>0</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>6</v>
@@ -3655,16 +3675,16 @@
         <f>IF(ISNUMBER(B5),MAX(A1:A4)+1,"")</f>
         <v/>
       </c>
-      <c r="B5" s="42"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="39"/>
+      <c r="D5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="50" t="str">
+      <c r="E5" s="45" t="str">
         <f>IF(E4=0,"",AVERAGE(B3:B202))</f>
         <v/>
       </c>
       <c r="F5" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>8</v>
@@ -3675,16 +3695,16 @@
         <f>IF(ISNUMBER(B6),MAX(A1:A5)+1,"")</f>
         <v/>
       </c>
-      <c r="B6" s="42"/>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="39"/>
+      <c r="D6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="50" t="str">
+      <c r="E6" s="45" t="str">
         <f>IF(E4&lt;2,"",_xlfn.STDEV.S(B3:B202))</f>
         <v/>
       </c>
       <c r="F6" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -3695,16 +3715,16 @@
         <f>IF(ISNUMBER(B7),MAX(A1:A6)+1,"")</f>
         <v/>
       </c>
-      <c r="B7" s="42"/>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="39"/>
+      <c r="D7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="50" t="str">
+      <c r="E7" s="45" t="str">
         <f>IF(E4&lt;2,"",(_xlfn.STDEV.S(B3:B202))^2)</f>
         <v/>
       </c>
       <c r="F7" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>12</v>
@@ -3715,16 +3735,16 @@
         <f>IF(ISNUMBER(B8),MAX(A1:A7)+1,"")</f>
         <v/>
       </c>
-      <c r="B8" s="42"/>
-      <c r="D8" s="38" t="s">
+      <c r="B8" s="39"/>
+      <c r="D8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="50" t="str">
+      <c r="E8" s="45" t="str">
         <f>IF(E4=0,"",MAX(B3:B202)-MIN(B3:B202))</f>
         <v/>
       </c>
       <c r="F8" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -3735,19 +3755,19 @@
         <f>IF(ISNUMBER(B9),MAX(A1:A8)+1,"")</f>
         <v/>
       </c>
-      <c r="B9" s="42"/>
-      <c r="D9" s="37" t="s">
+      <c r="B9" s="39"/>
+      <c r="D9" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="45" t="str">
+        <f>IF(E4=0,"",SUM(B3:B202))</f>
+        <v/>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" s="50" t="str">
-        <f>IF(E4=0,"",SUM(B3:B202))</f>
-        <v/>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -3755,19 +3775,19 @@
         <f>IF(ISNUMBER(B10),MAX(A1:A9)+1,"")</f>
         <v/>
       </c>
-      <c r="B10" s="42"/>
-      <c r="D10" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="50" t="str">
+      <c r="B10" s="39"/>
+      <c r="D10" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="45" t="str">
         <f>IF(E4=0,"",SUMPRODUCT(B3:B202,B3:B202))</f>
         <v/>
       </c>
       <c r="F10" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -3775,9 +3795,10 @@
         <f>IF(ISNUMBER(B11),MAX(A1:A10)+1,"")</f>
         <v/>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="39"/>
+      <c r="D11" s="55"/>
       <c r="F11" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -3785,19 +3806,19 @@
         <f>IF(ISNUMBER(B12),MAX(A1:A11)+1,"")</f>
         <v/>
       </c>
-      <c r="B12" s="42"/>
-      <c r="D12" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="50" t="str">
+      <c r="B12" s="39"/>
+      <c r="D12" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="45" t="str">
         <f>IF(E4=0,"",MIN(B3:B202))</f>
         <v/>
       </c>
       <c r="F12" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -3805,19 +3826,19 @@
         <f>IF(ISNUMBER(B13),MAX(A1:A12)+1,"")</f>
         <v/>
       </c>
-      <c r="B13" s="42"/>
-      <c r="D13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="50" t="str">
+      <c r="B13" s="39"/>
+      <c r="D13" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="45" t="str">
         <f>IF(E4=0,"",IF(INT(E4*25/100)=E4*25/100,AVERAGE(SMALL(B3:B202,E4*25/100),SMALL(B3:B202,E4*25/100+1)),SMALL(B3:B202,ROUNDUP(E4*25/100,0))))</f>
         <v/>
       </c>
       <c r="F13" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -3826,19 +3847,19 @@
         <f>IF(ISNUMBER(B14),MAX(A1:A13)+1,"")</f>
         <v/>
       </c>
-      <c r="B14" s="42"/>
-      <c r="D14" s="38" t="s">
+      <c r="B14" s="39"/>
+      <c r="D14" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="50" t="str">
+      <c r="E14" s="45" t="str">
         <f>IF(E4=0,"",MEDIAN(B3:B202))</f>
         <v/>
       </c>
       <c r="F14" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
@@ -3846,19 +3867,19 @@
         <f>IF(ISNUMBER(B15),MAX(A1:A14)+1,"")</f>
         <v/>
       </c>
-      <c r="B15" s="42"/>
-      <c r="D15" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="50" t="str">
+      <c r="B15" s="39"/>
+      <c r="D15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="45" t="str">
         <f>IF(E4=0,"",IF(INT(E4*75/100)=E4*75/100,AVERAGE(SMALL(B3:B202,E4*75/100),SMALL(B3:B202,E4*75/100+1)),SMALL(B3:B202,ROUNDUP(E4*75/100,0))))</f>
         <v/>
       </c>
       <c r="F15" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -3867,19 +3888,19 @@
         <f>IF(ISNUMBER(B16),MAX(A1:A15)+1,"")</f>
         <v/>
       </c>
-      <c r="B16" s="42"/>
-      <c r="D16" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="50" t="str">
+      <c r="B16" s="39"/>
+      <c r="D16" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="45" t="str">
         <f>IF(E4=0,"",MAX(B3:B202))</f>
         <v/>
       </c>
       <c r="F16" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3887,30 +3908,30 @@
         <f>IF(ISNUMBER(B17),MAX(A1:A16)+1,"")</f>
         <v/>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="39"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f>IF(ISNUMBER(B18),MAX(A1:A17)+1,"")</f>
         <v/>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="39"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f>IF(ISNUMBER(B19),MAX(A1:A18)+1,"")</f>
         <v/>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="39"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f>IF(ISNUMBER(B20),MAX(A1:A19)+1,"")</f>
         <v/>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="39"/>
       <c r="D20" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3918,1274 +3939,1274 @@
         <f>IF(ISNUMBER(B21),MAX(A1:A20)+1,"")</f>
         <v/>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="39"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f>IF(ISNUMBER(B22),MAX(A1:A21)+1,"")</f>
         <v/>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="39"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f>IF(ISNUMBER(B23),MAX(A1:A22)+1,"")</f>
         <v/>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="39"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f>IF(ISNUMBER(B24),MAX(A1:A23)+1,"")</f>
         <v/>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="39"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f>IF(ISNUMBER(B25),MAX(A1:A24)+1,"")</f>
         <v/>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="39"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f>IF(ISNUMBER(B26),MAX(A1:A25)+1,"")</f>
         <v/>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="39"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f>IF(ISNUMBER(B27),MAX(A1:A26)+1,"")</f>
         <v/>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="39"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f>IF(ISNUMBER(B28),MAX(A1:A27)+1,"")</f>
         <v/>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="39"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f>IF(ISNUMBER(B29),MAX(A1:A28)+1,"")</f>
         <v/>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f>IF(ISNUMBER(B30),MAX(A1:A29)+1,"")</f>
         <v/>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="39"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f>IF(ISNUMBER(B31),MAX(A1:A30)+1,"")</f>
         <v/>
       </c>
-      <c r="B31" s="42"/>
+      <c r="B31" s="39"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f>IF(ISNUMBER(B32),MAX(A1:A31)+1,"")</f>
         <v/>
       </c>
-      <c r="B32" s="42"/>
+      <c r="B32" s="39"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f>IF(ISNUMBER(B33),MAX(A1:A32)+1,"")</f>
         <v/>
       </c>
-      <c r="B33" s="42"/>
+      <c r="B33" s="39"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f>IF(ISNUMBER(B34),MAX(A1:A33)+1,"")</f>
         <v/>
       </c>
-      <c r="B34" s="42"/>
+      <c r="B34" s="39"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f>IF(ISNUMBER(B35),MAX(A1:A34)+1,"")</f>
         <v/>
       </c>
-      <c r="B35" s="42"/>
+      <c r="B35" s="39"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f>IF(ISNUMBER(B36),MAX(A1:A35)+1,"")</f>
         <v/>
       </c>
-      <c r="B36" s="42"/>
+      <c r="B36" s="39"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f>IF(ISNUMBER(B37),MAX(A1:A36)+1,"")</f>
         <v/>
       </c>
-      <c r="B37" s="42"/>
+      <c r="B37" s="39"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f>IF(ISNUMBER(B38),MAX(A1:A37)+1,"")</f>
         <v/>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="39"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f>IF(ISNUMBER(B39),MAX(A1:A38)+1,"")</f>
         <v/>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="39"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f>IF(ISNUMBER(B40),MAX(A1:A39)+1,"")</f>
         <v/>
       </c>
-      <c r="B40" s="42"/>
+      <c r="B40" s="39"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f>IF(ISNUMBER(B41),MAX(A1:A40)+1,"")</f>
         <v/>
       </c>
-      <c r="B41" s="42"/>
+      <c r="B41" s="39"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f>IF(ISNUMBER(B42),MAX(A1:A41)+1,"")</f>
         <v/>
       </c>
-      <c r="B42" s="42"/>
+      <c r="B42" s="39"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f>IF(ISNUMBER(B43),MAX(A1:A42)+1,"")</f>
         <v/>
       </c>
-      <c r="B43" s="42"/>
+      <c r="B43" s="39"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f>IF(ISNUMBER(B44),MAX(A1:A43)+1,"")</f>
         <v/>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="39"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f>IF(ISNUMBER(B45),MAX(A1:A44)+1,"")</f>
         <v/>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="39"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f>IF(ISNUMBER(B46),MAX(A1:A45)+1,"")</f>
         <v/>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="39"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f>IF(ISNUMBER(B47),MAX(A1:A46)+1,"")</f>
         <v/>
       </c>
-      <c r="B47" s="42"/>
+      <c r="B47" s="39"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f>IF(ISNUMBER(B48),MAX(A1:A47)+1,"")</f>
         <v/>
       </c>
-      <c r="B48" s="42"/>
+      <c r="B48" s="39"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f>IF(ISNUMBER(B49),MAX(A1:A48)+1,"")</f>
         <v/>
       </c>
-      <c r="B49" s="42"/>
+      <c r="B49" s="39"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f>IF(ISNUMBER(B50),MAX(A1:A49)+1,"")</f>
         <v/>
       </c>
-      <c r="B50" s="42"/>
+      <c r="B50" s="39"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f>IF(ISNUMBER(B51),MAX(A1:A50)+1,"")</f>
         <v/>
       </c>
-      <c r="B51" s="42"/>
+      <c r="B51" s="39"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f>IF(ISNUMBER(B52),MAX(A1:A51)+1,"")</f>
         <v/>
       </c>
-      <c r="B52" s="42"/>
+      <c r="B52" s="39"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f>IF(ISNUMBER(B53),MAX(A1:A52)+1,"")</f>
         <v/>
       </c>
-      <c r="B53" s="42"/>
+      <c r="B53" s="39"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f>IF(ISNUMBER(B54),MAX(A1:A53)+1,"")</f>
         <v/>
       </c>
-      <c r="B54" s="42"/>
+      <c r="B54" s="39"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f>IF(ISNUMBER(B55),MAX(A1:A54)+1,"")</f>
         <v/>
       </c>
-      <c r="B55" s="42"/>
+      <c r="B55" s="39"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f>IF(ISNUMBER(B56),MAX(A1:A55)+1,"")</f>
         <v/>
       </c>
-      <c r="B56" s="42"/>
+      <c r="B56" s="39"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f>IF(ISNUMBER(B57),MAX(A1:A56)+1,"")</f>
         <v/>
       </c>
-      <c r="B57" s="42"/>
+      <c r="B57" s="39"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f>IF(ISNUMBER(B58),MAX(A1:A57)+1,"")</f>
         <v/>
       </c>
-      <c r="B58" s="42"/>
+      <c r="B58" s="39"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f>IF(ISNUMBER(B59),MAX(A1:A58)+1,"")</f>
         <v/>
       </c>
-      <c r="B59" s="42"/>
+      <c r="B59" s="39"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f>IF(ISNUMBER(B60),MAX(A1:A59)+1,"")</f>
         <v/>
       </c>
-      <c r="B60" s="42"/>
+      <c r="B60" s="39"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f>IF(ISNUMBER(B61),MAX(A1:A60)+1,"")</f>
         <v/>
       </c>
-      <c r="B61" s="42"/>
+      <c r="B61" s="39"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f>IF(ISNUMBER(B62),MAX(A1:A61)+1,"")</f>
         <v/>
       </c>
-      <c r="B62" s="42"/>
+      <c r="B62" s="39"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f>IF(ISNUMBER(B63),MAX(A1:A62)+1,"")</f>
         <v/>
       </c>
-      <c r="B63" s="42"/>
+      <c r="B63" s="39"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f>IF(ISNUMBER(B64),MAX(A1:A63)+1,"")</f>
         <v/>
       </c>
-      <c r="B64" s="42"/>
+      <c r="B64" s="39"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f>IF(ISNUMBER(B65),MAX(A1:A64)+1,"")</f>
         <v/>
       </c>
-      <c r="B65" s="42"/>
+      <c r="B65" s="39"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f>IF(ISNUMBER(B66),MAX(A1:A65)+1,"")</f>
         <v/>
       </c>
-      <c r="B66" s="42"/>
+      <c r="B66" s="39"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f>IF(ISNUMBER(B67),MAX(A1:A66)+1,"")</f>
         <v/>
       </c>
-      <c r="B67" s="42"/>
+      <c r="B67" s="39"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f>IF(ISNUMBER(B68),MAX(A1:A67)+1,"")</f>
         <v/>
       </c>
-      <c r="B68" s="42"/>
+      <c r="B68" s="39"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f>IF(ISNUMBER(B69),MAX(A1:A68)+1,"")</f>
         <v/>
       </c>
-      <c r="B69" s="42"/>
+      <c r="B69" s="39"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f>IF(ISNUMBER(B70),MAX(A1:A69)+1,"")</f>
         <v/>
       </c>
-      <c r="B70" s="42"/>
+      <c r="B70" s="39"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
         <f>IF(ISNUMBER(B71),MAX(A1:A70)+1,"")</f>
         <v/>
       </c>
-      <c r="B71" s="42"/>
+      <c r="B71" s="39"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
         <f>IF(ISNUMBER(B72),MAX(A1:A71)+1,"")</f>
         <v/>
       </c>
-      <c r="B72" s="42"/>
+      <c r="B72" s="39"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="str">
         <f>IF(ISNUMBER(B73),MAX(A1:A72)+1,"")</f>
         <v/>
       </c>
-      <c r="B73" s="42"/>
+      <c r="B73" s="39"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="str">
         <f>IF(ISNUMBER(B74),MAX(A1:A73)+1,"")</f>
         <v/>
       </c>
-      <c r="B74" s="42"/>
+      <c r="B74" s="39"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="str">
         <f>IF(ISNUMBER(B75),MAX(A1:A74)+1,"")</f>
         <v/>
       </c>
-      <c r="B75" s="42"/>
+      <c r="B75" s="39"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="str">
         <f>IF(ISNUMBER(B76),MAX(A1:A75)+1,"")</f>
         <v/>
       </c>
-      <c r="B76" s="42"/>
+      <c r="B76" s="39"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="str">
         <f>IF(ISNUMBER(B77),MAX(A1:A76)+1,"")</f>
         <v/>
       </c>
-      <c r="B77" s="42"/>
+      <c r="B77" s="39"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f>IF(ISNUMBER(B78),MAX(A1:A77)+1,"")</f>
         <v/>
       </c>
-      <c r="B78" s="42"/>
+      <c r="B78" s="39"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f>IF(ISNUMBER(B79),MAX(A1:A78)+1,"")</f>
         <v/>
       </c>
-      <c r="B79" s="42"/>
+      <c r="B79" s="39"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
         <f>IF(ISNUMBER(B80),MAX(A1:A79)+1,"")</f>
         <v/>
       </c>
-      <c r="B80" s="42"/>
+      <c r="B80" s="39"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f>IF(ISNUMBER(B81),MAX(A1:A80)+1,"")</f>
         <v/>
       </c>
-      <c r="B81" s="42"/>
+      <c r="B81" s="39"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f>IF(ISNUMBER(B82),MAX(A1:A81)+1,"")</f>
         <v/>
       </c>
-      <c r="B82" s="42"/>
+      <c r="B82" s="39"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f>IF(ISNUMBER(B83),MAX(A1:A82)+1,"")</f>
         <v/>
       </c>
-      <c r="B83" s="42"/>
+      <c r="B83" s="39"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
         <f>IF(ISNUMBER(B84),MAX(A1:A83)+1,"")</f>
         <v/>
       </c>
-      <c r="B84" s="42"/>
+      <c r="B84" s="39"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
         <f>IF(ISNUMBER(B85),MAX(A1:A84)+1,"")</f>
         <v/>
       </c>
-      <c r="B85" s="42"/>
+      <c r="B85" s="39"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
         <f>IF(ISNUMBER(B86),MAX(A1:A85)+1,"")</f>
         <v/>
       </c>
-      <c r="B86" s="42"/>
+      <c r="B86" s="39"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f>IF(ISNUMBER(B87),MAX(A1:A86)+1,"")</f>
         <v/>
       </c>
-      <c r="B87" s="42"/>
+      <c r="B87" s="39"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f>IF(ISNUMBER(B88),MAX(A1:A87)+1,"")</f>
         <v/>
       </c>
-      <c r="B88" s="42"/>
+      <c r="B88" s="39"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f>IF(ISNUMBER(B89),MAX(A1:A88)+1,"")</f>
         <v/>
       </c>
-      <c r="B89" s="42"/>
+      <c r="B89" s="39"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f>IF(ISNUMBER(B90),MAX(A1:A89)+1,"")</f>
         <v/>
       </c>
-      <c r="B90" s="42"/>
+      <c r="B90" s="39"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f>IF(ISNUMBER(B91),MAX(A1:A90)+1,"")</f>
         <v/>
       </c>
-      <c r="B91" s="42"/>
+      <c r="B91" s="39"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="str">
         <f>IF(ISNUMBER(B92),MAX(A1:A91)+1,"")</f>
         <v/>
       </c>
-      <c r="B92" s="42"/>
+      <c r="B92" s="39"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="str">
         <f>IF(ISNUMBER(B93),MAX(A1:A92)+1,"")</f>
         <v/>
       </c>
-      <c r="B93" s="42"/>
+      <c r="B93" s="39"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="str">
         <f>IF(ISNUMBER(B94),MAX(A1:A93)+1,"")</f>
         <v/>
       </c>
-      <c r="B94" s="42"/>
+      <c r="B94" s="39"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="str">
         <f>IF(ISNUMBER(B95),MAX(A1:A94)+1,"")</f>
         <v/>
       </c>
-      <c r="B95" s="42"/>
+      <c r="B95" s="39"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="str">
         <f>IF(ISNUMBER(B96),MAX(A1:A95)+1,"")</f>
         <v/>
       </c>
-      <c r="B96" s="42"/>
+      <c r="B96" s="39"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="str">
         <f>IF(ISNUMBER(B97),MAX(A1:A96)+1,"")</f>
         <v/>
       </c>
-      <c r="B97" s="42"/>
+      <c r="B97" s="39"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="str">
         <f>IF(ISNUMBER(B98),MAX(A1:A97)+1,"")</f>
         <v/>
       </c>
-      <c r="B98" s="42"/>
+      <c r="B98" s="39"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="str">
         <f>IF(ISNUMBER(B99),MAX(A1:A98)+1,"")</f>
         <v/>
       </c>
-      <c r="B99" s="42"/>
+      <c r="B99" s="39"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="str">
         <f>IF(ISNUMBER(B100),MAX(A1:A99)+1,"")</f>
         <v/>
       </c>
-      <c r="B100" s="42"/>
+      <c r="B100" s="39"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="str">
         <f>IF(ISNUMBER(B101),MAX(A1:A100)+1,"")</f>
         <v/>
       </c>
-      <c r="B101" s="42"/>
+      <c r="B101" s="39"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="str">
         <f>IF(ISNUMBER(B102),MAX(A1:A101)+1,"")</f>
         <v/>
       </c>
-      <c r="B102" s="42"/>
+      <c r="B102" s="39"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="str">
         <f>IF(ISNUMBER(B103),MAX(A1:A102)+1,"")</f>
         <v/>
       </c>
-      <c r="B103" s="42"/>
+      <c r="B103" s="39"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="str">
         <f>IF(ISNUMBER(B104),MAX(A1:A103)+1,"")</f>
         <v/>
       </c>
-      <c r="B104" s="42"/>
+      <c r="B104" s="39"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="str">
         <f>IF(ISNUMBER(B105),MAX(A1:A104)+1,"")</f>
         <v/>
       </c>
-      <c r="B105" s="42"/>
+      <c r="B105" s="39"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="str">
         <f>IF(ISNUMBER(B106),MAX(A1:A105)+1,"")</f>
         <v/>
       </c>
-      <c r="B106" s="42"/>
+      <c r="B106" s="39"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="str">
         <f>IF(ISNUMBER(B107),MAX(A1:A106)+1,"")</f>
         <v/>
       </c>
-      <c r="B107" s="42"/>
+      <c r="B107" s="39"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="str">
         <f>IF(ISNUMBER(B108),MAX(A1:A107)+1,"")</f>
         <v/>
       </c>
-      <c r="B108" s="42"/>
+      <c r="B108" s="39"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="str">
         <f>IF(ISNUMBER(B109),MAX(A1:A108)+1,"")</f>
         <v/>
       </c>
-      <c r="B109" s="42"/>
+      <c r="B109" s="39"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="str">
         <f>IF(ISNUMBER(B110),MAX(A1:A109)+1,"")</f>
         <v/>
       </c>
-      <c r="B110" s="42"/>
+      <c r="B110" s="39"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="str">
         <f>IF(ISNUMBER(B111),MAX(A1:A110)+1,"")</f>
         <v/>
       </c>
-      <c r="B111" s="42"/>
+      <c r="B111" s="39"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="str">
         <f>IF(ISNUMBER(B112),MAX(A1:A111)+1,"")</f>
         <v/>
       </c>
-      <c r="B112" s="42"/>
+      <c r="B112" s="39"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="str">
         <f>IF(ISNUMBER(B113),MAX(A1:A112)+1,"")</f>
         <v/>
       </c>
-      <c r="B113" s="42"/>
+      <c r="B113" s="39"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="str">
         <f>IF(ISNUMBER(B114),MAX(A1:A113)+1,"")</f>
         <v/>
       </c>
-      <c r="B114" s="42"/>
+      <c r="B114" s="39"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="str">
         <f>IF(ISNUMBER(B115),MAX(A1:A114)+1,"")</f>
         <v/>
       </c>
-      <c r="B115" s="42"/>
+      <c r="B115" s="39"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="str">
         <f>IF(ISNUMBER(B116),MAX(A1:A115)+1,"")</f>
         <v/>
       </c>
-      <c r="B116" s="42"/>
+      <c r="B116" s="39"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="str">
         <f>IF(ISNUMBER(B117),MAX(A1:A116)+1,"")</f>
         <v/>
       </c>
-      <c r="B117" s="42"/>
+      <c r="B117" s="39"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="str">
         <f>IF(ISNUMBER(B118),MAX(A1:A117)+1,"")</f>
         <v/>
       </c>
-      <c r="B118" s="42"/>
+      <c r="B118" s="39"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="str">
         <f>IF(ISNUMBER(B119),MAX(A1:A118)+1,"")</f>
         <v/>
       </c>
-      <c r="B119" s="42"/>
+      <c r="B119" s="39"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="str">
         <f>IF(ISNUMBER(B120),MAX(A1:A119)+1,"")</f>
         <v/>
       </c>
-      <c r="B120" s="42"/>
+      <c r="B120" s="39"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="str">
         <f>IF(ISNUMBER(B121),MAX(A1:A120)+1,"")</f>
         <v/>
       </c>
-      <c r="B121" s="42"/>
+      <c r="B121" s="39"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="str">
         <f>IF(ISNUMBER(B122),MAX(A1:A121)+1,"")</f>
         <v/>
       </c>
-      <c r="B122" s="42"/>
+      <c r="B122" s="39"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="str">
         <f>IF(ISNUMBER(B123),MAX(A1:A122)+1,"")</f>
         <v/>
       </c>
-      <c r="B123" s="42"/>
+      <c r="B123" s="39"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="str">
         <f>IF(ISNUMBER(B124),MAX(A1:A123)+1,"")</f>
         <v/>
       </c>
-      <c r="B124" s="42"/>
+      <c r="B124" s="39"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="str">
         <f>IF(ISNUMBER(B125),MAX(A1:A124)+1,"")</f>
         <v/>
       </c>
-      <c r="B125" s="42"/>
+      <c r="B125" s="39"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="str">
         <f>IF(ISNUMBER(B126),MAX(A1:A125)+1,"")</f>
         <v/>
       </c>
-      <c r="B126" s="42"/>
+      <c r="B126" s="39"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="str">
         <f>IF(ISNUMBER(B127),MAX(A1:A126)+1,"")</f>
         <v/>
       </c>
-      <c r="B127" s="42"/>
+      <c r="B127" s="39"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="str">
         <f>IF(ISNUMBER(B128),MAX(A1:A127)+1,"")</f>
         <v/>
       </c>
-      <c r="B128" s="42"/>
+      <c r="B128" s="39"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="str">
         <f>IF(ISNUMBER(B129),MAX(A1:A128)+1,"")</f>
         <v/>
       </c>
-      <c r="B129" s="42"/>
+      <c r="B129" s="39"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="str">
         <f>IF(ISNUMBER(B130),MAX(A1:A129)+1,"")</f>
         <v/>
       </c>
-      <c r="B130" s="42"/>
+      <c r="B130" s="39"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="str">
         <f>IF(ISNUMBER(B131),MAX(A1:A130)+1,"")</f>
         <v/>
       </c>
-      <c r="B131" s="42"/>
+      <c r="B131" s="39"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="str">
         <f>IF(ISNUMBER(B132),MAX(A1:A131)+1,"")</f>
         <v/>
       </c>
-      <c r="B132" s="42"/>
+      <c r="B132" s="39"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="str">
         <f>IF(ISNUMBER(B133),MAX(A1:A132)+1,"")</f>
         <v/>
       </c>
-      <c r="B133" s="42"/>
+      <c r="B133" s="39"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="str">
         <f>IF(ISNUMBER(B134),MAX(A1:A133)+1,"")</f>
         <v/>
       </c>
-      <c r="B134" s="42"/>
+      <c r="B134" s="39"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="str">
         <f>IF(ISNUMBER(B135),MAX(A1:A134)+1,"")</f>
         <v/>
       </c>
-      <c r="B135" s="42"/>
+      <c r="B135" s="39"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="str">
         <f>IF(ISNUMBER(B136),MAX(A1:A135)+1,"")</f>
         <v/>
       </c>
-      <c r="B136" s="42"/>
+      <c r="B136" s="39"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="str">
         <f>IF(ISNUMBER(B137),MAX(A1:A136)+1,"")</f>
         <v/>
       </c>
-      <c r="B137" s="42"/>
+      <c r="B137" s="39"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="str">
         <f>IF(ISNUMBER(B138),MAX(A1:A137)+1,"")</f>
         <v/>
       </c>
-      <c r="B138" s="42"/>
+      <c r="B138" s="39"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="str">
         <f>IF(ISNUMBER(B139),MAX(A1:A138)+1,"")</f>
         <v/>
       </c>
-      <c r="B139" s="42"/>
+      <c r="B139" s="39"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="str">
         <f>IF(ISNUMBER(B140),MAX(A1:A139)+1,"")</f>
         <v/>
       </c>
-      <c r="B140" s="42"/>
+      <c r="B140" s="39"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="str">
         <f>IF(ISNUMBER(B141),MAX(A1:A140)+1,"")</f>
         <v/>
       </c>
-      <c r="B141" s="42"/>
+      <c r="B141" s="39"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="str">
         <f>IF(ISNUMBER(B142),MAX(A1:A141)+1,"")</f>
         <v/>
       </c>
-      <c r="B142" s="42"/>
+      <c r="B142" s="39"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="str">
         <f>IF(ISNUMBER(B143),MAX(A1:A142)+1,"")</f>
         <v/>
       </c>
-      <c r="B143" s="42"/>
+      <c r="B143" s="39"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="str">
         <f>IF(ISNUMBER(B144),MAX(A1:A143)+1,"")</f>
         <v/>
       </c>
-      <c r="B144" s="42"/>
+      <c r="B144" s="39"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="str">
         <f>IF(ISNUMBER(B145),MAX(A1:A144)+1,"")</f>
         <v/>
       </c>
-      <c r="B145" s="42"/>
+      <c r="B145" s="39"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="str">
         <f>IF(ISNUMBER(B146),MAX(A1:A145)+1,"")</f>
         <v/>
       </c>
-      <c r="B146" s="42"/>
+      <c r="B146" s="39"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="str">
         <f>IF(ISNUMBER(B147),MAX(A1:A146)+1,"")</f>
         <v/>
       </c>
-      <c r="B147" s="42"/>
+      <c r="B147" s="39"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="str">
         <f>IF(ISNUMBER(B148),MAX(A1:A147)+1,"")</f>
         <v/>
       </c>
-      <c r="B148" s="42"/>
+      <c r="B148" s="39"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="str">
         <f>IF(ISNUMBER(B149),MAX(A1:A148)+1,"")</f>
         <v/>
       </c>
-      <c r="B149" s="42"/>
+      <c r="B149" s="39"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="str">
         <f>IF(ISNUMBER(B150),MAX(A1:A149)+1,"")</f>
         <v/>
       </c>
-      <c r="B150" s="42"/>
+      <c r="B150" s="39"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="str">
         <f>IF(ISNUMBER(B151),MAX(A1:A150)+1,"")</f>
         <v/>
       </c>
-      <c r="B151" s="42"/>
+      <c r="B151" s="39"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="str">
         <f>IF(ISNUMBER(B152),MAX(A1:A151)+1,"")</f>
         <v/>
       </c>
-      <c r="B152" s="42"/>
+      <c r="B152" s="39"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="str">
         <f>IF(ISNUMBER(B153),MAX(A1:A152)+1,"")</f>
         <v/>
       </c>
-      <c r="B153" s="42"/>
+      <c r="B153" s="39"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="str">
         <f>IF(ISNUMBER(B154),MAX(A1:A153)+1,"")</f>
         <v/>
       </c>
-      <c r="B154" s="42"/>
+      <c r="B154" s="39"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="str">
         <f>IF(ISNUMBER(B155),MAX(A1:A154)+1,"")</f>
         <v/>
       </c>
-      <c r="B155" s="42"/>
+      <c r="B155" s="39"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="str">
         <f>IF(ISNUMBER(B156),MAX(A1:A155)+1,"")</f>
         <v/>
       </c>
-      <c r="B156" s="42"/>
+      <c r="B156" s="39"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="str">
         <f>IF(ISNUMBER(B157),MAX(A1:A156)+1,"")</f>
         <v/>
       </c>
-      <c r="B157" s="42"/>
+      <c r="B157" s="39"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="str">
         <f>IF(ISNUMBER(B158),MAX(A1:A157)+1,"")</f>
         <v/>
       </c>
-      <c r="B158" s="42"/>
+      <c r="B158" s="39"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="str">
         <f>IF(ISNUMBER(B159),MAX(A1:A158)+1,"")</f>
         <v/>
       </c>
-      <c r="B159" s="42"/>
+      <c r="B159" s="39"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="str">
         <f>IF(ISNUMBER(B160),MAX(A1:A159)+1,"")</f>
         <v/>
       </c>
-      <c r="B160" s="42"/>
+      <c r="B160" s="39"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="str">
         <f>IF(ISNUMBER(B161),MAX(A1:A160)+1,"")</f>
         <v/>
       </c>
-      <c r="B161" s="42"/>
+      <c r="B161" s="39"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="str">
         <f>IF(ISNUMBER(B162),MAX(A1:A161)+1,"")</f>
         <v/>
       </c>
-      <c r="B162" s="42"/>
+      <c r="B162" s="39"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="str">
         <f>IF(ISNUMBER(B163),MAX(A1:A162)+1,"")</f>
         <v/>
       </c>
-      <c r="B163" s="42"/>
+      <c r="B163" s="39"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="str">
         <f>IF(ISNUMBER(B164),MAX(A1:A163)+1,"")</f>
         <v/>
       </c>
-      <c r="B164" s="42"/>
+      <c r="B164" s="39"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="str">
         <f>IF(ISNUMBER(B165),MAX(A1:A164)+1,"")</f>
         <v/>
       </c>
-      <c r="B165" s="42"/>
+      <c r="B165" s="39"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="str">
         <f>IF(ISNUMBER(B166),MAX(A1:A165)+1,"")</f>
         <v/>
       </c>
-      <c r="B166" s="42"/>
+      <c r="B166" s="39"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="str">
         <f>IF(ISNUMBER(B167),MAX(A1:A166)+1,"")</f>
         <v/>
       </c>
-      <c r="B167" s="42"/>
+      <c r="B167" s="39"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="str">
         <f>IF(ISNUMBER(B168),MAX(A1:A167)+1,"")</f>
         <v/>
       </c>
-      <c r="B168" s="42"/>
+      <c r="B168" s="39"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="str">
         <f>IF(ISNUMBER(B169),MAX(A1:A168)+1,"")</f>
         <v/>
       </c>
-      <c r="B169" s="42"/>
+      <c r="B169" s="39"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="str">
         <f>IF(ISNUMBER(B170),MAX(A1:A169)+1,"")</f>
         <v/>
       </c>
-      <c r="B170" s="42"/>
+      <c r="B170" s="39"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="str">
         <f>IF(ISNUMBER(B171),MAX(A1:A170)+1,"")</f>
         <v/>
       </c>
-      <c r="B171" s="42"/>
+      <c r="B171" s="39"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="str">
         <f>IF(ISNUMBER(B172),MAX(A1:A171)+1,"")</f>
         <v/>
       </c>
-      <c r="B172" s="42"/>
+      <c r="B172" s="39"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="str">
         <f>IF(ISNUMBER(B173),MAX(A1:A172)+1,"")</f>
         <v/>
       </c>
-      <c r="B173" s="42"/>
+      <c r="B173" s="39"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="str">
         <f>IF(ISNUMBER(B174),MAX(A1:A173)+1,"")</f>
         <v/>
       </c>
-      <c r="B174" s="42"/>
+      <c r="B174" s="39"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="str">
         <f>IF(ISNUMBER(B175),MAX(A1:A174)+1,"")</f>
         <v/>
       </c>
-      <c r="B175" s="42"/>
+      <c r="B175" s="39"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="str">
         <f>IF(ISNUMBER(B176),MAX(A1:A175)+1,"")</f>
         <v/>
       </c>
-      <c r="B176" s="42"/>
+      <c r="B176" s="39"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="str">
         <f>IF(ISNUMBER(B177),MAX(A1:A176)+1,"")</f>
         <v/>
       </c>
-      <c r="B177" s="42"/>
+      <c r="B177" s="39"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="str">
         <f>IF(ISNUMBER(B178),MAX(A1:A177)+1,"")</f>
         <v/>
       </c>
-      <c r="B178" s="42"/>
+      <c r="B178" s="39"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="str">
         <f>IF(ISNUMBER(B179),MAX(A1:A178)+1,"")</f>
         <v/>
       </c>
-      <c r="B179" s="42"/>
+      <c r="B179" s="39"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="str">
         <f>IF(ISNUMBER(B180),MAX(A1:A179)+1,"")</f>
         <v/>
       </c>
-      <c r="B180" s="42"/>
+      <c r="B180" s="39"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="str">
         <f>IF(ISNUMBER(B181),MAX(A1:A180)+1,"")</f>
         <v/>
       </c>
-      <c r="B181" s="42"/>
+      <c r="B181" s="39"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="str">
         <f>IF(ISNUMBER(B182),MAX(A1:A181)+1,"")</f>
         <v/>
       </c>
-      <c r="B182" s="42"/>
+      <c r="B182" s="39"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="str">
         <f>IF(ISNUMBER(B183),MAX(A1:A182)+1,"")</f>
         <v/>
       </c>
-      <c r="B183" s="42"/>
+      <c r="B183" s="39"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="str">
         <f>IF(ISNUMBER(B184),MAX(A1:A183)+1,"")</f>
         <v/>
       </c>
-      <c r="B184" s="42"/>
+      <c r="B184" s="39"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="str">
         <f>IF(ISNUMBER(B185),MAX(A1:A184)+1,"")</f>
         <v/>
       </c>
-      <c r="B185" s="42"/>
+      <c r="B185" s="39"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="str">
         <f>IF(ISNUMBER(B186),MAX(A1:A185)+1,"")</f>
         <v/>
       </c>
-      <c r="B186" s="42"/>
+      <c r="B186" s="39"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="str">
         <f>IF(ISNUMBER(B187),MAX(A1:A186)+1,"")</f>
         <v/>
       </c>
-      <c r="B187" s="42"/>
+      <c r="B187" s="39"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="str">
         <f>IF(ISNUMBER(B188),MAX(A1:A187)+1,"")</f>
         <v/>
       </c>
-      <c r="B188" s="42"/>
+      <c r="B188" s="39"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="str">
         <f>IF(ISNUMBER(B189),MAX(A1:A188)+1,"")</f>
         <v/>
       </c>
-      <c r="B189" s="42"/>
+      <c r="B189" s="39"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="str">
         <f>IF(ISNUMBER(B190),MAX(A1:A189)+1,"")</f>
         <v/>
       </c>
-      <c r="B190" s="42"/>
+      <c r="B190" s="39"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="str">
         <f>IF(ISNUMBER(B191),MAX(A1:A190)+1,"")</f>
         <v/>
       </c>
-      <c r="B191" s="42"/>
+      <c r="B191" s="39"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="str">
         <f>IF(ISNUMBER(B192),MAX(A1:A191)+1,"")</f>
         <v/>
       </c>
-      <c r="B192" s="42"/>
+      <c r="B192" s="39"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="str">
         <f>IF(ISNUMBER(B193),MAX(A1:A192)+1,"")</f>
         <v/>
       </c>
-      <c r="B193" s="42"/>
+      <c r="B193" s="39"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="str">
         <f>IF(ISNUMBER(B194),MAX(A1:A193)+1,"")</f>
         <v/>
       </c>
-      <c r="B194" s="42"/>
+      <c r="B194" s="39"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="str">
         <f>IF(ISNUMBER(B195),MAX(A1:A194)+1,"")</f>
         <v/>
       </c>
-      <c r="B195" s="42"/>
+      <c r="B195" s="39"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="str">
         <f>IF(ISNUMBER(B196),MAX(A1:A195)+1,"")</f>
         <v/>
       </c>
-      <c r="B196" s="42"/>
+      <c r="B196" s="39"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="str">
         <f>IF(ISNUMBER(B197),MAX(A1:A196)+1,"")</f>
         <v/>
       </c>
-      <c r="B197" s="42"/>
+      <c r="B197" s="39"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="str">
         <f>IF(ISNUMBER(B198),MAX(A1:A197)+1,"")</f>
         <v/>
       </c>
-      <c r="B198" s="42"/>
+      <c r="B198" s="39"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="str">
         <f>IF(ISNUMBER(B199),MAX(A1:A198)+1,"")</f>
         <v/>
       </c>
-      <c r="B199" s="42"/>
+      <c r="B199" s="39"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="str">
         <f>IF(ISNUMBER(B200),MAX(A1:A199)+1,"")</f>
         <v/>
       </c>
-      <c r="B200" s="42"/>
+      <c r="B200" s="39"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="str">
         <f>IF(ISNUMBER(B201),MAX(A1:A200)+1,"")</f>
         <v/>
       </c>
-      <c r="B201" s="42"/>
+      <c r="B201" s="39"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="str">
         <f>IF(ISNUMBER(B202),MAX(A1:A201)+1,"")</f>
         <v/>
       </c>
-      <c r="B202" s="42"/>
+      <c r="B202" s="39"/>
     </row>
   </sheetData>
   <sheetProtection sort="0"/>
@@ -5213,34 +5234,34 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E1" s="16"/>
       <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5250,150 +5271,150 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="52" t="str">
+        <v>123</v>
+      </c>
+      <c r="H3" s="63" t="str">
         <f>IF(OR(H4&lt;&gt;"",COUNT(A3:A102)=0),"",AVERAGE(A3:A102))</f>
         <v/>
       </c>
-      <c r="I3" s="52" t="str">
+      <c r="I3" s="63" t="str">
         <f>IF(OR(H4&lt;&gt;"",COUNT(B3:B102)=0),"",AVERAGE(B3:B102))</f>
         <v/>
       </c>
-      <c r="J3" s="52" t="str">
+      <c r="J3" s="63" t="str">
         <f>IF(OR(H4&lt;&gt;"",COUNT(C3:C102)=0),"",AVERAGE(C3:C102))</f>
         <v/>
       </c>
-      <c r="K3" s="52" t="str">
+      <c r="K3" s="63" t="str">
         <f>IF(OR(H4&lt;&gt;"",COUNT(D3:D102)=0),"",AVERAGE(D3:D102))</f>
         <v/>
       </c>
-      <c r="L3" s="52" t="str">
+      <c r="L3" s="63" t="str">
         <f>IF(OR(H4&lt;&gt;"",COUNT(E3:E102)=0),"",AVERAGE(E3:E102))</f>
         <v/>
       </c>
-      <c r="M3" s="52" t="str">
+      <c r="M3" s="63" t="str">
         <f>IF(OR(H4&lt;&gt;"",COUNT(F3:F102)=0),"",AVERAGE(F3:F102))</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
       <c r="H4" s="16" t="str">
         <f>IF(COUNT(A3:F102)=0," ",IF(600-COUNT(A3:F102)&lt;&gt;COUNTBLANK(A3:F102),"Error: All data must be numeric",IF(OR(COUNT(A3:A102)=1,COUNT(B3:B102)=1,COUNT(C3:C102)=1,COUNT(D3:D102)=1,COUNT(E3:E102)=1,COUNT(F3:F102)=1),"Error: All groups must have more than 1 observation","")))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="18" t="s">
+      <c r="L5" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="N5" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="O5" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="L5" s="18" t="s">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="H6" s="46" t="str">
+        <f>IF(H4&lt;&gt;"","",COUNT(H3:M3)-1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="62" t="str">
+        <f>IF(H4&lt;&gt;"","",IF(COUNT(A3:A102)=0,0,COUNT(A3:A102)*(AVERAGE(A3:A102)-AVERAGE(A3:F102))^2)+IF(COUNT(B3:B102)=0,0,COUNT(B3:B102)*(AVERAGE(B3:B102)-AVERAGE(A3:F102))^2)+IF(COUNT(C3:C102)=0,0,COUNT(C3:C102)*(AVERAGE(C3:C102)-AVERAGE(A3:F102))^2)+IF(COUNT(D3:D102)=0,0,COUNT(D3:D102)*(AVERAGE(D3:D102)-AVERAGE(A3:F102))^2)+IF(COUNT(E3:E102)=0,0,COUNT(E3:E102)*(AVERAGE(E3:E102)-AVERAGE(A3:F102))^2)+IF(COUNT(F3:F102)=0,0,COUNT(F3:F102)*(AVERAGE(F3:F102)-AVERAGE(A3:F102))^2))</f>
+        <v/>
+      </c>
+      <c r="J6" s="62" t="str">
+        <f>IF(H4&lt;&gt;"","",I6/H6)</f>
+        <v/>
+      </c>
+      <c r="K6" s="62" t="str">
+        <f>IF(H4&lt;&gt;"","",J6/J7)</f>
+        <v/>
+      </c>
+      <c r="L6" s="62" t="str">
+        <f>IF(H4&lt;&gt;"","",FDIST(K6,H6,H7))</f>
+        <v/>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" s="47"/>
+      <c r="O6" s="62" t="str">
+        <f>IF(H4&lt;&gt;"","",IF(ISBLANK(N6),"",IF(OR(NOT(ISNUMBER(N6)),N6&gt;=1,N6&lt;=0),"",FINV(N6,H6,H7))))</f>
+        <v/>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="O5" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="51" t="str">
-        <f>IF(H4&lt;&gt;"","",COUNT(H3:M3)-1)</f>
-        <v/>
-      </c>
-      <c r="I6" s="55" t="str">
-        <f>IF(H4&lt;&gt;"","",IF(COUNT(A3:A102)=0,0,COUNT(A3:A102)*(AVERAGE(A3:A102)-AVERAGE(A3:F102))^2)+IF(COUNT(B3:B102)=0,0,COUNT(B3:B102)*(AVERAGE(B3:B102)-AVERAGE(A3:F102))^2)+IF(COUNT(C3:C102)=0,0,COUNT(C3:C102)*(AVERAGE(C3:C102)-AVERAGE(A3:F102))^2)+IF(COUNT(D3:D102)=0,0,COUNT(D3:D102)*(AVERAGE(D3:D102)-AVERAGE(A3:F102))^2)+IF(COUNT(E3:E102)=0,0,COUNT(E3:E102)*(AVERAGE(E3:E102)-AVERAGE(A3:F102))^2)+IF(COUNT(F3:F102)=0,0,COUNT(F3:F102)*(AVERAGE(F3:F102)-AVERAGE(A3:F102))^2))</f>
-        <v/>
-      </c>
-      <c r="J6" s="55" t="str">
-        <f>IF(H4&lt;&gt;"","",I6/H6)</f>
-        <v/>
-      </c>
-      <c r="K6" s="55" t="str">
-        <f>IF(H4&lt;&gt;"","",J6/J7)</f>
-        <v/>
-      </c>
-      <c r="L6" s="55" t="str">
-        <f>IF(H4&lt;&gt;"","",FDIST(K6,H6,H7))</f>
-        <v/>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="55" t="str">
-        <f>IF(H4&lt;&gt;"","",IF(ISBLANK(N6),"",IF(OR(NOT(ISNUMBER(N6)),N6&gt;=1,N6&lt;=0),"",FINV(N6,H6,H7))))</f>
-        <v/>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="51" t="str">
+      <c r="H7" s="46" t="str">
         <f>IF(H4&lt;&gt;"","",COUNT(A3:F102)-COUNT(H3:M3))</f>
         <v/>
       </c>
-      <c r="I7" s="55" t="str">
+      <c r="I7" s="62" t="str">
         <f>IF(H4&lt;&gt;"","",IF(COUNT(A3:A102)=0,0,(COUNT(A3:A102)-1)*(_xlfn.STDEV.S(A3:A102))^2)+IF(COUNT(B3:B102)=0,0,(COUNT(B3:B102)-1)*(_xlfn.STDEV.S(B3:B102))^2)+IF(COUNT(C3:C102)=0,0,(COUNT(C3:C102)-1)*(_xlfn.STDEV.S(C3:C102))^2)+IF(COUNT(D3:D102)=0,0,(COUNT(D3:D102)-1)*(_xlfn.STDEV.S(D3:D102))^2)+IF(COUNT(E3:E102)=0,0,(COUNT(E3:E102)-1)*(_xlfn.STDEV.S(E3:E102))^2)+IF(COUNT(F3:F102)=0,0,(COUNT(F3:F102)-1)*(_xlfn.STDEV.S(F3:F102))^2))</f>
         <v/>
       </c>
-      <c r="J7" s="55" t="str">
+      <c r="J7" s="62" t="str">
         <f>IF(H4&lt;&gt;"","",I7/H7)</f>
         <v/>
       </c>
       <c r="K7" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L7" s="22"/>
       <c r="N7" s="16" t="str">
@@ -5402,60 +5423,60 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="51" t="str">
+        <v>133</v>
+      </c>
+      <c r="H8" s="46" t="str">
         <f>IF(H4&lt;&gt;"","",H6+H7)</f>
         <v/>
       </c>
-      <c r="I8" s="55" t="str">
+      <c r="I8" s="62" t="str">
         <f>IF(H4&lt;&gt;"","",I6+I7)</f>
         <v/>
       </c>
       <c r="J8" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -5463,807 +5484,807 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="6" t="s">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="4" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="4" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="20" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="3" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="4" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="20" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="3" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="20" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H21" s="3" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="3" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="20" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="4" t="s">
+      <c r="H25" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="42"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6293,14 +6314,14 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="10"/>
       <c r="U1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -6308,19 +6329,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -6328,8 +6349,8 @@
         <f>IF(AND(ISNUMBER(B3),ISNUMBER(C3)),MAX(A1:A2)+1,"")</f>
         <v/>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="2" t="str">
         <f>IF(ISNUMBER(A3),B3-C3,"")</f>
         <v/>
@@ -6351,8 +6372,8 @@
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(C4)),MAX(A1:A3)+1,"")</f>
         <v/>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="2" t="str">
         <f t="shared" ref="D4:D67" si="0">IF(ISNUMBER(A4),B4-C4,"")</f>
         <v/>
@@ -6365,18 +6386,18 @@
         <f t="shared" ref="F4:F67" si="2">IF(ISNUMBER(A4),E4/C4,"")</f>
         <v/>
       </c>
-      <c r="H4" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="39" t="str">
+      <c r="H4" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="65" t="str">
         <f>IF(MAX(A3:A102)=0,"",IF(AND(MAX(A3:A102)=COUNT(B3:B102),MAX(A3:A102)=COUNT(C3:C102)),SUM(F3:F102),"Input Error"))</f>
         <v/>
       </c>
       <c r="J4" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -6384,8 +6405,8 @@
         <f>IF(AND(ISNUMBER(B5),ISNUMBER(C5)),MAX(A1:A4)+1,"")</f>
         <v/>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6399,15 +6420,15 @@
         <v/>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="39" t="str">
+      <c r="H5" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="37" t="str">
         <f>IF(OR(I4="",I4="Input Error"),"",MAX(A3:A102)-1)</f>
         <v/>
       </c>
       <c r="J5" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K5" s="6"/>
     </row>
@@ -6416,8 +6437,8 @@
         <f>IF(AND(ISNUMBER(B6),ISNUMBER(C6)),MAX(A1:A5)+1,"")</f>
         <v/>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6430,18 +6451,18 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H6" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="I6" s="41" t="str">
+      <c r="H6" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="57" t="str">
         <f>IF(OR(I4="",I4="Input Error"),"",CHIDIST(I4,I5))</f>
         <v/>
       </c>
       <c r="J6" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -6449,8 +6470,8 @@
         <f>IF(AND(ISNUMBER(B7),ISNUMBER(C7)),MAX(A1:A6)+1,"")</f>
         <v/>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6471,8 +6492,8 @@
         <f>IF(AND(ISNUMBER(B8),ISNUMBER(C8)),MAX(A1:A7)+1,"")</f>
         <v/>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6485,10 +6506,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H8" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" s="44">
+      <c r="H8" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="41">
         <v>0.05</v>
       </c>
       <c r="J8" s="16" t="str">
@@ -6501,8 +6522,8 @@
         <f>IF(AND(ISNUMBER(B9),ISNUMBER(C9)),MAX(A1:A8)+1,"")</f>
         <v/>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6515,18 +6536,18 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="I9" s="49" t="str">
+      <c r="H9" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="44" t="str">
         <f>IF(MAX(A3:A102)=0,"",IF(ISBLANK(I8),"",IF(OR(NOT(ISNUMBER(I8)),I8&gt;=1,I8&lt;=0),"",CHIINV(I8,I5))))</f>
         <v/>
       </c>
       <c r="J9" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -6534,8 +6555,8 @@
         <f>IF(AND(ISNUMBER(B10),ISNUMBER(C10)),MAX(A1:A9)+1,"")</f>
         <v/>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6554,8 +6575,8 @@
         <f>IF(AND(ISNUMBER(B11),ISNUMBER(C11)),MAX(A1:A10)+1,"")</f>
         <v/>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6575,8 +6596,8 @@
         <f>IF(AND(ISNUMBER(B12),ISNUMBER(C12)),MAX(A1:A11)+1,"")</f>
         <v/>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6596,8 +6617,8 @@
         <f>IF(AND(ISNUMBER(B13),ISNUMBER(C13)),MAX(A1:A12)+1,"")</f>
         <v/>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6616,8 +6637,8 @@
         <f>IF(AND(ISNUMBER(B14),ISNUMBER(C14)),MAX(A1:A13)+1,"")</f>
         <v/>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6636,8 +6657,8 @@
         <f>IF(AND(ISNUMBER(B15),ISNUMBER(C15)),MAX(A1:A14)+1,"")</f>
         <v/>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6656,8 +6677,8 @@
         <f>IF(AND(ISNUMBER(B16),ISNUMBER(C16)),MAX(A1:A15)+1,"")</f>
         <v/>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6676,8 +6697,8 @@
         <f>IF(AND(ISNUMBER(B17),ISNUMBER(C17)),MAX(A1:A16)+1,"")</f>
         <v/>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6696,8 +6717,8 @@
         <f>IF(AND(ISNUMBER(B18),ISNUMBER(C18)),MAX(A1:A17)+1,"")</f>
         <v/>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6716,8 +6737,8 @@
         <f>IF(AND(ISNUMBER(B19),ISNUMBER(C19)),MAX(A1:A18)+1,"")</f>
         <v/>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6736,8 +6757,8 @@
         <f>IF(AND(ISNUMBER(B20),ISNUMBER(C20)),MAX(A1:A19)+1,"")</f>
         <v/>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6756,8 +6777,8 @@
         <f>IF(AND(ISNUMBER(B21),ISNUMBER(C21)),MAX(A1:A20)+1,"")</f>
         <v/>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6776,8 +6797,8 @@
         <f>IF(AND(ISNUMBER(B22),ISNUMBER(C22)),MAX(A1:A21)+1,"")</f>
         <v/>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6796,8 +6817,8 @@
         <f>IF(AND(ISNUMBER(B23),ISNUMBER(C23)),MAX(A1:A22)+1,"")</f>
         <v/>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6816,8 +6837,8 @@
         <f>IF(AND(ISNUMBER(B24),ISNUMBER(C24)),MAX(A1:A23)+1,"")</f>
         <v/>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6836,8 +6857,8 @@
         <f>IF(AND(ISNUMBER(B25),ISNUMBER(C25)),MAX(A1:A24)+1,"")</f>
         <v/>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6856,8 +6877,8 @@
         <f>IF(AND(ISNUMBER(B26),ISNUMBER(C26)),MAX(A1:A25)+1,"")</f>
         <v/>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6876,8 +6897,8 @@
         <f>IF(AND(ISNUMBER(B27),ISNUMBER(C27)),MAX(A1:A26)+1,"")</f>
         <v/>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6896,8 +6917,8 @@
         <f>IF(AND(ISNUMBER(B28),ISNUMBER(C28)),MAX(A1:A27)+1,"")</f>
         <v/>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6916,8 +6937,8 @@
         <f>IF(AND(ISNUMBER(B29),ISNUMBER(C29)),MAX(A1:A28)+1,"")</f>
         <v/>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6936,8 +6957,8 @@
         <f>IF(AND(ISNUMBER(B30),ISNUMBER(C30)),MAX(A1:A29)+1,"")</f>
         <v/>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6956,8 +6977,8 @@
         <f>IF(AND(ISNUMBER(B31),ISNUMBER(C31)),MAX(A1:A30)+1,"")</f>
         <v/>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6976,8 +6997,8 @@
         <f>IF(AND(ISNUMBER(B32),ISNUMBER(C32)),MAX(A1:A31)+1,"")</f>
         <v/>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6996,8 +7017,8 @@
         <f>IF(AND(ISNUMBER(B33),ISNUMBER(C33)),MAX(A1:A32)+1,"")</f>
         <v/>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7016,8 +7037,8 @@
         <f>IF(AND(ISNUMBER(B34),ISNUMBER(C34)),MAX(A1:A33)+1,"")</f>
         <v/>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7036,8 +7057,8 @@
         <f>IF(AND(ISNUMBER(B35),ISNUMBER(C35)),MAX(A1:A34)+1,"")</f>
         <v/>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7056,8 +7077,8 @@
         <f>IF(AND(ISNUMBER(B36),ISNUMBER(C36)),MAX(A1:A35)+1,"")</f>
         <v/>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7076,8 +7097,8 @@
         <f>IF(AND(ISNUMBER(B37),ISNUMBER(C37)),MAX(A1:A36)+1,"")</f>
         <v/>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7096,8 +7117,8 @@
         <f>IF(AND(ISNUMBER(B38),ISNUMBER(C38)),MAX(A1:A37)+1,"")</f>
         <v/>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7116,8 +7137,8 @@
         <f>IF(AND(ISNUMBER(B39),ISNUMBER(C39)),MAX(A1:A38)+1,"")</f>
         <v/>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7136,8 +7157,8 @@
         <f>IF(AND(ISNUMBER(B40),ISNUMBER(C40)),MAX(A1:A39)+1,"")</f>
         <v/>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7156,8 +7177,8 @@
         <f>IF(AND(ISNUMBER(B41),ISNUMBER(C41)),MAX(A1:A40)+1,"")</f>
         <v/>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7176,8 +7197,8 @@
         <f>IF(AND(ISNUMBER(B42),ISNUMBER(C42)),MAX(A1:A41)+1,"")</f>
         <v/>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7196,8 +7217,8 @@
         <f>IF(AND(ISNUMBER(B43),ISNUMBER(C43)),MAX(A1:A42)+1,"")</f>
         <v/>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7216,8 +7237,8 @@
         <f>IF(AND(ISNUMBER(B44),ISNUMBER(C44)),MAX(A1:A43)+1,"")</f>
         <v/>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7236,8 +7257,8 @@
         <f>IF(AND(ISNUMBER(B45),ISNUMBER(C45)),MAX(A1:A44)+1,"")</f>
         <v/>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7256,8 +7277,8 @@
         <f>IF(AND(ISNUMBER(B46),ISNUMBER(C46)),MAX(A1:A45)+1,"")</f>
         <v/>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7276,8 +7297,8 @@
         <f>IF(AND(ISNUMBER(B47),ISNUMBER(C47)),MAX(A1:A46)+1,"")</f>
         <v/>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7296,8 +7317,8 @@
         <f>IF(AND(ISNUMBER(B48),ISNUMBER(C48)),MAX(A1:A47)+1,"")</f>
         <v/>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7316,8 +7337,8 @@
         <f>IF(AND(ISNUMBER(B49),ISNUMBER(C49)),MAX(A1:A48)+1,"")</f>
         <v/>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7336,8 +7357,8 @@
         <f>IF(AND(ISNUMBER(B50),ISNUMBER(C50)),MAX(A1:A49)+1,"")</f>
         <v/>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7356,8 +7377,8 @@
         <f>IF(AND(ISNUMBER(B51),ISNUMBER(C51)),MAX(A1:A50)+1,"")</f>
         <v/>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7376,8 +7397,8 @@
         <f>IF(AND(ISNUMBER(B52),ISNUMBER(C52)),MAX(A1:A51)+1,"")</f>
         <v/>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7396,8 +7417,8 @@
         <f>IF(AND(ISNUMBER(B53),ISNUMBER(C53)),MAX(A1:A52)+1,"")</f>
         <v/>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7416,8 +7437,8 @@
         <f>IF(AND(ISNUMBER(B54),ISNUMBER(C54)),MAX(A1:A53)+1,"")</f>
         <v/>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7436,8 +7457,8 @@
         <f>IF(AND(ISNUMBER(B55),ISNUMBER(C55)),MAX(A1:A54)+1,"")</f>
         <v/>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7456,8 +7477,8 @@
         <f>IF(AND(ISNUMBER(B56),ISNUMBER(C56)),MAX(A1:A55)+1,"")</f>
         <v/>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7476,8 +7497,8 @@
         <f>IF(AND(ISNUMBER(B57),ISNUMBER(C57)),MAX(A1:A56)+1,"")</f>
         <v/>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7496,8 +7517,8 @@
         <f>IF(AND(ISNUMBER(B58),ISNUMBER(C58)),MAX(A1:A57)+1,"")</f>
         <v/>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7516,8 +7537,8 @@
         <f>IF(AND(ISNUMBER(B59),ISNUMBER(C59)),MAX(A1:A58)+1,"")</f>
         <v/>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7536,8 +7557,8 @@
         <f>IF(AND(ISNUMBER(B60),ISNUMBER(C60)),MAX(A1:A59)+1,"")</f>
         <v/>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7556,8 +7577,8 @@
         <f>IF(AND(ISNUMBER(B61),ISNUMBER(C61)),MAX(A1:A60)+1,"")</f>
         <v/>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
       <c r="D61" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7576,8 +7597,8 @@
         <f>IF(AND(ISNUMBER(B62),ISNUMBER(C62)),MAX(A1:A61)+1,"")</f>
         <v/>
       </c>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7596,8 +7617,8 @@
         <f>IF(AND(ISNUMBER(B63),ISNUMBER(C63)),MAX(A1:A62)+1,"")</f>
         <v/>
       </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7616,8 +7637,8 @@
         <f>IF(AND(ISNUMBER(B64),ISNUMBER(C64)),MAX(A1:A63)+1,"")</f>
         <v/>
       </c>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7636,8 +7657,8 @@
         <f>IF(AND(ISNUMBER(B65),ISNUMBER(C65)),MAX(A1:A64)+1,"")</f>
         <v/>
       </c>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7652,8 +7673,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7668,8 +7689,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
       <c r="D67" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7684,8 +7705,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="2" t="str">
         <f t="shared" ref="D68:D102" si="3">IF(ISNUMBER(A68),B68-C68,"")</f>
         <v/>
@@ -7700,8 +7721,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7720,8 +7741,8 @@
         <f>IF(AND(ISNUMBER(B70),ISNUMBER(C70)),MAX(A1:A69)+1,"")</f>
         <v/>
       </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
       <c r="D70" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7740,8 +7761,8 @@
         <f>IF(AND(ISNUMBER(B71),ISNUMBER(C71)),MAX(A1:A70)+1,"")</f>
         <v/>
       </c>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7760,8 +7781,8 @@
         <f>IF(AND(ISNUMBER(B72),ISNUMBER(C72)),MAX(A1:A71)+1,"")</f>
         <v/>
       </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7780,8 +7801,8 @@
         <f>IF(AND(ISNUMBER(B73),ISNUMBER(C73)),MAX(A1:A72)+1,"")</f>
         <v/>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7800,8 +7821,8 @@
         <f>IF(AND(ISNUMBER(B74),ISNUMBER(C74)),MAX(A1:A73)+1,"")</f>
         <v/>
       </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7820,8 +7841,8 @@
         <f>IF(AND(ISNUMBER(B75),ISNUMBER(C75)),MAX(A1:A74)+1,"")</f>
         <v/>
       </c>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7840,8 +7861,8 @@
         <f>IF(AND(ISNUMBER(B76),ISNUMBER(C76)),MAX(A1:A75)+1,"")</f>
         <v/>
       </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7860,8 +7881,8 @@
         <f>IF(AND(ISNUMBER(B77),ISNUMBER(C77)),MAX(A1:A76)+1,"")</f>
         <v/>
       </c>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7880,8 +7901,8 @@
         <f>IF(AND(ISNUMBER(B78),ISNUMBER(C78)),MAX(A1:A77)+1,"")</f>
         <v/>
       </c>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7900,8 +7921,8 @@
         <f>IF(AND(ISNUMBER(B79),ISNUMBER(C79)),MAX(A1:A78)+1,"")</f>
         <v/>
       </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7920,8 +7941,8 @@
         <f>IF(AND(ISNUMBER(B80),ISNUMBER(C80)),MAX(A1:A79)+1,"")</f>
         <v/>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7940,8 +7961,8 @@
         <f>IF(AND(ISNUMBER(B81),ISNUMBER(C81)),MAX(A1:A80)+1,"")</f>
         <v/>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7960,8 +7981,8 @@
         <f>IF(AND(ISNUMBER(B82),ISNUMBER(C82)),MAX(A1:A81)+1,"")</f>
         <v/>
       </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7980,8 +8001,8 @@
         <f>IF(AND(ISNUMBER(B83),ISNUMBER(C83)),MAX(A1:A82)+1,"")</f>
         <v/>
       </c>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8000,8 +8021,8 @@
         <f>IF(AND(ISNUMBER(B84),ISNUMBER(C84)),MAX(A1:A83)+1,"")</f>
         <v/>
       </c>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8020,8 +8041,8 @@
         <f>IF(AND(ISNUMBER(B85),ISNUMBER(C85)),MAX(A1:A84)+1,"")</f>
         <v/>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
       <c r="D85" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8040,8 +8061,8 @@
         <f>IF(AND(ISNUMBER(B86),ISNUMBER(C86)),MAX(A1:A85)+1,"")</f>
         <v/>
       </c>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
       <c r="D86" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8060,8 +8081,8 @@
         <f>IF(AND(ISNUMBER(B87),ISNUMBER(C87)),MAX(A1:A86)+1,"")</f>
         <v/>
       </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
       <c r="D87" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8080,8 +8101,8 @@
         <f>IF(AND(ISNUMBER(B88),ISNUMBER(C88)),MAX(A1:A87)+1,"")</f>
         <v/>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
       <c r="D88" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8100,8 +8121,8 @@
         <f>IF(AND(ISNUMBER(B89),ISNUMBER(C89)),MAX(A1:A88)+1,"")</f>
         <v/>
       </c>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
       <c r="D89" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8120,8 +8141,8 @@
         <f>IF(AND(ISNUMBER(B90),ISNUMBER(C90)),MAX(A1:A89)+1,"")</f>
         <v/>
       </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
       <c r="D90" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8140,8 +8161,8 @@
         <f>IF(AND(ISNUMBER(B91),ISNUMBER(C91)),MAX(A1:A90)+1,"")</f>
         <v/>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
       <c r="D91" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8160,8 +8181,8 @@
         <f>IF(AND(ISNUMBER(B92),ISNUMBER(C92)),MAX(A1:A91)+1,"")</f>
         <v/>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8180,8 +8201,8 @@
         <f>IF(AND(ISNUMBER(B93),ISNUMBER(C93)),MAX(A1:A92)+1,"")</f>
         <v/>
       </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8200,8 +8221,8 @@
         <f>IF(AND(ISNUMBER(B94),ISNUMBER(C94)),MAX(A1:A93)+1,"")</f>
         <v/>
       </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
       <c r="D94" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8220,8 +8241,8 @@
         <f>IF(AND(ISNUMBER(B95),ISNUMBER(C95)),MAX(A1:A94)+1,"")</f>
         <v/>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8240,8 +8261,8 @@
         <f>IF(AND(ISNUMBER(B96),ISNUMBER(C96)),MAX(A1:A95)+1,"")</f>
         <v/>
       </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
       <c r="D96" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8260,8 +8281,8 @@
         <f>IF(AND(ISNUMBER(B97),ISNUMBER(C97)),MAX(A1:A96)+1,"")</f>
         <v/>
       </c>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
       <c r="D97" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8280,8 +8301,8 @@
         <f>IF(AND(ISNUMBER(B98),ISNUMBER(C98)),MAX(A1:A97)+1,"")</f>
         <v/>
       </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8300,8 +8321,8 @@
         <f>IF(AND(ISNUMBER(B99),ISNUMBER(C99)),MAX(A1:A98)+1,"")</f>
         <v/>
       </c>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
       <c r="D99" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8320,8 +8341,8 @@
         <f>IF(AND(ISNUMBER(B100),ISNUMBER(C100)),MAX(A1:A99)+1,"")</f>
         <v/>
       </c>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
       <c r="D100" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8340,8 +8361,8 @@
         <f>IF(AND(ISNUMBER(B101),ISNUMBER(C101)),MAX(A1:A100)+1,"")</f>
         <v/>
       </c>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
       <c r="D101" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8360,8 +8381,8 @@
         <f>IF(AND(ISNUMBER(B102),ISNUMBER(C102)),MAX(A1:A101)+1,"")</f>
         <v/>
       </c>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
       <c r="D102" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8398,14 +8419,14 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="10"/>
       <c r="Y1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -8413,10 +8434,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -8424,8 +8445,8 @@
         <f>IF(AND(ISNUMBER(B3),ISNUMBER(C3)),MAX(A1:A2)+1,"")</f>
         <v/>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
@@ -8435,20 +8456,20 @@
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(C4)),MAX(A1:A3)+1,"")</f>
         <v/>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="E4" s="38" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="E4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="38">
         <f>IF(AND(MAX(A3:A102)=COUNT(B3:B102),MAX(A3:A102)=COUNT(C3:C102)),MAX(A3:A102),"Input Error")</f>
         <v>0</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -8456,20 +8477,20 @@
         <f>IF(AND(ISNUMBER(B5),ISNUMBER(C5)),MAX(A1:A4)+1,"")</f>
         <v/>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="E5" s="38" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="E5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="41" t="str">
+      <c r="F5" s="38" t="str">
         <f>IF(OR(F4="Input Error",F4&lt;2),"",AVERAGE(B3:B102))</f>
         <v/>
       </c>
-      <c r="G5" s="54" t="s">
-        <v>175</v>
+      <c r="G5" s="48" t="s">
+        <v>172</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -8477,20 +8498,20 @@
         <f>IF(AND(ISNUMBER(B6),ISNUMBER(C6)),MAX(A1:A5)+1,"")</f>
         <v/>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="E6" s="38" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="E6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="41" t="str">
+      <c r="F6" s="38" t="str">
         <f>IF(OR(F4="Input Error",F4&lt;2),"",AVERAGE(C3:C102))</f>
         <v/>
       </c>
       <c r="G6" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -8498,20 +8519,20 @@
         <f>IF(AND(ISNUMBER(B7),ISNUMBER(C7)),MAX(A1:A6)+1,"")</f>
         <v/>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="E7" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="41" t="str">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="E7" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="38" t="str">
         <f>IF(OR(F4="Input Error",F4&lt;2),"",CORREL(B3:B102,C3:C102))</f>
         <v/>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>175</v>
+      <c r="G7" s="48" t="s">
+        <v>172</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -8519,20 +8540,20 @@
         <f>IF(AND(ISNUMBER(B8),ISNUMBER(C8)),MAX(A1:A7)+1,"")</f>
         <v/>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="E8" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="41" t="str">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="E8" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="38" t="str">
         <f>IF(OR(F4="Input Error",F4&lt;2),"",(CORREL(B3:B102,C3:C102))^2)</f>
         <v/>
       </c>
       <c r="G8" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -8540,14 +8561,14 @@
         <f>IF(AND(ISNUMBER(B9),ISNUMBER(C9)),MAX(A1:A8)+1,"")</f>
         <v/>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -8555,20 +8576,20 @@
         <f>IF(AND(ISNUMBER(B10),ISNUMBER(C10)),MAX(A1:A9)+1,"")</f>
         <v/>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="E10" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="41" t="str">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="E10" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="38" t="str">
         <f>IF(OR(F4="Input Error",F4&lt;2),"",(SUM(C3:C102)*SUMPRODUCT(B3:B102,B3:B102)-SUM(B3:B102)*SUMPRODUCT(B3:B102,C3:C102))/(F4*SUMPRODUCT(B3:B102,B3:B102)-(SUM(B3:B102))^2))</f>
         <v/>
       </c>
       <c r="G10" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -8576,20 +8597,20 @@
         <f>IF(AND(ISNUMBER(B11),ISNUMBER(C11)),MAX(A1:A10)+1,"")</f>
         <v/>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="E11" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="41" t="str">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="E11" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="38" t="str">
         <f>IF(OR(F4="Input Error",F4&lt;2),"",(F4*SUMPRODUCT(B3:B102,C3:C102)-SUM(B3:B102)*SUM(C3:C102))/(F4*SUMPRODUCT(B3:B102,B3:B102)-(SUM(B3:B102)^2)))</f>
         <v/>
       </c>
       <c r="G11" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -8597,8 +8618,8 @@
         <f>IF(AND(ISNUMBER(B12),ISNUMBER(C12)),MAX(A1:A11)+1,"")</f>
         <v/>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -8606,8 +8627,8 @@
         <f>IF(AND(ISNUMBER(B13),ISNUMBER(C13)),MAX(A1:A12)+1,"")</f>
         <v/>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8615,8 +8636,8 @@
         <f>IF(AND(ISNUMBER(B14),ISNUMBER(C14)),MAX(A1:A13)+1,"")</f>
         <v/>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -8624,10 +8645,10 @@
         <f>IF(AND(ISNUMBER(B15),ISNUMBER(C15)),MAX(A1:A14)+1,"")</f>
         <v/>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="E15" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -8635,8 +8656,8 @@
         <f>IF(AND(ISNUMBER(B16),ISNUMBER(C16)),MAX(A1:A15)+1,"")</f>
         <v/>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8644,692 +8665,692 @@
         <f>IF(AND(ISNUMBER(B17),ISNUMBER(C17)),MAX(A1:A16)+1,"")</f>
         <v/>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f>IF(AND(ISNUMBER(B18),ISNUMBER(C18)),MAX(A1:A17)+1,"")</f>
         <v/>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f>IF(AND(ISNUMBER(B19),ISNUMBER(C19)),MAX(A1:A18)+1,"")</f>
         <v/>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f>IF(AND(ISNUMBER(B20),ISNUMBER(C20)),MAX(A1:A19)+1,"")</f>
         <v/>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f>IF(AND(ISNUMBER(B21),ISNUMBER(C21)),MAX(A1:A20)+1,"")</f>
         <v/>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f>IF(AND(ISNUMBER(B22),ISNUMBER(C22)),MAX(A1:A21)+1,"")</f>
         <v/>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f>IF(AND(ISNUMBER(B23),ISNUMBER(C23)),MAX(A1:A22)+1,"")</f>
         <v/>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f>IF(AND(ISNUMBER(B24),ISNUMBER(C24)),MAX(A1:A23)+1,"")</f>
         <v/>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f>IF(AND(ISNUMBER(B25),ISNUMBER(C25)),MAX(A1:A24)+1,"")</f>
         <v/>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f>IF(AND(ISNUMBER(B26),ISNUMBER(C26)),MAX(A1:A25)+1,"")</f>
         <v/>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f>IF(AND(ISNUMBER(B27),ISNUMBER(C27)),MAX(A1:A26)+1,"")</f>
         <v/>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f>IF(AND(ISNUMBER(B28),ISNUMBER(C28)),MAX(A1:A27)+1,"")</f>
         <v/>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f>IF(AND(ISNUMBER(B29),ISNUMBER(C29)),MAX(A1:A28)+1,"")</f>
         <v/>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f>IF(AND(ISNUMBER(B30),ISNUMBER(C30)),MAX(A1:A29)+1,"")</f>
         <v/>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f>IF(AND(ISNUMBER(B31),ISNUMBER(C31)),MAX(A1:A30)+1,"")</f>
         <v/>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f>IF(AND(ISNUMBER(B32),ISNUMBER(C32)),MAX(A1:A31)+1,"")</f>
         <v/>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f>IF(AND(ISNUMBER(B33),ISNUMBER(C33)),MAX(A1:A32)+1,"")</f>
         <v/>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f>IF(AND(ISNUMBER(B34),ISNUMBER(C34)),MAX(A1:A33)+1,"")</f>
         <v/>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f>IF(AND(ISNUMBER(B35),ISNUMBER(C35)),MAX(A1:A34)+1,"")</f>
         <v/>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f>IF(AND(ISNUMBER(B36),ISNUMBER(C36)),MAX(A1:A35)+1,"")</f>
         <v/>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f>IF(AND(ISNUMBER(B37),ISNUMBER(C37)),MAX(A1:A36)+1,"")</f>
         <v/>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f>IF(AND(ISNUMBER(B38),ISNUMBER(C38)),MAX(A1:A37)+1,"")</f>
         <v/>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f>IF(AND(ISNUMBER(B39),ISNUMBER(C39)),MAX(A1:A38)+1,"")</f>
         <v/>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f>IF(AND(ISNUMBER(B40),ISNUMBER(C40)),MAX(A1:A39)+1,"")</f>
         <v/>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f>IF(AND(ISNUMBER(B41),ISNUMBER(C41)),MAX(A1:A40)+1,"")</f>
         <v/>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f>IF(AND(ISNUMBER(B42),ISNUMBER(C42)),MAX(A1:A41)+1,"")</f>
         <v/>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f>IF(AND(ISNUMBER(B43),ISNUMBER(C43)),MAX(A1:A42)+1,"")</f>
         <v/>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f>IF(AND(ISNUMBER(B44),ISNUMBER(C44)),MAX(A1:A43)+1,"")</f>
         <v/>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f>IF(AND(ISNUMBER(B45),ISNUMBER(C45)),MAX(A1:A44)+1,"")</f>
         <v/>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f>IF(AND(ISNUMBER(B46),ISNUMBER(C46)),MAX(A1:A45)+1,"")</f>
         <v/>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f>IF(AND(ISNUMBER(B47),ISNUMBER(C47)),MAX(A1:A46)+1,"")</f>
         <v/>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f>IF(AND(ISNUMBER(B48),ISNUMBER(C48)),MAX(A1:A47)+1,"")</f>
         <v/>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f>IF(AND(ISNUMBER(B49),ISNUMBER(C49)),MAX(A1:A48)+1,"")</f>
         <v/>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f>IF(AND(ISNUMBER(B50),ISNUMBER(C50)),MAX(A1:A49)+1,"")</f>
         <v/>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f>IF(AND(ISNUMBER(B51),ISNUMBER(C51)),MAX(A1:A50)+1,"")</f>
         <v/>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f>IF(AND(ISNUMBER(B52),ISNUMBER(C52)),MAX(A1:A51)+1,"")</f>
         <v/>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f>IF(AND(ISNUMBER(B53),ISNUMBER(C53)),MAX(A1:A52)+1,"")</f>
         <v/>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f>IF(AND(ISNUMBER(B54),ISNUMBER(C54)),MAX(A1:A53)+1,"")</f>
         <v/>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f>IF(AND(ISNUMBER(B55),ISNUMBER(C55)),MAX(A1:A54)+1,"")</f>
         <v/>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f>IF(AND(ISNUMBER(B56),ISNUMBER(C56)),MAX(A1:A55)+1,"")</f>
         <v/>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f>IF(AND(ISNUMBER(B57),ISNUMBER(C57)),MAX(A1:A56)+1,"")</f>
         <v/>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f>IF(AND(ISNUMBER(B58),ISNUMBER(C58)),MAX(A1:A57)+1,"")</f>
         <v/>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f>IF(AND(ISNUMBER(B59),ISNUMBER(C59)),MAX(A1:A58)+1,"")</f>
         <v/>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f>IF(AND(ISNUMBER(B60),ISNUMBER(C60)),MAX(A1:A59)+1,"")</f>
         <v/>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f>IF(AND(ISNUMBER(B61),ISNUMBER(C61)),MAX(A1:A60)+1,"")</f>
         <v/>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f>IF(AND(ISNUMBER(B62),ISNUMBER(C62)),MAX(A1:A61)+1,"")</f>
         <v/>
       </c>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f>IF(AND(ISNUMBER(B63),ISNUMBER(C63)),MAX(A1:A62)+1,"")</f>
         <v/>
       </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f>IF(AND(ISNUMBER(B64),ISNUMBER(C64)),MAX(A1:A63)+1,"")</f>
         <v/>
       </c>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f>IF(AND(ISNUMBER(B65),ISNUMBER(C65)),MAX(A1:A64)+1,"")</f>
         <v/>
       </c>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f>IF(AND(ISNUMBER(B66),ISNUMBER(C66)),MAX(A1:A65)+1,"")</f>
         <v/>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f>IF(AND(ISNUMBER(B67),ISNUMBER(C67)),MAX(A1:A66)+1,"")</f>
         <v/>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f>IF(AND(ISNUMBER(B68),ISNUMBER(C68)),MAX(A1:A67)+1,"")</f>
         <v/>
       </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f>IF(AND(ISNUMBER(B69),ISNUMBER(C69)),MAX(A1:A68)+1,"")</f>
         <v/>
       </c>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f>IF(AND(ISNUMBER(B70),ISNUMBER(C70)),MAX(A1:A69)+1,"")</f>
         <v/>
       </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
         <f>IF(AND(ISNUMBER(B71),ISNUMBER(C71)),MAX(A1:A70)+1,"")</f>
         <v/>
       </c>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
         <f>IF(AND(ISNUMBER(B72),ISNUMBER(C72)),MAX(A1:A71)+1,"")</f>
         <v/>
       </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="str">
         <f>IF(AND(ISNUMBER(B73),ISNUMBER(C73)),MAX(A1:A72)+1,"")</f>
         <v/>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="str">
         <f>IF(AND(ISNUMBER(B74),ISNUMBER(C74)),MAX(A1:A73)+1,"")</f>
         <v/>
       </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="str">
         <f>IF(AND(ISNUMBER(B75),ISNUMBER(C75)),MAX(A1:A74)+1,"")</f>
         <v/>
       </c>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="str">
         <f>IF(AND(ISNUMBER(B76),ISNUMBER(C76)),MAX(A1:A75)+1,"")</f>
         <v/>
       </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="str">
         <f>IF(AND(ISNUMBER(B77),ISNUMBER(C77)),MAX(A1:A76)+1,"")</f>
         <v/>
       </c>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f>IF(AND(ISNUMBER(B78),ISNUMBER(C78)),MAX(A1:A77)+1,"")</f>
         <v/>
       </c>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f>IF(AND(ISNUMBER(B79),ISNUMBER(C79)),MAX(A1:A78)+1,"")</f>
         <v/>
       </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
         <f>IF(AND(ISNUMBER(B80),ISNUMBER(C80)),MAX(A1:A79)+1,"")</f>
         <v/>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f>IF(AND(ISNUMBER(B81),ISNUMBER(C81)),MAX(A1:A80)+1,"")</f>
         <v/>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f>IF(AND(ISNUMBER(B82),ISNUMBER(C82)),MAX(A1:A81)+1,"")</f>
         <v/>
       </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f>IF(AND(ISNUMBER(B83),ISNUMBER(C83)),MAX(A1:A82)+1,"")</f>
         <v/>
       </c>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
         <f>IF(AND(ISNUMBER(B84),ISNUMBER(C84)),MAX(A1:A83)+1,"")</f>
         <v/>
       </c>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
         <f>IF(AND(ISNUMBER(B85),ISNUMBER(C85)),MAX(A1:A84)+1,"")</f>
         <v/>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
         <f>IF(AND(ISNUMBER(B86),ISNUMBER(C86)),MAX(A1:A85)+1,"")</f>
         <v/>
       </c>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f>IF(AND(ISNUMBER(B87),ISNUMBER(C87)),MAX(A1:A86)+1,"")</f>
         <v/>
       </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f>IF(AND(ISNUMBER(B88),ISNUMBER(C88)),MAX(A1:A87)+1,"")</f>
         <v/>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f>IF(AND(ISNUMBER(B89),ISNUMBER(C89)),MAX(A1:A88)+1,"")</f>
         <v/>
       </c>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f>IF(AND(ISNUMBER(B90),ISNUMBER(C90)),MAX(A1:A89)+1,"")</f>
         <v/>
       </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f>IF(AND(ISNUMBER(B91),ISNUMBER(C91)),MAX(A1:A90)+1,"")</f>
         <v/>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="str">
         <f>IF(AND(ISNUMBER(B92),ISNUMBER(C92)),MAX(A1:A91)+1,"")</f>
         <v/>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="str">
         <f>IF(AND(ISNUMBER(B93),ISNUMBER(C93)),MAX(A1:A92)+1,"")</f>
         <v/>
       </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="str">
         <f>IF(AND(ISNUMBER(B94),ISNUMBER(C94)),MAX(A1:A93)+1,"")</f>
         <v/>
       </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="str">
         <f>IF(AND(ISNUMBER(B95),ISNUMBER(C95)),MAX(A1:A94)+1,"")</f>
         <v/>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="str">
         <f>IF(AND(ISNUMBER(B96),ISNUMBER(C96)),MAX(A1:A95)+1,"")</f>
         <v/>
       </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="str">
         <f>IF(AND(ISNUMBER(B97),ISNUMBER(C97)),MAX(A1:A96)+1,"")</f>
         <v/>
       </c>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="str">
         <f>IF(AND(ISNUMBER(B98),ISNUMBER(C98)),MAX(A1:A97)+1,"")</f>
         <v/>
       </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="str">
         <f>IF(AND(ISNUMBER(B99),ISNUMBER(C99)),MAX(A1:A98)+1,"")</f>
         <v/>
       </c>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="str">
         <f>IF(AND(ISNUMBER(B100),ISNUMBER(C100)),MAX(A1:A99)+1,"")</f>
         <v/>
       </c>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="str">
         <f>IF(AND(ISNUMBER(B101),ISNUMBER(C101)),MAX(A1:A100)+1,"")</f>
         <v/>
       </c>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="str">
         <f>IF(AND(ISNUMBER(B102),ISNUMBER(C102)),MAX(A1:A101)+1,"")</f>
         <v/>
       </c>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -9352,13 +9373,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -9366,10 +9387,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -9377,10 +9398,10 @@
         <f>IF(AND(ISNUMBER(B3),ISNUMBER(C3)),MAX(A1:A2)+1,"")</f>
         <v/>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
@@ -9391,23 +9412,23 @@
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(C4)),MAX(A1:A3)+1,"")</f>
         <v/>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="41">
+        <v>172</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="38">
         <f>IF(AND(COUNT(A3:A102)=COUNT(B3:B102),COUNT(A3:A102)=COUNT(C3:C102)),SUM(C3:C102),"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -9415,23 +9436,23 @@
         <f>IF(AND(ISNUMBER(B5),ISNUMBER(C5)),MAX(A1:A4)+1,"")</f>
         <v/>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="41">
+        <v>172</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="38">
         <f>IF(AND(COUNT(A3:A102)=COUNT(B3:B102),COUNT(A3:A102)=COUNT(C3:C102)),SUMPRODUCT(B3:B102,C3:C102),"")</f>
         <v>0</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -9439,23 +9460,23 @@
         <f>IF(AND(ISNUMBER(B6),ISNUMBER(C6)),MAX(A1:A5)+1,"")</f>
         <v/>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="41">
+        <v>172</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="38">
         <f>IF(AND(COUNT(A3:A102)=COUNT(B3:B102),COUNT(A3:A102)=COUNT(C3:C102)),SQRT(SUMPRODUCT(B3:B102,B3:B102,C3:C102)-(SUMPRODUCT(B3:B102,C3:C102))^2),"")</f>
         <v>0</v>
       </c>
-      <c r="G6" s="54" t="s">
-        <v>175</v>
+      <c r="G6" s="48" t="s">
+        <v>172</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -9463,10 +9484,10 @@
         <f>IF(AND(ISNUMBER(B7),ISNUMBER(C7)),MAX(A1:A6)+1,"")</f>
         <v/>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -9474,10 +9495,10 @@
         <f>IF(AND(ISNUMBER(B8),ISNUMBER(C8)),MAX(A1:A7)+1,"")</f>
         <v/>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -9485,10 +9506,10 @@
         <f>IF(AND(ISNUMBER(B9),ISNUMBER(C9)),MAX(A1:A8)+1,"")</f>
         <v/>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -9496,10 +9517,10 @@
         <f>IF(AND(ISNUMBER(B10),ISNUMBER(C10)),MAX(A1:A9)+1,"")</f>
         <v/>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -9507,10 +9528,10 @@
         <f>IF(AND(ISNUMBER(B11),ISNUMBER(C11)),MAX(A1:A10)+1,"")</f>
         <v/>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -9518,10 +9539,10 @@
         <f>IF(AND(ISNUMBER(B12),ISNUMBER(C12)),MAX(A1:A11)+1,"")</f>
         <v/>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -9529,10 +9550,10 @@
         <f>IF(AND(ISNUMBER(B13),ISNUMBER(C13)),MAX(A1:A12)+1,"")</f>
         <v/>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -9540,10 +9561,10 @@
         <f>IF(AND(ISNUMBER(B14),ISNUMBER(C14)),MAX(A1:A13)+1,"")</f>
         <v/>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -9551,10 +9572,10 @@
         <f>IF(AND(ISNUMBER(B15),ISNUMBER(C15)),MAX(A1:A14)+1,"")</f>
         <v/>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -9562,10 +9583,10 @@
         <f>IF(AND(ISNUMBER(B16),ISNUMBER(C16)),MAX(A1:A15)+1,"")</f>
         <v/>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9573,10 +9594,10 @@
         <f>IF(AND(ISNUMBER(B17),ISNUMBER(C17)),MAX(A1:A16)+1,"")</f>
         <v/>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9584,10 +9605,10 @@
         <f>IF(AND(ISNUMBER(B18),ISNUMBER(C18)),MAX(A1:A17)+1,"")</f>
         <v/>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9595,10 +9616,10 @@
         <f>IF(AND(ISNUMBER(B19),ISNUMBER(C19)),MAX(A1:A18)+1,"")</f>
         <v/>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9606,10 +9627,10 @@
         <f>IF(AND(ISNUMBER(B20),ISNUMBER(C20)),MAX(A1:A19)+1,"")</f>
         <v/>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9617,10 +9638,10 @@
         <f>IF(AND(ISNUMBER(B21),ISNUMBER(C21)),MAX(A1:A20)+1,"")</f>
         <v/>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9628,10 +9649,10 @@
         <f>IF(AND(ISNUMBER(B22),ISNUMBER(C22)),MAX(A1:A21)+1,"")</f>
         <v/>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9639,10 +9660,10 @@
         <f>IF(AND(ISNUMBER(B23),ISNUMBER(C23)),MAX(A1:A22)+1,"")</f>
         <v/>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9650,10 +9671,10 @@
         <f>IF(AND(ISNUMBER(B24),ISNUMBER(C24)),MAX(A1:A23)+1,"")</f>
         <v/>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9661,10 +9682,10 @@
         <f>IF(AND(ISNUMBER(B25),ISNUMBER(C25)),MAX(A1:A24)+1,"")</f>
         <v/>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9672,10 +9693,10 @@
         <f>IF(AND(ISNUMBER(B26),ISNUMBER(C26)),MAX(A1:A25)+1,"")</f>
         <v/>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -9683,10 +9704,10 @@
         <f>IF(AND(ISNUMBER(B27),ISNUMBER(C27)),MAX(A1:A26)+1,"")</f>
         <v/>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -9694,10 +9715,10 @@
         <f>IF(AND(ISNUMBER(B28),ISNUMBER(C28)),MAX(A1:A27)+1,"")</f>
         <v/>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9705,10 +9726,10 @@
         <f>IF(AND(ISNUMBER(B29),ISNUMBER(C29)),MAX(A1:A28)+1,"")</f>
         <v/>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9716,10 +9737,10 @@
         <f>IF(AND(ISNUMBER(B30),ISNUMBER(C30)),MAX(A1:A29)+1,"")</f>
         <v/>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9727,10 +9748,10 @@
         <f>IF(AND(ISNUMBER(B31),ISNUMBER(C31)),MAX(A1:A30)+1,"")</f>
         <v/>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9738,10 +9759,10 @@
         <f>IF(AND(ISNUMBER(B32),ISNUMBER(C32)),MAX(A1:A31)+1,"")</f>
         <v/>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9749,10 +9770,10 @@
         <f>IF(AND(ISNUMBER(B33),ISNUMBER(C33)),MAX(A1:A32)+1,"")</f>
         <v/>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9760,10 +9781,10 @@
         <f>IF(AND(ISNUMBER(B34),ISNUMBER(C34)),MAX(A1:A33)+1,"")</f>
         <v/>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -9771,10 +9792,10 @@
         <f>IF(AND(ISNUMBER(B35),ISNUMBER(C35)),MAX(A1:A34)+1,"")</f>
         <v/>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -9782,10 +9803,10 @@
         <f>IF(AND(ISNUMBER(B36),ISNUMBER(C36)),MAX(A1:A35)+1,"")</f>
         <v/>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -9793,10 +9814,10 @@
         <f>IF(AND(ISNUMBER(B37),ISNUMBER(C37)),MAX(A1:A36)+1,"")</f>
         <v/>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -9804,10 +9825,10 @@
         <f>IF(AND(ISNUMBER(B38),ISNUMBER(C38)),MAX(A1:A37)+1,"")</f>
         <v/>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -9815,10 +9836,10 @@
         <f>IF(AND(ISNUMBER(B39),ISNUMBER(C39)),MAX(A1:A38)+1,"")</f>
         <v/>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -9826,10 +9847,10 @@
         <f>IF(AND(ISNUMBER(B40),ISNUMBER(C40)),MAX(A1:A39)+1,"")</f>
         <v/>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -9837,10 +9858,10 @@
         <f>IF(AND(ISNUMBER(B41),ISNUMBER(C41)),MAX(A1:A40)+1,"")</f>
         <v/>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -9848,10 +9869,10 @@
         <f>IF(AND(ISNUMBER(B42),ISNUMBER(C42)),MAX(A1:A41)+1,"")</f>
         <v/>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -9859,10 +9880,10 @@
         <f>IF(AND(ISNUMBER(B43),ISNUMBER(C43)),MAX(A1:A42)+1,"")</f>
         <v/>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -9870,10 +9891,10 @@
         <f>IF(AND(ISNUMBER(B44),ISNUMBER(C44)),MAX(A1:A43)+1,"")</f>
         <v/>
       </c>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -9881,10 +9902,10 @@
         <f>IF(AND(ISNUMBER(B45),ISNUMBER(C45)),MAX(A1:A44)+1,"")</f>
         <v/>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -9892,10 +9913,10 @@
         <f>IF(AND(ISNUMBER(B46),ISNUMBER(C46)),MAX(A1:A45)+1,"")</f>
         <v/>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -9903,10 +9924,10 @@
         <f>IF(AND(ISNUMBER(B47),ISNUMBER(C47)),MAX(A1:A46)+1,"")</f>
         <v/>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -9914,10 +9935,10 @@
         <f>IF(AND(ISNUMBER(B48),ISNUMBER(C48)),MAX(A1:A47)+1,"")</f>
         <v/>
       </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -9925,10 +9946,10 @@
         <f>IF(AND(ISNUMBER(B49),ISNUMBER(C49)),MAX(A1:A48)+1,"")</f>
         <v/>
       </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -9936,10 +9957,10 @@
         <f>IF(AND(ISNUMBER(B50),ISNUMBER(C50)),MAX(A1:A49)+1,"")</f>
         <v/>
       </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -9947,10 +9968,10 @@
         <f>IF(AND(ISNUMBER(B51),ISNUMBER(C51)),MAX(A1:A50)+1,"")</f>
         <v/>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -9958,10 +9979,10 @@
         <f>IF(AND(ISNUMBER(B52),ISNUMBER(C52)),MAX(A1:A51)+1,"")</f>
         <v/>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -9969,10 +9990,10 @@
         <f>IF(AND(ISNUMBER(B53),ISNUMBER(C53)),MAX(A1:A52)+1,"")</f>
         <v/>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -9980,10 +10001,10 @@
         <f>IF(AND(ISNUMBER(B54),ISNUMBER(C54)),MAX(A1:A53)+1,"")</f>
         <v/>
       </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -9991,10 +10012,10 @@
         <f>IF(AND(ISNUMBER(B55),ISNUMBER(C55)),MAX(A1:A54)+1,"")</f>
         <v/>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -10002,10 +10023,10 @@
         <f>IF(AND(ISNUMBER(B56),ISNUMBER(C56)),MAX(A1:A55)+1,"")</f>
         <v/>
       </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -10013,10 +10034,10 @@
         <f>IF(AND(ISNUMBER(B57),ISNUMBER(C57)),MAX(A1:A56)+1,"")</f>
         <v/>
       </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -10024,10 +10045,10 @@
         <f>IF(AND(ISNUMBER(B58),ISNUMBER(C58)),MAX(A1:A57)+1,"")</f>
         <v/>
       </c>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -10035,10 +10056,10 @@
         <f>IF(AND(ISNUMBER(B59),ISNUMBER(C59)),MAX(A1:A58)+1,"")</f>
         <v/>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10046,10 +10067,10 @@
         <f>IF(AND(ISNUMBER(B60),ISNUMBER(C60)),MAX(A1:A59)+1,"")</f>
         <v/>
       </c>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10057,10 +10078,10 @@
         <f>IF(AND(ISNUMBER(B61),ISNUMBER(C61)),MAX(A1:A60)+1,"")</f>
         <v/>
       </c>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -10068,10 +10089,10 @@
         <f>IF(AND(ISNUMBER(B62),ISNUMBER(C62)),MAX(A1:A61)+1,"")</f>
         <v/>
       </c>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -10079,10 +10100,10 @@
         <f>IF(AND(ISNUMBER(B63),ISNUMBER(C63)),MAX(A1:A62)+1,"")</f>
         <v/>
       </c>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -10090,10 +10111,10 @@
         <f>IF(AND(ISNUMBER(B64),ISNUMBER(C64)),MAX(A1:A63)+1,"")</f>
         <v/>
       </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -10101,10 +10122,10 @@
         <f>IF(AND(ISNUMBER(B65),ISNUMBER(C65)),MAX(A1:A64)+1,"")</f>
         <v/>
       </c>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -10112,10 +10133,10 @@
         <f>IF(AND(ISNUMBER(B66),ISNUMBER(C66)),MAX(A1:A65)+1,"")</f>
         <v/>
       </c>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -10123,10 +10144,10 @@
         <f>IF(AND(ISNUMBER(B67),ISNUMBER(C67)),MAX(A1:A66)+1,"")</f>
         <v/>
       </c>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -10134,10 +10155,10 @@
         <f>IF(AND(ISNUMBER(B68),ISNUMBER(C68)),MAX(A1:A67)+1,"")</f>
         <v/>
       </c>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -10145,10 +10166,10 @@
         <f>IF(AND(ISNUMBER(B69),ISNUMBER(C69)),MAX(A1:A68)+1,"")</f>
         <v/>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -10156,10 +10177,10 @@
         <f>IF(AND(ISNUMBER(B70),ISNUMBER(C70)),MAX(A1:A69)+1,"")</f>
         <v/>
       </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -10167,10 +10188,10 @@
         <f>IF(AND(ISNUMBER(B71),ISNUMBER(C71)),MAX(A1:A70)+1,"")</f>
         <v/>
       </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -10178,10 +10199,10 @@
         <f>IF(AND(ISNUMBER(B72),ISNUMBER(C72)),MAX(A1:A71)+1,"")</f>
         <v/>
       </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -10189,10 +10210,10 @@
         <f>IF(AND(ISNUMBER(B73),ISNUMBER(C73)),MAX(A1:A72)+1,"")</f>
         <v/>
       </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -10200,10 +10221,10 @@
         <f>IF(AND(ISNUMBER(B74),ISNUMBER(C74)),MAX(A1:A73)+1,"")</f>
         <v/>
       </c>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -10211,10 +10232,10 @@
         <f>IF(AND(ISNUMBER(B75),ISNUMBER(C75)),MAX(A1:A74)+1,"")</f>
         <v/>
       </c>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -10222,10 +10243,10 @@
         <f>IF(AND(ISNUMBER(B76),ISNUMBER(C76)),MAX(A1:A75)+1,"")</f>
         <v/>
       </c>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -10233,10 +10254,10 @@
         <f>IF(AND(ISNUMBER(B77),ISNUMBER(C77)),MAX(A1:A76)+1,"")</f>
         <v/>
       </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -10244,10 +10265,10 @@
         <f>IF(AND(ISNUMBER(B78),ISNUMBER(C78)),MAX(A1:A77)+1,"")</f>
         <v/>
       </c>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
       <c r="D78" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -10255,10 +10276,10 @@
         <f>IF(AND(ISNUMBER(B79),ISNUMBER(C79)),MAX(A1:A78)+1,"")</f>
         <v/>
       </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -10266,10 +10287,10 @@
         <f>IF(AND(ISNUMBER(B80),ISNUMBER(C80)),MAX(A1:A79)+1,"")</f>
         <v/>
       </c>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -10277,10 +10298,10 @@
         <f>IF(AND(ISNUMBER(B81),ISNUMBER(C81)),MAX(A1:A80)+1,"")</f>
         <v/>
       </c>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -10288,10 +10309,10 @@
         <f>IF(AND(ISNUMBER(B82),ISNUMBER(C82)),MAX(A1:A81)+1,"")</f>
         <v/>
       </c>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
       <c r="D82" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -10299,10 +10320,10 @@
         <f>IF(AND(ISNUMBER(B83),ISNUMBER(C83)),MAX(A1:A82)+1,"")</f>
         <v/>
       </c>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -10310,10 +10331,10 @@
         <f>IF(AND(ISNUMBER(B84),ISNUMBER(C84)),MAX(A1:A83)+1,"")</f>
         <v/>
       </c>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -10321,10 +10342,10 @@
         <f>IF(AND(ISNUMBER(B85),ISNUMBER(C85)),MAX(A1:A84)+1,"")</f>
         <v/>
       </c>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -10332,10 +10353,10 @@
         <f>IF(AND(ISNUMBER(B86),ISNUMBER(C86)),MAX(A1:A85)+1,"")</f>
         <v/>
       </c>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -10343,10 +10364,10 @@
         <f>IF(AND(ISNUMBER(B87),ISNUMBER(C87)),MAX(A1:A86)+1,"")</f>
         <v/>
       </c>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -10354,10 +10375,10 @@
         <f>IF(AND(ISNUMBER(B88),ISNUMBER(C88)),MAX(A1:A87)+1,"")</f>
         <v/>
       </c>
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -10365,10 +10386,10 @@
         <f>IF(AND(ISNUMBER(B89),ISNUMBER(C89)),MAX(A1:A88)+1,"")</f>
         <v/>
       </c>
-      <c r="B89" s="53"/>
-      <c r="C89" s="53"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -10376,10 +10397,10 @@
         <f>IF(AND(ISNUMBER(B90),ISNUMBER(C90)),MAX(A1:A89)+1,"")</f>
         <v/>
       </c>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -10387,10 +10408,10 @@
         <f>IF(AND(ISNUMBER(B91),ISNUMBER(C91)),MAX(A1:A90)+1,"")</f>
         <v/>
       </c>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -10398,10 +10419,10 @@
         <f>IF(AND(ISNUMBER(B92),ISNUMBER(C92)),MAX(A1:A91)+1,"")</f>
         <v/>
       </c>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
       <c r="D92" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -10409,10 +10430,10 @@
         <f>IF(AND(ISNUMBER(B93),ISNUMBER(C93)),MAX(A1:A92)+1,"")</f>
         <v/>
       </c>
-      <c r="B93" s="53"/>
-      <c r="C93" s="53"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -10420,10 +10441,10 @@
         <f>IF(AND(ISNUMBER(B94),ISNUMBER(C94)),MAX(A1:A93)+1,"")</f>
         <v/>
       </c>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="47"/>
       <c r="D94" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -10431,10 +10452,10 @@
         <f>IF(AND(ISNUMBER(B95),ISNUMBER(C95)),MAX(A1:A94)+1,"")</f>
         <v/>
       </c>
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="47"/>
       <c r="D95" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -10442,10 +10463,10 @@
         <f>IF(AND(ISNUMBER(B96),ISNUMBER(C96)),MAX(A1:A95)+1,"")</f>
         <v/>
       </c>
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -10453,10 +10474,10 @@
         <f>IF(AND(ISNUMBER(B97),ISNUMBER(C97)),MAX(A1:A96)+1,"")</f>
         <v/>
       </c>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
       <c r="D97" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -10464,10 +10485,10 @@
         <f>IF(AND(ISNUMBER(B98),ISNUMBER(C98)),MAX(A1:A97)+1,"")</f>
         <v/>
       </c>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -10475,10 +10496,10 @@
         <f>IF(AND(ISNUMBER(B99),ISNUMBER(C99)),MAX(A1:A98)+1,"")</f>
         <v/>
       </c>
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -10486,10 +10507,10 @@
         <f>IF(AND(ISNUMBER(B100),ISNUMBER(C100)),MAX(A1:A99)+1,"")</f>
         <v/>
       </c>
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
       <c r="D100" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -10497,10 +10518,10 @@
         <f>IF(AND(ISNUMBER(B101),ISNUMBER(C101)),MAX(A1:A100)+1,"")</f>
         <v/>
       </c>
-      <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -10508,10 +10529,10 @@
         <f>IF(AND(ISNUMBER(B102),ISNUMBER(C102)),MAX(A1:A101)+1,"")</f>
         <v/>
       </c>
-      <c r="B102" s="53"/>
-      <c r="C102" s="53"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
       <c r="D102" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -10528,7 +10549,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="63.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="3" customWidth="1"/>
@@ -10539,36 +10560,36 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="11" t="str">
         <f>IF(OR(ISBLANK(B2),AND(IF(ISNUMBER(B2),AND(B2&gt;0,INT(B2)=B2),FALSE))),"","n must be a positive integer")</f>
         <v/>
       </c>
       <c r="D2" s="36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="43"/>
+      <c r="A3" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="40"/>
       <c r="C3" s="11" t="str">
         <f>IF(AND(B3&lt;=1,B3&gt;=0),"","p must be between 0 and 1")</f>
         <v/>
@@ -10577,12 +10598,12 @@
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50),0," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E3" s="46" t="str">
+      <c r="E3" s="58" t="str">
         <f>IF(ISNUMBER(D3),COMBIN(B2,D3)*B3^D3*(1-B3)^(B2-D3),"")</f>
         <v/>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -10591,34 +10612,34 @@
         <f>IF(AND(ISNUMBER(D3),D3&lt;B2),D3+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E4" s="46" t="str">
+      <c r="E4" s="58" t="str">
         <f>IF(ISNUMBER(D4),COMBIN(B2,D4)*B3^D4*(1-B3)^(B2-D4),"")</f>
         <v/>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="1" t="str">
         <f>IF(AND(ISNUMBER(D4),D4&lt;B2),D4+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E5" s="46" t="str">
+      <c r="E5" s="58" t="str">
         <f>IF(ISNUMBER(D5),COMBIN(B2,D5)*B3^D5*(1-B3)^(B2-D5),"")</f>
         <v/>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="43"/>
+      <c r="A6" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="40"/>
       <c r="C6" s="11" t="str">
         <f>IF(ISBLANK(B6)," ",IF(AND(INT(B6)=B6,B6&gt;=0,B6&lt;=B2)," ","x must be an integer between 0 and n"))</f>
         <v xml:space="preserve"> </v>
@@ -10627,34 +10648,34 @@
         <f>IF(AND(ISNUMBER(D5),D5&lt;B2),D5+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E6" s="46" t="str">
+      <c r="E6" s="58" t="str">
         <f>IF(ISNUMBER(D6),COMBIN(B2,D6)*B3^D6*(1-B3)^(B2-D6),"")</f>
         <v/>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="41" t="str">
+      <c r="A7" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="57" t="str">
         <f>IF(ISNUMBER(B6),IF(AND(B2&gt;0,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1,B6&gt;=0,B6&lt;=B2,INT(B6)=B6),COMBIN(B2,B6)*B3^B6*(1-B3)^(B2-B6),"Input error"),"")</f>
         <v/>
       </c>
       <c r="C7" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>IF(AND(ISNUMBER(D6),D6&lt;B2),D6+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" s="46" t="str">
+      <c r="E7" s="58" t="str">
         <f>IF(ISNUMBER(D7),COMBIN(B2,D7)*B3^D7*(1-B3)^(B2-D7),"")</f>
         <v/>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" s="12"/>
@@ -10662,590 +10683,590 @@
         <f>IF(AND(ISNUMBER(D7),D7&lt;B2),D7+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="46" t="str">
+      <c r="E8" s="58" t="str">
         <f>IF(ISNUMBER(D8),COMBIN(B2,D8)*B3^D8*(1-B3)^(B2-D8),"")</f>
         <v/>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="1" t="str">
         <f>IF(AND(ISNUMBER(D8),D8&lt;B2),D8+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="46" t="str">
+      <c r="E9" s="58" t="str">
         <f>IF(ISNUMBER(D9),COMBIN(B2,D9)*B3^D9*(1-B3)^(B2-D9),"")</f>
         <v/>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="43"/>
+      <c r="A10" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="40"/>
       <c r="C10" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>IF(AND(ISNUMBER(D9),D9&lt;B2),D9+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="46" t="str">
+      <c r="E10" s="58" t="str">
         <f>IF(ISNUMBER(D10),COMBIN(B2,D10)*B3^D10*(1-B3)^(B2-D10),"")</f>
         <v/>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="43"/>
+      <c r="A11" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="40"/>
       <c r="C11" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>IF(AND(ISNUMBER(D10),D10&lt;B2),D10+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E11" s="46" t="str">
+      <c r="E11" s="58" t="str">
         <f>IF(ISNUMBER(D11),COMBIN(B2,D11)*B3^D11*(1-B3)^(B2-D11),"")</f>
         <v/>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="str">
+      <c r="A12" s="56" t="str">
         <f>CONCATENATE("P(", IF(ISBLANK(B10),"","lower ≤ "),"x",IF(ISBLANK(B11),""," ≤ upper"),") =")</f>
         <v>P(x) =</v>
       </c>
-      <c r="B12" s="41" t="str">
+      <c r="B12" s="57" t="str">
         <f>IF(OR(ISNUMBER(B10),ISNUMBER(B11)),IF(AND(B2&gt;0,B2&lt;=50,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1, OR(ISBLANK(B10),AND(B10&gt;=0,B10&lt;=B2,IF(ISNUMBER(B10),INT(B10)=B10,FALSE),OR(ISBLANK(B11),B10&lt;=B11))),OR(ISBLANK(B11),AND(B11&gt;=0,B11&lt;=B2,IF(ISNUMBER(B11),INT(B11)=B11,FALSE),OR(ISBLANK(B10),B10&lt;=B11)))),IF(ISBLANK(B10),SUMIF(D3:D53,"&lt;="&amp;B11,E3:E53),IF(ISBLANK(B11),SUMIF(D3:D53,"&gt;="&amp;B10,E3:E53),SUMIF(D3:D53,"&lt;="&amp;B11,E3:E53)-SUMIF(D3:D53,"&lt;"&amp;B10,E3:E53))),"Input error"),"")</f>
         <v/>
       </c>
       <c r="C12" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>IF(AND(ISNUMBER(D11),D11&lt;B2),D11+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" s="46" t="str">
+      <c r="E12" s="58" t="str">
         <f>IF(ISNUMBER(D12),COMBIN(B2,D12)*B3^D12*(1-B3)^(B2-D12),"")</f>
         <v/>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="str">
+      <c r="A13" s="50" t="str">
         <f>IF(AND(NOT(AND(ISBLANK(B10),ISBLANK(B11))),B2&gt;50),"Binomial Range tool in Respondus currently only works for n &lt;= 50"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="51"/>
       <c r="D13" s="1" t="str">
         <f>IF(AND(ISNUMBER(D12),D12&lt;B2),D12+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="46" t="str">
+      <c r="E13" s="58" t="str">
         <f>IF(ISNUMBER(D13),COMBIN(B2,D13)*B3^D13*(1-B3)^(B2-D13),"")</f>
         <v/>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="str">
         <f>IF(AND(ISNUMBER(D13),D13&lt;B2),D13+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="46" t="str">
+      <c r="E14" s="58" t="str">
         <f>IF(ISNUMBER(D14),COMBIN(B2,D14)*B3^D14*(1-B3)^(B2-D14),"")</f>
         <v/>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="str">
         <f>IF(AND(ISNUMBER(D14),D14&lt;B2),D14+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="46" t="str">
+      <c r="E15" s="58" t="str">
         <f>IF(ISNUMBER(D15),COMBIN(B2,D15)*B3^D15*(1-B3)^(B2-D15),"")</f>
         <v/>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="str">
         <f>IF(AND(ISNUMBER(D15),D15&lt;B2),D15+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="46" t="str">
+      <c r="E16" s="58" t="str">
         <f>IF(ISNUMBER(D16),COMBIN(B2,D16)*B3^D16*(1-B3)^(B2-D16),"")</f>
         <v/>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="str">
         <f>IF(AND(ISNUMBER(D16),D16&lt;B2),D16+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E17" s="46" t="str">
+      <c r="E17" s="58" t="str">
         <f>IF(ISNUMBER(D17),COMBIN(B2,D17)*B3^D17*(1-B3)^(B2-D17),"")</f>
         <v/>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="str">
         <f>IF(AND(ISNUMBER(D17),D17&lt;B2),D17+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E18" s="46" t="str">
+      <c r="E18" s="58" t="str">
         <f>IF(ISNUMBER(D18),COMBIN(B2,D18)*B3^D18*(1-B3)^(B2-D18),"")</f>
         <v/>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="str">
         <f>IF(AND(ISNUMBER(D18),D18&lt;B2),D18+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E19" s="46" t="str">
+      <c r="E19" s="58" t="str">
         <f>IF(ISNUMBER(D19),COMBIN(B2,D19)*B3^D19*(1-B3)^(B2-D19),"")</f>
         <v/>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="str">
         <f>IF(AND(ISNUMBER(D19),D19&lt;B2),D19+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E20" s="46" t="str">
+      <c r="E20" s="58" t="str">
         <f>IF(ISNUMBER(D20),COMBIN(B2,D20)*B3^D20*(1-B3)^(B2-D20),"")</f>
         <v/>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="str">
         <f>IF(AND(ISNUMBER(D20),D20&lt;B2),D20+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="46" t="str">
+      <c r="E21" s="58" t="str">
         <f>IF(ISNUMBER(D21),COMBIN(B2,D21)*B3^D21*(1-B3)^(B2-D21),"")</f>
         <v/>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="str">
         <f>IF(AND(ISNUMBER(D21),D21&lt;B2),D21+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="46" t="str">
+      <c r="E22" s="58" t="str">
         <f>IF(ISNUMBER(D22),COMBIN(B2,D22)*B3^D22*(1-B3)^(B2-D22),"")</f>
         <v/>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="str">
         <f>IF(AND(ISNUMBER(D22),D22&lt;B2),D22+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="46" t="str">
+      <c r="E23" s="58" t="str">
         <f>IF(ISNUMBER(D23),COMBIN(B2,D23)*B3^D23*(1-B3)^(B2-D23),"")</f>
         <v/>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="str">
         <f>IF(AND(ISNUMBER(D23),D23&lt;B2),D23+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E24" s="46" t="str">
+      <c r="E24" s="58" t="str">
         <f>IF(ISNUMBER(D24),COMBIN(B2,D24)*B3^D24*(1-B3)^(B2-D24),"")</f>
         <v/>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="str">
         <f>IF(AND(ISNUMBER(D24),D24&lt;B2),D24+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="46" t="str">
+      <c r="E25" s="58" t="str">
         <f>IF(ISNUMBER(D25),COMBIN(B2,D25)*B3^D25*(1-B3)^(B2-D25),"")</f>
         <v/>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="str">
         <f>IF(AND(ISNUMBER(D25),D25&lt;B2),D25+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="46" t="str">
+      <c r="E26" s="58" t="str">
         <f>IF(ISNUMBER(D26),COMBIN(B2,D26)*B3^D26*(1-B3)^(B2-D26),"")</f>
         <v/>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="str">
         <f>IF(AND(ISNUMBER(D26),D26&lt;B2),D26+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="46" t="str">
+      <c r="E27" s="58" t="str">
         <f>IF(ISNUMBER(D27),COMBIN(B2,D27)*B3^D27*(1-B3)^(B2-D27),"")</f>
         <v/>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="str">
         <f>IF(AND(ISNUMBER(D27),D27&lt;B2),D27+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="46" t="str">
+      <c r="E28" s="58" t="str">
         <f>IF(ISNUMBER(D28),COMBIN(B2,D28)*B3^D28*(1-B3)^(B2-D28),"")</f>
         <v/>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="str">
         <f>IF(AND(ISNUMBER(D28),D28&lt;B2),D28+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E29" s="46" t="str">
+      <c r="E29" s="58" t="str">
         <f>IF(ISNUMBER(D29),COMBIN(B2,D29)*B3^D29*(1-B3)^(B2-D29),"")</f>
         <v/>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="str">
         <f>IF(AND(ISNUMBER(D29),D29&lt;B2),D29+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E30" s="46" t="str">
+      <c r="E30" s="58" t="str">
         <f>IF(ISNUMBER(D30),COMBIN(B2,D30)*B3^D30*(1-B3)^(B2-D30),"")</f>
         <v/>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="str">
         <f>IF(AND(ISNUMBER(D30),D30&lt;B2),D30+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E31" s="46" t="str">
+      <c r="E31" s="58" t="str">
         <f>IF(ISNUMBER(D31),COMBIN(B2,D31)*B3^D31*(1-B3)^(B2-D31),"")</f>
         <v/>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="str">
         <f>IF(AND(ISNUMBER(D31),D31&lt;B2),D31+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E32" s="46" t="str">
+      <c r="E32" s="58" t="str">
         <f>IF(ISNUMBER(D32),COMBIN(B2,D32)*B3^D32*(1-B3)^(B2-D32),"")</f>
         <v/>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="str">
         <f>IF(AND(ISNUMBER(D32),D32&lt;B2),D32+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E33" s="46" t="str">
+      <c r="E33" s="58" t="str">
         <f>IF(ISNUMBER(D33),COMBIN(B2,D33)*B3^D33*(1-B3)^(B2-D33),"")</f>
         <v/>
       </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="str">
         <f>IF(AND(ISNUMBER(D33),D33&lt;B2),D33+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E34" s="46" t="str">
+      <c r="E34" s="58" t="str">
         <f>IF(ISNUMBER(D34),COMBIN(B2,D34)*B3^D34*(1-B3)^(B2-D34),"")</f>
         <v/>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="str">
         <f>IF(AND(ISNUMBER(D34),D34&lt;B2),D34+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E35" s="46" t="str">
+      <c r="E35" s="58" t="str">
         <f>IF(ISNUMBER(D35),COMBIN(B2,D35)*B3^D35*(1-B3)^(B2-D35),"")</f>
         <v/>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="str">
         <f>IF(AND(ISNUMBER(D35),D35&lt;B2),D35+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E36" s="46" t="str">
+      <c r="E36" s="58" t="str">
         <f>IF(ISNUMBER(D36),COMBIN(B2,D36)*B3^D36*(1-B3)^(B2-D36),"")</f>
         <v/>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="str">
         <f>IF(AND(ISNUMBER(D36),D36&lt;B2),D36+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E37" s="46" t="str">
+      <c r="E37" s="58" t="str">
         <f>IF(ISNUMBER(D37),COMBIN(B2,D37)*B3^D37*(1-B3)^(B2-D37),"")</f>
         <v/>
       </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="str">
         <f>IF(AND(ISNUMBER(D37),D37&lt;B2),D37+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E38" s="46" t="str">
+      <c r="E38" s="58" t="str">
         <f>IF(ISNUMBER(D38),COMBIN(B2,D38)*B3^D38*(1-B3)^(B2-D38),"")</f>
         <v/>
       </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="str">
         <f>IF(AND(ISNUMBER(D38),D38&lt;B2),D38+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E39" s="46" t="str">
+      <c r="E39" s="58" t="str">
         <f>IF(ISNUMBER(D39),COMBIN(B2,D39)*B3^D39*(1-B3)^(B2-D39),"")</f>
         <v/>
       </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="str">
         <f>IF(AND(ISNUMBER(D39),D39&lt;B2),D39+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E40" s="46" t="str">
+      <c r="E40" s="58" t="str">
         <f>IF(ISNUMBER(D40),COMBIN(B2,D40)*B3^D40*(1-B3)^(B2-D40),"")</f>
         <v/>
       </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="str">
         <f>IF(AND(ISNUMBER(D40),D40&lt;B2),D40+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E41" s="46" t="str">
+      <c r="E41" s="58" t="str">
         <f>IF(ISNUMBER(D41),COMBIN(B2,D41)*B3^D41*(1-B3)^(B2-D41),"")</f>
         <v/>
       </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="str">
         <f>IF(AND(ISNUMBER(D41),D41&lt;B2),D41+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E42" s="46" t="str">
+      <c r="E42" s="58" t="str">
         <f>IF(ISNUMBER(D42),COMBIN(B2,D42)*B3^D42*(1-B3)^(B2-D42),"")</f>
         <v/>
       </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="str">
         <f>IF(AND(ISNUMBER(D42),D42&lt;B2),D42+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E43" s="46" t="str">
+      <c r="E43" s="58" t="str">
         <f>IF(ISNUMBER(D43),COMBIN(B2,D43)*B3^D43*(1-B3)^(B2-D43),"")</f>
         <v/>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="str">
         <f>IF(AND(ISNUMBER(D43),D43&lt;B2),D43+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E44" s="46" t="str">
+      <c r="E44" s="58" t="str">
         <f>IF(ISNUMBER(D44),COMBIN(B2,D44)*B3^D44*(1-B3)^(B2-D44),"")</f>
         <v/>
       </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="str">
         <f>IF(AND(ISNUMBER(D44),D44&lt;B2),D44+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E45" s="46" t="str">
+      <c r="E45" s="58" t="str">
         <f>IF(ISNUMBER(D45),COMBIN(B2,D45)*B3^D45*(1-B3)^(B2-D45),"")</f>
         <v/>
       </c>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="str">
         <f>IF(AND(ISNUMBER(D45),D45&lt;B2),D45+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E46" s="46" t="str">
+      <c r="E46" s="58" t="str">
         <f>IF(ISNUMBER(D46),COMBIN(B2,D46)*B3^D46*(1-B3)^(B2-D46),"")</f>
         <v/>
       </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="str">
         <f>IF(AND(ISNUMBER(D46),D46&lt;B2),D46+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E47" s="46" t="str">
+      <c r="E47" s="58" t="str">
         <f>IF(ISNUMBER(D47),COMBIN(B2,D47)*B3^D47*(1-B3)^(B2-D47),"")</f>
         <v/>
       </c>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="str">
         <f>IF(AND(ISNUMBER(D47),D47&lt;B2),D47+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E48" s="46" t="str">
+      <c r="E48" s="58" t="str">
         <f>IF(ISNUMBER(D48),COMBIN(B2,D48)*B3^D48*(1-B3)^(B2-D48),"")</f>
         <v/>
       </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="str">
         <f>IF(AND(ISNUMBER(D48),D48&lt;B2),D48+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E49" s="46" t="str">
+      <c r="E49" s="58" t="str">
         <f>IF(ISNUMBER(D49),COMBIN(B2,D49)*B3^D49*(1-B3)^(B2-D49),"")</f>
         <v/>
       </c>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="str">
         <f>IF(AND(ISNUMBER(D49),D49&lt;B2),D49+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E50" s="46" t="str">
+      <c r="E50" s="58" t="str">
         <f>IF(ISNUMBER(D50),COMBIN(B2,D50)*B3^D50*(1-B3)^(B2-D50),"")</f>
         <v/>
       </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="str">
         <f>IF(AND(ISNUMBER(D50),D50&lt;B2),D50+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E51" s="46" t="str">
+      <c r="E51" s="58" t="str">
         <f>IF(ISNUMBER(D51),COMBIN(B2,D51)*B3^D51*(1-B3)^(B2-D51),"")</f>
         <v/>
       </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="str">
         <f>IF(AND(ISNUMBER(D51),D51&lt;B2),D51+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E52" s="46" t="str">
+      <c r="E52" s="58" t="str">
         <f>IF(ISNUMBER(D52),COMBIN(B2,D52)*B3^D52*(1-B3)^(B2-D52),"")</f>
         <v/>
       </c>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="str">
         <f>IF(AND(ISNUMBER(D52),D52&lt;B2),D52+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E53" s="46" t="str">
+      <c r="E53" s="58" t="str">
         <f>IF(ISNUMBER(D53),COMBIN(B2,D53)*B3^D53*(1-B3)^(B2-D53),"")</f>
         <v/>
       </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -11262,7 +11283,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.42578125" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="3"/>
@@ -11270,28 +11291,28 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="43">
+      <c r="A2" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="43">
+      <c r="A3" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="40">
         <v>1</v>
       </c>
     </row>
@@ -11300,72 +11321,72 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="43"/>
+      <c r="A6" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
       <c r="C6" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="43"/>
+      <c r="A7" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="40"/>
       <c r="C7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="str">
+      <c r="A8" s="53" t="str">
         <f>CONCATENATE("P(", IF(ISBLANK(B6),"","lower ≤ "),IF(AND(B2=0,B3=1),"z","x"),IF(ISBLANK(B7),""," ≤ upper"),") =")</f>
         <v>P(z) =</v>
       </c>
-      <c r="B8" s="41" t="str">
+      <c r="B8" s="60" t="str">
         <f>IF(AND(ISBLANK(B6),ISBLANK(B7)),"",IF(OR(NOT(OR(ISBLANK(B6),ISNUMBER(B6))),NOT(OR(ISBLANK(B7),ISNUMBER(B7)))),"Input Error",IF(IF(OR(ISBLANK(B6),ISBLANK(B7)),FALSE,B6&gt;B7),"Input Error",IF(AND(ISNUMBER(B2),ISNUMBER(B3)),_xlfn.NORM.DIST(IF(ISBLANK(B7),1E+100,B7),B2,B3,TRUE)-_xlfn.NORM.DIST(IF(ISBLANK(B6),-1E+100,B6),B2,B3,TRUE),"Input µ,σ"))))</f>
         <v/>
       </c>
       <c r="C8" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="43"/>
+      <c r="A11" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="59"/>
       <c r="C11" s="16" t="str">
         <f>IF(AND(B11&lt;1,B11&gt;=0),"","area must be between 0 and 1")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="str">
+      <c r="A12" s="53" t="str">
         <f>IF(AND(B2=0,B3=1),"z =","x =")</f>
         <v>z =</v>
       </c>
-      <c r="B12" s="41" t="str">
+      <c r="B12" s="61" t="str">
         <f>IF(ISBLANK(B11),"",IF(NOT(ISNUMBER(B11)),"Input Error",IF(OR(B11&lt;=0,B11&gt;=1),"Input Error",IF(AND(ISNUMBER(B2),ISNUMBER(B3)),_xlfn.NORM.INV(B11,B2,B3),"Input µ,σ"))))</f>
         <v/>
       </c>
       <c r="C12" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -11381,7 +11402,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.42578125" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="3"/>
@@ -11389,20 +11410,20 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="43"/>
+      <c r="A2" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="40"/>
       <c r="C2" s="16" t="str">
         <f>IF(OR(ISBLANK(B2),IF(ISNUMBER(B2),AND(B2&gt;0),FALSE)),"","df must be a positive number")</f>
         <v/>
@@ -11413,71 +11434,71 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="43"/>
+      <c r="A5" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="43"/>
+      <c r="A6" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="40"/>
       <c r="C6" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="str">
+      <c r="A7" s="53" t="str">
         <f>CONCATENATE("P(", IF(ISBLANK(B5),"","lower ≤ "),"t",IF(ISBLANK(B6),""," ≤ upper"),") =")</f>
         <v>P(t) =</v>
       </c>
-      <c r="B7" s="41" t="str">
+      <c r="B7" s="57" t="str">
         <f>IF(AND(ISBLANK(B5),ISBLANK(B6)),"",IF(OR(NOT(OR(ISBLANK(B5),ISNUMBER(B5))),NOT(OR(ISBLANK(B6),ISNUMBER(B6)))),"Input Error",IF(IF(OR(ISBLANK(B5),ISBLANK(B6)),FALSE,B5&gt;B6),"Input Error",IF(B2&gt;0,IF(ISBLANK(B5),IF(B6&lt;0,TDIST(ABS(B6),B2,1),1-TDIST(ABS(B6),B2,1)),IF(ISBLANK(B6),IF(B5&lt;0,1-TDIST(ABS(B5),B2,1),TDIST(ABS(B5),B2,1)),IF(B5*B6&gt;=0,ABS(TDIST(ABS(B6),B2,1)-TDIST(ABS(B5),B2,1)),1-TDIST(ABS(B6),B2,1)-TDIST(ABS(B5),B2,1)))),"Input df"))))</f>
         <v/>
       </c>
       <c r="C7" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="43"/>
+      <c r="A10" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="40"/>
       <c r="C10" s="16" t="str">
         <f>IF(AND(B10&lt;1,B10&gt;=0),"","area must be between 0 and 1")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="41" t="str">
+      <c r="A11" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="38" t="str">
         <f>IF(ISBLANK(B10),"",IF(NOT(ISNUMBER(B10)),"Input Error",IF(OR(B10&lt;=0,B10&gt;=1),"Input Error",IF(B2&gt;0,_xlfn.T.INV(B10,B2),"Input df"))))</f>
         <v/>
       </c>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -11499,23 +11520,23 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="16" t="str">
         <f>IF(OR(ISBLANK(B2),ISNUMBER(B2)),"","xbar must be a number")</f>
         <v/>
@@ -11523,7 +11544,7 @@
       <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="44"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="16" t="str">
         <f>IF(OR(ISBLANK(G2),IF(ISNUMBER(G2),AND(G2&gt;0,INT(G2)=G2),FALSE)),"","n must be a positive integer")</f>
         <v/>
@@ -11531,17 +11552,17 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="44"/>
+        <v>46</v>
+      </c>
+      <c r="B3" s="41"/>
       <c r="C3" s="16" t="str">
         <f>IF(OR(ISBLANK(B3),IF(ISNUMBER(B3),B3&gt;0,FALSE)),"","σ must be a positive number")</f>
         <v/>
       </c>
       <c r="F3" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="44"/>
+        <v>53</v>
+      </c>
+      <c r="G3" s="41"/>
       <c r="H3" s="16" t="str">
         <f>IF(OR(ISBLANK(G3),IF(ISNUMBER(G3),AND(G3&gt;0,INT(G3)=G3),FALSE)),IF(OR(ISBLANK(G2),NOT(ISNUMBER(G2))),"",IF(G3&lt;G2,"","x must be less than n")),"x must be a positive integer")</f>
         <v/>
@@ -11551,28 +11572,28 @@
       <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="16" t="str">
         <f>IF(OR(ISBLANK(B4),IF(ISNUMBER(B4),AND(B4&gt;0,INT(B4)=B4),FALSE)),"","n must be a positive integer")</f>
         <v/>
       </c>
       <c r="F4" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="44"/>
+        <v>82</v>
+      </c>
+      <c r="G4" s="41"/>
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="44"/>
+        <v>82</v>
+      </c>
+      <c r="B5" s="41"/>
       <c r="C5" s="16" t="str">
         <f>IF(OR(ISBLANK(B5),IF(ISNUMBER(B5),OR(AND(B5&gt;=0.5,B5&lt;1),AND(B5&gt;=50,B5&lt;100)),FALSE)),"","C-Level must be between 50 and 99.99 or between .5 and .9999")</f>
         <v/>
       </c>
       <c r="F5" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G5" s="25" t="str">
         <f>IF(AND(ISNUMBER(G2),ISNUMBER(G3)),IF(AND(INT(G2)=G2,INT(G3)=G3,G2&gt;0,G3&gt;0,G3&lt;G2),G3/G2,""),"")</f>
@@ -11585,7 +11606,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="33" t="str">
@@ -11597,7 +11618,7 @@
         <v/>
       </c>
       <c r="F6" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="33" t="str">
@@ -11611,14 +11632,14 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="B9" s="41"/>
       <c r="C9" s="16" t="str">
         <f>IF(OR(ISBLANK(B9),ISNUMBER(B9)),"","xbar must be a number")</f>
         <v/>
@@ -11628,7 +11649,7 @@
       <c r="A10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="16" t="str">
         <f>IF(OR(ISBLANK(B10),IF(ISNUMBER(B10),B10&gt;0,FALSE)),"","s must be a positive number")</f>
         <v/>
@@ -11638,7 +11659,7 @@
       <c r="A11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="16" t="str">
         <f>IF(OR(ISBLANK(B11),IF(ISNUMBER(B11),AND(B11&gt;0,INT(B11)=B11),FALSE)),"","n must be a positive integer")</f>
         <v/>
@@ -11646,9 +11667,9 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="44"/>
+        <v>82</v>
+      </c>
+      <c r="B12" s="41"/>
       <c r="C12" s="16" t="str">
         <f>IF(OR(ISBLANK(B12),IF(ISNUMBER(B12),OR(AND(B12&gt;=0.5,B12&lt;1),AND(B12&gt;=50,B12&lt;100)),FALSE)),"","C-Level must be between 50 and 99.99 or between .5 and .9999")</f>
         <v/>
@@ -11656,7 +11677,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="33" t="str">
@@ -11670,7 +11691,7 @@
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -11689,47 +11710,47 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="2.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="3" customWidth="1"/>
     <col min="4" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="3" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="3" customWidth="1"/>
     <col min="10" max="10" width="14" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="16" t="str">
         <f>IF(OR(ISBLANK(C2),ISNUMBER(C2))," ","µ must be a number")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="44"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="16" t="str">
         <f>IF(OR(ISBLANK(J2),IF(ISNUMBER(J2),AND(J2&gt;0,J2&lt;1),FALSE))," ","p must be a number between 0 and 1")</f>
         <v xml:space="preserve"> </v>
@@ -11738,30 +11759,30 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>102</v>
+        <v>89</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="C3" s="25" t="str">
         <f>IF(ISNUMBER(C2),C2,"")</f>
         <v/>
       </c>
       <c r="D3" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>90</v>
       </c>
       <c r="J3" s="32" t="str">
         <f>IF(ISNUMBER(J2),J2,"")</f>
         <v/>
       </c>
       <c r="K3" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M3" s="4"/>
     </row>
@@ -11770,18 +11791,18 @@
       <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="16" t="str">
         <f>IF(OR(ISBLANK(C4),ISNUMBER(C4))," ","xbar must be a number")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="44"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="16" t="str">
         <f>IF(OR(ISBLANK(J4),IF(ISNUMBER(J4),AND(J4&gt;0,INT(J4)=J4),FALSE))," ","n must be a positive integer")</f>
         <v xml:space="preserve"> </v>
@@ -11790,23 +11811,23 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="16" t="str">
         <f>IF(OR(ISBLANK(C5),IF(ISNUMBER(C5),C5&gt;0,FALSE))," ","σ must be a positive number")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="44"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="16" t="str">
         <f>IF(OR(ISBLANK(J5),IF(ISNUMBER(J5),AND(J5&gt;0,INT(J5)=J5),FALSE)),IF(OR(ISBLANK(J4),NOT(ISNUMBER(J4)))," ",IF(J5&lt;J4,"","x must be less than n")),"x must be a positive integer")</f>
         <v xml:space="preserve"> </v>
@@ -11814,12 +11835,12 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="16" t="str">
         <f>IF(OR(ISBLANK(C6),IF(ISNUMBER(C6),AND(C6&gt;0,INT(C6)=C6),FALSE))," ","n must be a positive integer")</f>
         <v xml:space="preserve"> </v>
@@ -11833,7 +11854,7 @@
         <v/>
       </c>
       <c r="K6" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -11845,7 +11866,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>7</v>
@@ -11855,10 +11876,10 @@
         <v/>
       </c>
       <c r="D8" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I8" s="29" t="s">
         <v>7</v>
@@ -11868,12 +11889,12 @@
         <v/>
       </c>
       <c r="K8" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>7</v>
@@ -11883,10 +11904,10 @@
         <v/>
       </c>
       <c r="D9" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I9" s="29" t="s">
         <v>7</v>
@@ -11896,22 +11917,22 @@
         <v/>
       </c>
       <c r="K9" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="16" t="str">
         <f>IF(OR(ISBLANK(C12),ISNUMBER(C12))," ","µ must be a number")</f>
         <v xml:space="preserve"> </v>
@@ -11919,17 +11940,17 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>90</v>
       </c>
       <c r="C13" s="25" t="str">
         <f>IF(ISNUMBER(C12),C12,"")</f>
         <v/>
       </c>
       <c r="D13" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -11937,7 +11958,7 @@
       <c r="B14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="16" t="str">
         <f>IF(OR(ISBLANK(C14),ISNUMBER(C14))," ","xbar must be a number")</f>
         <v xml:space="preserve"> </v>
@@ -11945,12 +11966,12 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="16" t="str">
         <f>IF(OR(ISBLANK(C15),IF(ISNUMBER(C15),C15&gt;0,FALSE))," ","s must be a positive number")</f>
         <v xml:space="preserve"> </v>
@@ -11958,12 +11979,12 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="16" t="str">
         <f>IF(OR(ISBLANK(C16),IF(ISNUMBER(C16),AND(C16&gt;0,INT(C16)=C16),FALSE))," ","n must be a positive integer")</f>
         <v xml:space="preserve"> </v>
@@ -11976,7 +11997,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>7</v>
@@ -11986,12 +12007,12 @@
         <v/>
       </c>
       <c r="D18" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>7</v>
@@ -12001,30 +12022,30 @@
         <v/>
       </c>
       <c r="D19" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -12048,69 +12069,69 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="2.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
     <col min="4" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="3" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="16" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="16"/>
       <c r="H2" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K2" s="16"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>90</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>100</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M3" s="4"/>
     </row>
@@ -12119,18 +12140,18 @@
       <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="16" t="str">
         <f>IF(OR(ISBLANK(C4),ISNUMBER(C4))," ","xbar must be a number")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="44"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="16" t="str">
         <f>IF(OR(ISBLANK(J4),IF(ISNUMBER(J4),AND(J4&gt;0,INT(J4)=J4),FALSE))," ","n must be a positive integer")</f>
         <v xml:space="preserve"> </v>
@@ -12139,23 +12160,23 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="16" t="str">
         <f>IF(OR(ISBLANK(C5),IF(ISNUMBER(C5),C5&gt;0,FALSE))," ","s must be a positive number")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="44"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="16" t="str">
         <f>IF(OR(ISBLANK(J5),IF(ISNUMBER(J5),AND(J5&gt;0,INT(J5)=J5),FALSE)),IF(OR(ISBLANK(J4),NOT(ISNUMBER(J4)))," ",IF(J5&lt;J4," ","x must be less than n")),"x must be a positive integer")</f>
         <v xml:space="preserve"> </v>
@@ -12163,12 +12184,12 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="16" t="str">
         <f>IF(OR(ISBLANK(C6),IF(ISNUMBER(C6),AND(C6&gt;0,INT(C6)=C6),FALSE))," ","n must be a positive integer")</f>
         <v xml:space="preserve"> </v>
@@ -12182,7 +12203,7 @@
         <v/>
       </c>
       <c r="K6" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -12190,18 +12211,18 @@
       <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="16" t="str">
         <f>IF(OR(ISBLANK(C7),ISNUMBER(C7))," ","xbar must be a number")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="44"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="16" t="str">
         <f>IF(OR(ISBLANK(J7),IF(ISNUMBER(J7),AND(J7&gt;0,INT(J7)=J7),FALSE))," ","n must be a positive integer")</f>
         <v xml:space="preserve"> </v>
@@ -12209,23 +12230,23 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="16" t="str">
         <f>IF(OR(ISBLANK(C8),IF(ISNUMBER(C8),C8&gt;0,FALSE))," ","s must be a positive number")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="44"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="16" t="str">
         <f>IF(OR(ISBLANK(J8),IF(ISNUMBER(J8),AND(J8&gt;0,INT(J8)=J8),FALSE)),IF(OR(ISBLANK(J7),NOT(ISNUMBER(J7)))," ",IF(J8&lt;J7," ","x must be less than n")),"x must be a positive integer")</f>
         <v xml:space="preserve"> </v>
@@ -12233,12 +12254,12 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="16" t="str">
         <f>IF(OR(ISBLANK(C9),IF(ISNUMBER(C9),AND(C9&gt;0,INT(C9)=C9),FALSE))," ","n must be a positive integer")</f>
         <v xml:space="preserve"> </v>
@@ -12252,7 +12273,7 @@
         <v/>
       </c>
       <c r="K9" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -12264,7 +12285,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>7</v>
@@ -12274,10 +12295,10 @@
         <v/>
       </c>
       <c r="D11" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>7</v>
@@ -12287,12 +12308,12 @@
         <v/>
       </c>
       <c r="K11" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>7</v>
@@ -12302,10 +12323,10 @@
         <v/>
       </c>
       <c r="D12" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>7</v>
@@ -12315,12 +12336,12 @@
         <v/>
       </c>
       <c r="K12" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>7</v>
@@ -12330,27 +12351,27 @@
         <v/>
       </c>
       <c r="D13" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/newman/excel/StatisticsToolsRespondus.xlsx
+++ b/newman/excel/StatisticsToolsRespondus.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Newman\Dropbox\github\SanJacMath.github.io\SanJacMath.github.io\newman\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483D515A-22CB-4D3D-9A77-86E940B75F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5BB658-6006-4250-8369-AAFBD4208ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="tUKASPPaeggjveXVhoXjI84zB7d9adI+z2YD9isDLGv5/GdnWmV7pPuyP0Xjzdyb8cPnzaY5pPocFoudybRfPw==" workbookSaltValue="V6T/GNF5TcReyz0qSaV16g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1695" windowWidth="21600" windowHeight="13380" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleStats" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="177">
   <si>
     <t>Type sample data in the column below, and the statistics will calculate on the right</t>
   </si>
@@ -757,9 +758,6 @@
     <t>Scatterplot tool not available in Respondus</t>
   </si>
   <si>
-    <t>Usage warnings here</t>
-  </si>
-  <si>
     <t>max =</t>
   </si>
   <si>
@@ -773,11 +771,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.######"/>
-    <numFmt numFmtId="169" formatCode="0.#####"/>
+    <numFmt numFmtId="166" formatCode="0.######"/>
+    <numFmt numFmtId="167" formatCode="0.#####"/>
+    <numFmt numFmtId="168" formatCode="0.########"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -946,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1061,9 +1060,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1089,21 +1085,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1111,6 +1103,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2056,178 +2061,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>505558</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>395654</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B18E0EAC-5F58-40B9-8AFE-DE97679CA267}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2029558" y="3260481"/>
-          <a:ext cx="5707673" cy="1897673"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Note that copy/paste is not available within</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> this web-based version of Excel</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, so you'll need to carefully type any data</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> values to input them</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.  For this reason, I will try to keep a manageable size for any data sets during tests.  </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:br>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>This version of Excel may not allow you to delete multiple entries, so to clear out your input, you can backspace over individual values, or just reload the tab at the top of your web browser to have a fresh copy with all of the input cleared out, as needed.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3656,7 +3489,7 @@
         <v/>
       </c>
       <c r="B4" s="39"/>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="45">
@@ -3676,7 +3509,7 @@
         <v/>
       </c>
       <c r="B5" s="39"/>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="45" t="str">
@@ -3696,7 +3529,7 @@
         <v/>
       </c>
       <c r="B6" s="39"/>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="45" t="str">
@@ -3716,7 +3549,7 @@
         <v/>
       </c>
       <c r="B7" s="39"/>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="45" t="str">
@@ -3736,7 +3569,7 @@
         <v/>
       </c>
       <c r="B8" s="39"/>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="45" t="str">
@@ -3756,8 +3589,8 @@
         <v/>
       </c>
       <c r="B9" s="39"/>
-      <c r="D9" s="54" t="s">
-        <v>177</v>
+      <c r="D9" s="53" t="s">
+        <v>176</v>
       </c>
       <c r="E9" s="45" t="str">
         <f>IF(E4=0,"",SUM(B3:B202))</f>
@@ -3776,8 +3609,8 @@
         <v/>
       </c>
       <c r="B10" s="39"/>
-      <c r="D10" s="54" t="s">
-        <v>176</v>
+      <c r="D10" s="53" t="s">
+        <v>175</v>
       </c>
       <c r="E10" s="45" t="str">
         <f>IF(E4=0,"",SUMPRODUCT(B3:B202,B3:B202))</f>
@@ -3796,7 +3629,7 @@
         <v/>
       </c>
       <c r="B11" s="39"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="54"/>
       <c r="F11" s="15" t="s">
         <v>172</v>
       </c>
@@ -3807,7 +3640,7 @@
         <v/>
       </c>
       <c r="B12" s="39"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="45" t="str">
@@ -3827,7 +3660,7 @@
         <v/>
       </c>
       <c r="B13" s="39"/>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="45" t="str">
@@ -3848,7 +3681,7 @@
         <v/>
       </c>
       <c r="B14" s="39"/>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="45" t="str">
@@ -3868,7 +3701,7 @@
         <v/>
       </c>
       <c r="B15" s="39"/>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="45" t="str">
@@ -3889,8 +3722,8 @@
         <v/>
       </c>
       <c r="B16" s="39"/>
-      <c r="D16" s="53" t="s">
-        <v>175</v>
+      <c r="D16" s="52" t="s">
+        <v>174</v>
       </c>
       <c r="E16" s="45" t="str">
         <f>IF(E4=0,"",MAX(B3:B202))</f>
@@ -3930,9 +3763,7 @@
         <v/>
       </c>
       <c r="B20" s="39"/>
-      <c r="D20" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
@@ -5209,7 +5040,7 @@
       <c r="B202" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xsVfw6vqCWzhO2dpIBrwocgmhOLJv+9ZZC6xv8YnFciS1DU4SE/itP9WfGXCnvAzYs6qH0p4XznTXk9s2vW7Pw==" saltValue="X4a7bArU4BicKUFYxf7EWQ==" spinCount="100000" sheet="1" sort="0"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B6">
     <sortCondition ref="B3:B6"/>
   </sortState>
@@ -5280,27 +5111,27 @@
       <c r="G3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="63" t="str">
+      <c r="H3" s="60" t="str">
         <f>IF(OR(H4&lt;&gt;"",COUNT(A3:A102)=0),"",AVERAGE(A3:A102))</f>
         <v/>
       </c>
-      <c r="I3" s="63" t="str">
+      <c r="I3" s="60" t="str">
         <f>IF(OR(H4&lt;&gt;"",COUNT(B3:B102)=0),"",AVERAGE(B3:B102))</f>
         <v/>
       </c>
-      <c r="J3" s="63" t="str">
+      <c r="J3" s="60" t="str">
         <f>IF(OR(H4&lt;&gt;"",COUNT(C3:C102)=0),"",AVERAGE(C3:C102))</f>
         <v/>
       </c>
-      <c r="K3" s="63" t="str">
+      <c r="K3" s="60" t="str">
         <f>IF(OR(H4&lt;&gt;"",COUNT(D3:D102)=0),"",AVERAGE(D3:D102))</f>
         <v/>
       </c>
-      <c r="L3" s="63" t="str">
+      <c r="L3" s="60" t="str">
         <f>IF(OR(H4&lt;&gt;"",COUNT(E3:E102)=0),"",AVERAGE(E3:E102))</f>
         <v/>
       </c>
-      <c r="M3" s="63" t="str">
+      <c r="M3" s="60" t="str">
         <f>IF(OR(H4&lt;&gt;"",COUNT(F3:F102)=0),"",AVERAGE(F3:F102))</f>
         <v/>
       </c>
@@ -5359,31 +5190,31 @@
       <c r="G6" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="46" t="str">
+      <c r="H6" s="66" t="str">
         <f>IF(H4&lt;&gt;"","",COUNT(H3:M3)-1)</f>
         <v/>
       </c>
-      <c r="I6" s="62" t="str">
+      <c r="I6" s="59" t="str">
         <f>IF(H4&lt;&gt;"","",IF(COUNT(A3:A102)=0,0,COUNT(A3:A102)*(AVERAGE(A3:A102)-AVERAGE(A3:F102))^2)+IF(COUNT(B3:B102)=0,0,COUNT(B3:B102)*(AVERAGE(B3:B102)-AVERAGE(A3:F102))^2)+IF(COUNT(C3:C102)=0,0,COUNT(C3:C102)*(AVERAGE(C3:C102)-AVERAGE(A3:F102))^2)+IF(COUNT(D3:D102)=0,0,COUNT(D3:D102)*(AVERAGE(D3:D102)-AVERAGE(A3:F102))^2)+IF(COUNT(E3:E102)=0,0,COUNT(E3:E102)*(AVERAGE(E3:E102)-AVERAGE(A3:F102))^2)+IF(COUNT(F3:F102)=0,0,COUNT(F3:F102)*(AVERAGE(F3:F102)-AVERAGE(A3:F102))^2))</f>
         <v/>
       </c>
-      <c r="J6" s="62" t="str">
+      <c r="J6" s="59" t="str">
         <f>IF(H4&lt;&gt;"","",I6/H6)</f>
         <v/>
       </c>
-      <c r="K6" s="62" t="str">
+      <c r="K6" s="59" t="str">
         <f>IF(H4&lt;&gt;"","",J6/J7)</f>
         <v/>
       </c>
-      <c r="L6" s="62" t="str">
+      <c r="L6" s="59" t="str">
         <f>IF(H4&lt;&gt;"","",FDIST(K6,H6,H7))</f>
         <v/>
       </c>
       <c r="M6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="62" t="str">
+      <c r="N6" s="46"/>
+      <c r="O6" s="59" t="str">
         <f>IF(H4&lt;&gt;"","",IF(ISBLANK(N6),"",IF(OR(NOT(ISNUMBER(N6)),N6&gt;=1,N6&lt;=0),"",FINV(N6,H6,H7))))</f>
         <v/>
       </c>
@@ -5401,15 +5232,15 @@
       <c r="G7" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="46" t="str">
+      <c r="H7" s="66" t="str">
         <f>IF(H4&lt;&gt;"","",COUNT(A3:F102)-COUNT(H3:M3))</f>
         <v/>
       </c>
-      <c r="I7" s="62" t="str">
+      <c r="I7" s="59" t="str">
         <f>IF(H4&lt;&gt;"","",IF(COUNT(A3:A102)=0,0,(COUNT(A3:A102)-1)*(_xlfn.STDEV.S(A3:A102))^2)+IF(COUNT(B3:B102)=0,0,(COUNT(B3:B102)-1)*(_xlfn.STDEV.S(B3:B102))^2)+IF(COUNT(C3:C102)=0,0,(COUNT(C3:C102)-1)*(_xlfn.STDEV.S(C3:C102))^2)+IF(COUNT(D3:D102)=0,0,(COUNT(D3:D102)-1)*(_xlfn.STDEV.S(D3:D102))^2)+IF(COUNT(E3:E102)=0,0,(COUNT(E3:E102)-1)*(_xlfn.STDEV.S(E3:E102))^2)+IF(COUNT(F3:F102)=0,0,(COUNT(F3:F102)-1)*(_xlfn.STDEV.S(F3:F102))^2))</f>
         <v/>
       </c>
-      <c r="J7" s="62" t="str">
+      <c r="J7" s="59" t="str">
         <f>IF(H4&lt;&gt;"","",I7/H7)</f>
         <v/>
       </c>
@@ -5432,11 +5263,11 @@
       <c r="G8" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="46" t="str">
+      <c r="H8" s="66" t="str">
         <f>IF(H4&lt;&gt;"","",H6+H7)</f>
         <v/>
       </c>
-      <c r="I8" s="62" t="str">
+      <c r="I8" s="59" t="str">
         <f>IF(H4&lt;&gt;"","",I6+I7)</f>
         <v/>
       </c>
@@ -6287,6 +6118,7 @@
       <c r="F102" s="39"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="l/bke3v5WNoexdLQAjaRzNHYFjkJRnJRC+DQa9RMSxgntYKT6FTL+TNCbWCf5yuFPvZLzKqatdPHTCL55mv7xA==" saltValue="Caf/2wjvW7xyH6SEwlLKgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6386,10 +6218,10 @@
         <f t="shared" ref="F4:F67" si="2">IF(ISNUMBER(A4),E4/C4,"")</f>
         <v/>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="65" t="str">
+      <c r="I4" s="62" t="str">
         <f>IF(MAX(A3:A102)=0,"",IF(AND(MAX(A3:A102)=COUNT(B3:B102),MAX(A3:A102)=COUNT(C3:C102)),SUM(F3:F102),"Input Error"))</f>
         <v/>
       </c>
@@ -6420,7 +6252,7 @@
         <v/>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="53" t="s">
         <v>166</v>
       </c>
       <c r="I5" s="37" t="str">
@@ -6451,10 +6283,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="57" t="str">
+      <c r="I6" s="56" t="str">
         <f>IF(OR(I4="",I4="Input Error"),"",CHIDIST(I4,I5))</f>
         <v/>
       </c>
@@ -6506,15 +6338,13 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="I8" s="41">
-        <v>0.05</v>
-      </c>
+      <c r="I8" s="41"/>
       <c r="J8" s="16" t="str">
         <f>IF(ISBLANK(I8),"",IF(OR(NOT(ISNUMBER(I8)),I8&gt;=1,I8&lt;=0),"α must be between 0 and 1"," "))</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -6536,7 +6366,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="51" t="s">
         <v>170</v>
       </c>
       <c r="I9" s="44" t="str">
@@ -8397,6 +8227,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="2UfNcgQANMSLzrj3sIQ+RQloSqKpD/uPzlS/kFWvnkM4/i5LlOzHUz9jHuFdYsssfSo6tfv1zfytRLOf6oaATg==" saltValue="BbJUVxo2nUWhEXoPyjUxsw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8458,7 +8289,7 @@
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="38">
@@ -8479,14 +8310,14 @@
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="38" t="str">
         <f>IF(OR(F4="Input Error",F4&lt;2),"",AVERAGE(B3:B102))</f>
         <v/>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="47" t="s">
         <v>172</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -8500,7 +8331,7 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="38" t="str">
@@ -8521,14 +8352,14 @@
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="38" t="str">
         <f>IF(OR(F4="Input Error",F4&lt;2),"",CORREL(B3:B102,C3:C102))</f>
         <v/>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>172</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -8542,7 +8373,7 @@
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="38" t="str">
@@ -8578,7 +8409,7 @@
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="38" t="str">
@@ -8599,7 +8430,7 @@
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="52" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="38" t="str">
@@ -9354,6 +9185,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="xxhwVTZzO6CWwKJ1Z+QapGN7nqo+90rZTZ5KMdUyHpmqNjAZoVFOkzAOn5xy0DOksWw0ZDr9kBPq72G4Mq3r3g==" saltValue="yHV6zUDRCG0RN8Klsc1mqQ==" spinCount="100000" sheet="1" scenarios="1" sort="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9398,8 +9230,8 @@
         <f>IF(AND(ISNUMBER(B3),ISNUMBER(C3)),MAX(A1:A2)+1,"")</f>
         <v/>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="15" t="s">
         <v>172</v>
       </c>
@@ -9412,12 +9244,12 @@
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(C4)),MAX(A1:A3)+1,"")</f>
         <v/>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="38">
@@ -9436,12 +9268,12 @@
         <f>IF(AND(ISNUMBER(B5),ISNUMBER(C5)),MAX(A1:A4)+1,"")</f>
         <v/>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="38">
@@ -9460,19 +9292,19 @@
         <f>IF(AND(ISNUMBER(B6),ISNUMBER(C6)),MAX(A1:A5)+1,"")</f>
         <v/>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="38">
         <f>IF(AND(COUNT(A3:A102)=COUNT(B3:B102),COUNT(A3:A102)=COUNT(C3:C102)),SQRT(SUMPRODUCT(B3:B102,B3:B102,C3:C102)-(SUMPRODUCT(B3:B102,C3:C102))^2),"")</f>
         <v>0</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="47" t="s">
         <v>172</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -9484,8 +9316,8 @@
         <f>IF(AND(ISNUMBER(B7),ISNUMBER(C7)),MAX(A1:A6)+1,"")</f>
         <v/>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="15" t="s">
         <v>172</v>
       </c>
@@ -9495,8 +9327,8 @@
         <f>IF(AND(ISNUMBER(B8),ISNUMBER(C8)),MAX(A1:A7)+1,"")</f>
         <v/>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="15" t="s">
         <v>172</v>
       </c>
@@ -9506,8 +9338,8 @@
         <f>IF(AND(ISNUMBER(B9),ISNUMBER(C9)),MAX(A1:A8)+1,"")</f>
         <v/>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="15" t="s">
         <v>172</v>
       </c>
@@ -9517,8 +9349,8 @@
         <f>IF(AND(ISNUMBER(B10),ISNUMBER(C10)),MAX(A1:A9)+1,"")</f>
         <v/>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="15" t="s">
         <v>172</v>
       </c>
@@ -9528,8 +9360,8 @@
         <f>IF(AND(ISNUMBER(B11),ISNUMBER(C11)),MAX(A1:A10)+1,"")</f>
         <v/>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="15" t="s">
         <v>172</v>
       </c>
@@ -9539,8 +9371,8 @@
         <f>IF(AND(ISNUMBER(B12),ISNUMBER(C12)),MAX(A1:A11)+1,"")</f>
         <v/>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="15" t="s">
         <v>172</v>
       </c>
@@ -9550,8 +9382,8 @@
         <f>IF(AND(ISNUMBER(B13),ISNUMBER(C13)),MAX(A1:A12)+1,"")</f>
         <v/>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="15" t="s">
         <v>172</v>
       </c>
@@ -9561,8 +9393,8 @@
         <f>IF(AND(ISNUMBER(B14),ISNUMBER(C14)),MAX(A1:A13)+1,"")</f>
         <v/>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="15" t="s">
         <v>172</v>
       </c>
@@ -9572,8 +9404,8 @@
         <f>IF(AND(ISNUMBER(B15),ISNUMBER(C15)),MAX(A1:A14)+1,"")</f>
         <v/>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="15" t="s">
         <v>172</v>
       </c>
@@ -9583,8 +9415,8 @@
         <f>IF(AND(ISNUMBER(B16),ISNUMBER(C16)),MAX(A1:A15)+1,"")</f>
         <v/>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="15" t="s">
         <v>172</v>
       </c>
@@ -9594,8 +9426,8 @@
         <f>IF(AND(ISNUMBER(B17),ISNUMBER(C17)),MAX(A1:A16)+1,"")</f>
         <v/>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="15" t="s">
         <v>172</v>
       </c>
@@ -9605,8 +9437,8 @@
         <f>IF(AND(ISNUMBER(B18),ISNUMBER(C18)),MAX(A1:A17)+1,"")</f>
         <v/>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="15" t="s">
         <v>172</v>
       </c>
@@ -9616,8 +9448,8 @@
         <f>IF(AND(ISNUMBER(B19),ISNUMBER(C19)),MAX(A1:A18)+1,"")</f>
         <v/>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="15" t="s">
         <v>172</v>
       </c>
@@ -9627,8 +9459,8 @@
         <f>IF(AND(ISNUMBER(B20),ISNUMBER(C20)),MAX(A1:A19)+1,"")</f>
         <v/>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="15" t="s">
         <v>172</v>
       </c>
@@ -9638,8 +9470,8 @@
         <f>IF(AND(ISNUMBER(B21),ISNUMBER(C21)),MAX(A1:A20)+1,"")</f>
         <v/>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="15" t="s">
         <v>172</v>
       </c>
@@ -9649,8 +9481,8 @@
         <f>IF(AND(ISNUMBER(B22),ISNUMBER(C22)),MAX(A1:A21)+1,"")</f>
         <v/>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="15" t="s">
         <v>172</v>
       </c>
@@ -9660,8 +9492,8 @@
         <f>IF(AND(ISNUMBER(B23),ISNUMBER(C23)),MAX(A1:A22)+1,"")</f>
         <v/>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="15" t="s">
         <v>172</v>
       </c>
@@ -9671,8 +9503,8 @@
         <f>IF(AND(ISNUMBER(B24),ISNUMBER(C24)),MAX(A1:A23)+1,"")</f>
         <v/>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="15" t="s">
         <v>172</v>
       </c>
@@ -9682,8 +9514,8 @@
         <f>IF(AND(ISNUMBER(B25),ISNUMBER(C25)),MAX(A1:A24)+1,"")</f>
         <v/>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="15" t="s">
         <v>172</v>
       </c>
@@ -9693,8 +9525,8 @@
         <f>IF(AND(ISNUMBER(B26),ISNUMBER(C26)),MAX(A1:A25)+1,"")</f>
         <v/>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="15" t="s">
         <v>172</v>
       </c>
@@ -9704,8 +9536,8 @@
         <f>IF(AND(ISNUMBER(B27),ISNUMBER(C27)),MAX(A1:A26)+1,"")</f>
         <v/>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="15" t="s">
         <v>172</v>
       </c>
@@ -9715,8 +9547,8 @@
         <f>IF(AND(ISNUMBER(B28),ISNUMBER(C28)),MAX(A1:A27)+1,"")</f>
         <v/>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="15" t="s">
         <v>172</v>
       </c>
@@ -9726,8 +9558,8 @@
         <f>IF(AND(ISNUMBER(B29),ISNUMBER(C29)),MAX(A1:A28)+1,"")</f>
         <v/>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="15" t="s">
         <v>172</v>
       </c>
@@ -9737,8 +9569,8 @@
         <f>IF(AND(ISNUMBER(B30),ISNUMBER(C30)),MAX(A1:A29)+1,"")</f>
         <v/>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="15" t="s">
         <v>172</v>
       </c>
@@ -9748,8 +9580,8 @@
         <f>IF(AND(ISNUMBER(B31),ISNUMBER(C31)),MAX(A1:A30)+1,"")</f>
         <v/>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="15" t="s">
         <v>172</v>
       </c>
@@ -9759,8 +9591,8 @@
         <f>IF(AND(ISNUMBER(B32),ISNUMBER(C32)),MAX(A1:A31)+1,"")</f>
         <v/>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="15" t="s">
         <v>172</v>
       </c>
@@ -9770,8 +9602,8 @@
         <f>IF(AND(ISNUMBER(B33),ISNUMBER(C33)),MAX(A1:A32)+1,"")</f>
         <v/>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="15" t="s">
         <v>172</v>
       </c>
@@ -9781,8 +9613,8 @@
         <f>IF(AND(ISNUMBER(B34),ISNUMBER(C34)),MAX(A1:A33)+1,"")</f>
         <v/>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="15" t="s">
         <v>172</v>
       </c>
@@ -9792,8 +9624,8 @@
         <f>IF(AND(ISNUMBER(B35),ISNUMBER(C35)),MAX(A1:A34)+1,"")</f>
         <v/>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="15" t="s">
         <v>172</v>
       </c>
@@ -9803,8 +9635,8 @@
         <f>IF(AND(ISNUMBER(B36),ISNUMBER(C36)),MAX(A1:A35)+1,"")</f>
         <v/>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="15" t="s">
         <v>172</v>
       </c>
@@ -9814,8 +9646,8 @@
         <f>IF(AND(ISNUMBER(B37),ISNUMBER(C37)),MAX(A1:A36)+1,"")</f>
         <v/>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="15" t="s">
         <v>172</v>
       </c>
@@ -9825,8 +9657,8 @@
         <f>IF(AND(ISNUMBER(B38),ISNUMBER(C38)),MAX(A1:A37)+1,"")</f>
         <v/>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="15" t="s">
         <v>172</v>
       </c>
@@ -9836,8 +9668,8 @@
         <f>IF(AND(ISNUMBER(B39),ISNUMBER(C39)),MAX(A1:A38)+1,"")</f>
         <v/>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="15" t="s">
         <v>172</v>
       </c>
@@ -9847,8 +9679,8 @@
         <f>IF(AND(ISNUMBER(B40),ISNUMBER(C40)),MAX(A1:A39)+1,"")</f>
         <v/>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="15" t="s">
         <v>172</v>
       </c>
@@ -9858,8 +9690,8 @@
         <f>IF(AND(ISNUMBER(B41),ISNUMBER(C41)),MAX(A1:A40)+1,"")</f>
         <v/>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="15" t="s">
         <v>172</v>
       </c>
@@ -9869,8 +9701,8 @@
         <f>IF(AND(ISNUMBER(B42),ISNUMBER(C42)),MAX(A1:A41)+1,"")</f>
         <v/>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="15" t="s">
         <v>172</v>
       </c>
@@ -9880,8 +9712,8 @@
         <f>IF(AND(ISNUMBER(B43),ISNUMBER(C43)),MAX(A1:A42)+1,"")</f>
         <v/>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="15" t="s">
         <v>172</v>
       </c>
@@ -9891,8 +9723,8 @@
         <f>IF(AND(ISNUMBER(B44),ISNUMBER(C44)),MAX(A1:A43)+1,"")</f>
         <v/>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="15" t="s">
         <v>172</v>
       </c>
@@ -9902,8 +9734,8 @@
         <f>IF(AND(ISNUMBER(B45),ISNUMBER(C45)),MAX(A1:A44)+1,"")</f>
         <v/>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="15" t="s">
         <v>172</v>
       </c>
@@ -9913,8 +9745,8 @@
         <f>IF(AND(ISNUMBER(B46),ISNUMBER(C46)),MAX(A1:A45)+1,"")</f>
         <v/>
       </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="15" t="s">
         <v>172</v>
       </c>
@@ -9924,8 +9756,8 @@
         <f>IF(AND(ISNUMBER(B47),ISNUMBER(C47)),MAX(A1:A46)+1,"")</f>
         <v/>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="15" t="s">
         <v>172</v>
       </c>
@@ -9935,8 +9767,8 @@
         <f>IF(AND(ISNUMBER(B48),ISNUMBER(C48)),MAX(A1:A47)+1,"")</f>
         <v/>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="15" t="s">
         <v>172</v>
       </c>
@@ -9946,8 +9778,8 @@
         <f>IF(AND(ISNUMBER(B49),ISNUMBER(C49)),MAX(A1:A48)+1,"")</f>
         <v/>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="15" t="s">
         <v>172</v>
       </c>
@@ -9957,8 +9789,8 @@
         <f>IF(AND(ISNUMBER(B50),ISNUMBER(C50)),MAX(A1:A49)+1,"")</f>
         <v/>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="15" t="s">
         <v>172</v>
       </c>
@@ -9968,8 +9800,8 @@
         <f>IF(AND(ISNUMBER(B51),ISNUMBER(C51)),MAX(A1:A50)+1,"")</f>
         <v/>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="15" t="s">
         <v>172</v>
       </c>
@@ -9979,8 +9811,8 @@
         <f>IF(AND(ISNUMBER(B52),ISNUMBER(C52)),MAX(A1:A51)+1,"")</f>
         <v/>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="15" t="s">
         <v>172</v>
       </c>
@@ -9990,8 +9822,8 @@
         <f>IF(AND(ISNUMBER(B53),ISNUMBER(C53)),MAX(A1:A52)+1,"")</f>
         <v/>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="15" t="s">
         <v>172</v>
       </c>
@@ -10001,8 +9833,8 @@
         <f>IF(AND(ISNUMBER(B54),ISNUMBER(C54)),MAX(A1:A53)+1,"")</f>
         <v/>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="15" t="s">
         <v>172</v>
       </c>
@@ -10012,8 +9844,8 @@
         <f>IF(AND(ISNUMBER(B55),ISNUMBER(C55)),MAX(A1:A54)+1,"")</f>
         <v/>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="15" t="s">
         <v>172</v>
       </c>
@@ -10023,8 +9855,8 @@
         <f>IF(AND(ISNUMBER(B56),ISNUMBER(C56)),MAX(A1:A55)+1,"")</f>
         <v/>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="15" t="s">
         <v>172</v>
       </c>
@@ -10034,8 +9866,8 @@
         <f>IF(AND(ISNUMBER(B57),ISNUMBER(C57)),MAX(A1:A56)+1,"")</f>
         <v/>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="15" t="s">
         <v>172</v>
       </c>
@@ -10045,8 +9877,8 @@
         <f>IF(AND(ISNUMBER(B58),ISNUMBER(C58)),MAX(A1:A57)+1,"")</f>
         <v/>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="15" t="s">
         <v>172</v>
       </c>
@@ -10056,8 +9888,8 @@
         <f>IF(AND(ISNUMBER(B59),ISNUMBER(C59)),MAX(A1:A58)+1,"")</f>
         <v/>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="15" t="s">
         <v>172</v>
       </c>
@@ -10067,8 +9899,8 @@
         <f>IF(AND(ISNUMBER(B60),ISNUMBER(C60)),MAX(A1:A59)+1,"")</f>
         <v/>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="15" t="s">
         <v>172</v>
       </c>
@@ -10078,8 +9910,8 @@
         <f>IF(AND(ISNUMBER(B61),ISNUMBER(C61)),MAX(A1:A60)+1,"")</f>
         <v/>
       </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="15" t="s">
         <v>172</v>
       </c>
@@ -10089,8 +9921,8 @@
         <f>IF(AND(ISNUMBER(B62),ISNUMBER(C62)),MAX(A1:A61)+1,"")</f>
         <v/>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="15" t="s">
         <v>172</v>
       </c>
@@ -10100,8 +9932,8 @@
         <f>IF(AND(ISNUMBER(B63),ISNUMBER(C63)),MAX(A1:A62)+1,"")</f>
         <v/>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="15" t="s">
         <v>172</v>
       </c>
@@ -10111,8 +9943,8 @@
         <f>IF(AND(ISNUMBER(B64),ISNUMBER(C64)),MAX(A1:A63)+1,"")</f>
         <v/>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="15" t="s">
         <v>172</v>
       </c>
@@ -10122,8 +9954,8 @@
         <f>IF(AND(ISNUMBER(B65),ISNUMBER(C65)),MAX(A1:A64)+1,"")</f>
         <v/>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
       <c r="D65" s="15" t="s">
         <v>172</v>
       </c>
@@ -10133,8 +9965,8 @@
         <f>IF(AND(ISNUMBER(B66),ISNUMBER(C66)),MAX(A1:A65)+1,"")</f>
         <v/>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="15" t="s">
         <v>172</v>
       </c>
@@ -10144,8 +9976,8 @@
         <f>IF(AND(ISNUMBER(B67),ISNUMBER(C67)),MAX(A1:A66)+1,"")</f>
         <v/>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="15" t="s">
         <v>172</v>
       </c>
@@ -10155,8 +9987,8 @@
         <f>IF(AND(ISNUMBER(B68),ISNUMBER(C68)),MAX(A1:A67)+1,"")</f>
         <v/>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="15" t="s">
         <v>172</v>
       </c>
@@ -10166,8 +9998,8 @@
         <f>IF(AND(ISNUMBER(B69),ISNUMBER(C69)),MAX(A1:A68)+1,"")</f>
         <v/>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="15" t="s">
         <v>172</v>
       </c>
@@ -10177,8 +10009,8 @@
         <f>IF(AND(ISNUMBER(B70),ISNUMBER(C70)),MAX(A1:A69)+1,"")</f>
         <v/>
       </c>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
       <c r="D70" s="15" t="s">
         <v>172</v>
       </c>
@@ -10188,8 +10020,8 @@
         <f>IF(AND(ISNUMBER(B71),ISNUMBER(C71)),MAX(A1:A70)+1,"")</f>
         <v/>
       </c>
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
       <c r="D71" s="15" t="s">
         <v>172</v>
       </c>
@@ -10199,8 +10031,8 @@
         <f>IF(AND(ISNUMBER(B72),ISNUMBER(C72)),MAX(A1:A71)+1,"")</f>
         <v/>
       </c>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
       <c r="D72" s="15" t="s">
         <v>172</v>
       </c>
@@ -10210,8 +10042,8 @@
         <f>IF(AND(ISNUMBER(B73),ISNUMBER(C73)),MAX(A1:A72)+1,"")</f>
         <v/>
       </c>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="15" t="s">
         <v>172</v>
       </c>
@@ -10221,8 +10053,8 @@
         <f>IF(AND(ISNUMBER(B74),ISNUMBER(C74)),MAX(A1:A73)+1,"")</f>
         <v/>
       </c>
-      <c r="B74" s="47"/>
-      <c r="C74" s="47"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
       <c r="D74" s="15" t="s">
         <v>172</v>
       </c>
@@ -10232,8 +10064,8 @@
         <f>IF(AND(ISNUMBER(B75),ISNUMBER(C75)),MAX(A1:A74)+1,"")</f>
         <v/>
       </c>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
       <c r="D75" s="15" t="s">
         <v>172</v>
       </c>
@@ -10243,8 +10075,8 @@
         <f>IF(AND(ISNUMBER(B76),ISNUMBER(C76)),MAX(A1:A75)+1,"")</f>
         <v/>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="15" t="s">
         <v>172</v>
       </c>
@@ -10254,8 +10086,8 @@
         <f>IF(AND(ISNUMBER(B77),ISNUMBER(C77)),MAX(A1:A76)+1,"")</f>
         <v/>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
       <c r="D77" s="15" t="s">
         <v>172</v>
       </c>
@@ -10265,8 +10097,8 @@
         <f>IF(AND(ISNUMBER(B78),ISNUMBER(C78)),MAX(A1:A77)+1,"")</f>
         <v/>
       </c>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
       <c r="D78" s="15" t="s">
         <v>172</v>
       </c>
@@ -10276,8 +10108,8 @@
         <f>IF(AND(ISNUMBER(B79),ISNUMBER(C79)),MAX(A1:A78)+1,"")</f>
         <v/>
       </c>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
       <c r="D79" s="15" t="s">
         <v>172</v>
       </c>
@@ -10287,8 +10119,8 @@
         <f>IF(AND(ISNUMBER(B80),ISNUMBER(C80)),MAX(A1:A79)+1,"")</f>
         <v/>
       </c>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
       <c r="D80" s="15" t="s">
         <v>172</v>
       </c>
@@ -10298,8 +10130,8 @@
         <f>IF(AND(ISNUMBER(B81),ISNUMBER(C81)),MAX(A1:A80)+1,"")</f>
         <v/>
       </c>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
       <c r="D81" s="15" t="s">
         <v>172</v>
       </c>
@@ -10309,8 +10141,8 @@
         <f>IF(AND(ISNUMBER(B82),ISNUMBER(C82)),MAX(A1:A81)+1,"")</f>
         <v/>
       </c>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
       <c r="D82" s="15" t="s">
         <v>172</v>
       </c>
@@ -10320,8 +10152,8 @@
         <f>IF(AND(ISNUMBER(B83),ISNUMBER(C83)),MAX(A1:A82)+1,"")</f>
         <v/>
       </c>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
       <c r="D83" s="15" t="s">
         <v>172</v>
       </c>
@@ -10331,8 +10163,8 @@
         <f>IF(AND(ISNUMBER(B84),ISNUMBER(C84)),MAX(A1:A83)+1,"")</f>
         <v/>
       </c>
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
       <c r="D84" s="15" t="s">
         <v>172</v>
       </c>
@@ -10342,8 +10174,8 @@
         <f>IF(AND(ISNUMBER(B85),ISNUMBER(C85)),MAX(A1:A84)+1,"")</f>
         <v/>
       </c>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
       <c r="D85" s="15" t="s">
         <v>172</v>
       </c>
@@ -10353,8 +10185,8 @@
         <f>IF(AND(ISNUMBER(B86),ISNUMBER(C86)),MAX(A1:A85)+1,"")</f>
         <v/>
       </c>
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
       <c r="D86" s="15" t="s">
         <v>172</v>
       </c>
@@ -10364,8 +10196,8 @@
         <f>IF(AND(ISNUMBER(B87),ISNUMBER(C87)),MAX(A1:A86)+1,"")</f>
         <v/>
       </c>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
       <c r="D87" s="15" t="s">
         <v>172</v>
       </c>
@@ -10375,8 +10207,8 @@
         <f>IF(AND(ISNUMBER(B88),ISNUMBER(C88)),MAX(A1:A87)+1,"")</f>
         <v/>
       </c>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
       <c r="D88" s="15" t="s">
         <v>172</v>
       </c>
@@ -10386,8 +10218,8 @@
         <f>IF(AND(ISNUMBER(B89),ISNUMBER(C89)),MAX(A1:A88)+1,"")</f>
         <v/>
       </c>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="64"/>
       <c r="D89" s="15" t="s">
         <v>172</v>
       </c>
@@ -10397,8 +10229,8 @@
         <f>IF(AND(ISNUMBER(B90),ISNUMBER(C90)),MAX(A1:A89)+1,"")</f>
         <v/>
       </c>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="64"/>
       <c r="D90" s="15" t="s">
         <v>172</v>
       </c>
@@ -10408,8 +10240,8 @@
         <f>IF(AND(ISNUMBER(B91),ISNUMBER(C91)),MAX(A1:A90)+1,"")</f>
         <v/>
       </c>
-      <c r="B91" s="47"/>
-      <c r="C91" s="47"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
       <c r="D91" s="15" t="s">
         <v>172</v>
       </c>
@@ -10419,8 +10251,8 @@
         <f>IF(AND(ISNUMBER(B92),ISNUMBER(C92)),MAX(A1:A91)+1,"")</f>
         <v/>
       </c>
-      <c r="B92" s="47"/>
-      <c r="C92" s="47"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
       <c r="D92" s="15" t="s">
         <v>172</v>
       </c>
@@ -10430,8 +10262,8 @@
         <f>IF(AND(ISNUMBER(B93),ISNUMBER(C93)),MAX(A1:A92)+1,"")</f>
         <v/>
       </c>
-      <c r="B93" s="47"/>
-      <c r="C93" s="47"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64"/>
       <c r="D93" s="15" t="s">
         <v>172</v>
       </c>
@@ -10441,8 +10273,8 @@
         <f>IF(AND(ISNUMBER(B94),ISNUMBER(C94)),MAX(A1:A93)+1,"")</f>
         <v/>
       </c>
-      <c r="B94" s="47"/>
-      <c r="C94" s="47"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="64"/>
       <c r="D94" s="15" t="s">
         <v>172</v>
       </c>
@@ -10452,8 +10284,8 @@
         <f>IF(AND(ISNUMBER(B95),ISNUMBER(C95)),MAX(A1:A94)+1,"")</f>
         <v/>
       </c>
-      <c r="B95" s="47"/>
-      <c r="C95" s="47"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
       <c r="D95" s="15" t="s">
         <v>172</v>
       </c>
@@ -10463,8 +10295,8 @@
         <f>IF(AND(ISNUMBER(B96),ISNUMBER(C96)),MAX(A1:A95)+1,"")</f>
         <v/>
       </c>
-      <c r="B96" s="47"/>
-      <c r="C96" s="47"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
       <c r="D96" s="15" t="s">
         <v>172</v>
       </c>
@@ -10474,8 +10306,8 @@
         <f>IF(AND(ISNUMBER(B97),ISNUMBER(C97)),MAX(A1:A96)+1,"")</f>
         <v/>
       </c>
-      <c r="B97" s="47"/>
-      <c r="C97" s="47"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
       <c r="D97" s="15" t="s">
         <v>172</v>
       </c>
@@ -10485,8 +10317,8 @@
         <f>IF(AND(ISNUMBER(B98),ISNUMBER(C98)),MAX(A1:A97)+1,"")</f>
         <v/>
       </c>
-      <c r="B98" s="47"/>
-      <c r="C98" s="47"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
       <c r="D98" s="15" t="s">
         <v>172</v>
       </c>
@@ -10496,8 +10328,8 @@
         <f>IF(AND(ISNUMBER(B99),ISNUMBER(C99)),MAX(A1:A98)+1,"")</f>
         <v/>
       </c>
-      <c r="B99" s="47"/>
-      <c r="C99" s="47"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
       <c r="D99" s="15" t="s">
         <v>172</v>
       </c>
@@ -10507,8 +10339,8 @@
         <f>IF(AND(ISNUMBER(B100),ISNUMBER(C100)),MAX(A1:A99)+1,"")</f>
         <v/>
       </c>
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="64"/>
       <c r="D100" s="15" t="s">
         <v>172</v>
       </c>
@@ -10518,8 +10350,8 @@
         <f>IF(AND(ISNUMBER(B101),ISNUMBER(C101)),MAX(A1:A100)+1,"")</f>
         <v/>
       </c>
-      <c r="B101" s="47"/>
-      <c r="C101" s="47"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="64"/>
       <c r="D101" s="15" t="s">
         <v>172</v>
       </c>
@@ -10529,13 +10361,14 @@
         <f>IF(AND(ISNUMBER(B102),ISNUMBER(C102)),MAX(A1:A101)+1,"")</f>
         <v/>
       </c>
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
       <c r="D102" s="15" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="R5ow5K8laFcG3RIGTRSp29rit17ANP7Z7sX7TIz6Tjyr9WOrmy04qldVIXqo1r0dbFzwyYf6KbvfNuKTTJeK+w==" saltValue="iBkDjQAC76x4MLWGCVKadQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10570,7 +10403,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="40"/>
@@ -10586,7 +10419,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="40"/>
@@ -10598,12 +10431,12 @@
         <f>IF(AND(ISNUMBER(B2),ISNUMBER(B3),B3&gt;=0,B3&lt;=1,B2&gt;=0,B2&lt;=50),0," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E3" s="58" t="str">
+      <c r="E3" s="57" t="str">
         <f>IF(ISNUMBER(D3),COMBIN(B2,D3)*B3^D3*(1-B3)^(B2-D3),"")</f>
         <v/>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -10612,12 +10445,12 @@
         <f>IF(AND(ISNUMBER(D3),D3&lt;B2),D3+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E4" s="58" t="str">
+      <c r="E4" s="57" t="str">
         <f>IF(ISNUMBER(D4),COMBIN(B2,D4)*B3^D4*(1-B3)^(B2-D4),"")</f>
         <v/>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -10628,15 +10461,15 @@
         <f>IF(AND(ISNUMBER(D4),D4&lt;B2),D4+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E5" s="58" t="str">
+      <c r="E5" s="57" t="str">
         <f>IF(ISNUMBER(D5),COMBIN(B2,D5)*B3^D5*(1-B3)^(B2-D5),"")</f>
         <v/>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="40"/>
@@ -10648,18 +10481,18 @@
         <f>IF(AND(ISNUMBER(D5),D5&lt;B2),D5+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E6" s="58" t="str">
+      <c r="E6" s="57" t="str">
         <f>IF(ISNUMBER(D6),COMBIN(B2,D6)*B3^D6*(1-B3)^(B2-D6),"")</f>
         <v/>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="57" t="str">
+      <c r="B7" s="56" t="str">
         <f>IF(ISNUMBER(B6),IF(AND(B2&gt;0,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1,B6&gt;=0,B6&lt;=B2,INT(B6)=B6),COMBIN(B2,B6)*B3^B6*(1-B3)^(B2-B6),"Input error"),"")</f>
         <v/>
       </c>
@@ -10670,12 +10503,12 @@
         <f>IF(AND(ISNUMBER(D6),D6&lt;B2),D6+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" s="58" t="str">
+      <c r="E7" s="57" t="str">
         <f>IF(ISNUMBER(D7),COMBIN(B2,D7)*B3^D7*(1-B3)^(B2-D7),"")</f>
         <v/>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" s="12"/>
@@ -10683,12 +10516,12 @@
         <f>IF(AND(ISNUMBER(D7),D7&lt;B2),D7+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="58" t="str">
+      <c r="E8" s="57" t="str">
         <f>IF(ISNUMBER(D8),COMBIN(B2,D8)*B3^D8*(1-B3)^(B2-D8),"")</f>
         <v/>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -10699,15 +10532,15 @@
         <f>IF(AND(ISNUMBER(D8),D8&lt;B2),D8+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="58" t="str">
+      <c r="E9" s="57" t="str">
         <f>IF(ISNUMBER(D9),COMBIN(B2,D9)*B3^D9*(1-B3)^(B2-D9),"")</f>
         <v/>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="40"/>
@@ -10718,15 +10551,15 @@
         <f>IF(AND(ISNUMBER(D9),D9&lt;B2),D9+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="58" t="str">
+      <c r="E10" s="57" t="str">
         <f>IF(ISNUMBER(D10),COMBIN(B2,D10)*B3^D10*(1-B3)^(B2-D10),"")</f>
         <v/>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="40"/>
@@ -10737,19 +10570,19 @@
         <f>IF(AND(ISNUMBER(D10),D10&lt;B2),D10+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E11" s="58" t="str">
+      <c r="E11" s="57" t="str">
         <f>IF(ISNUMBER(D11),COMBIN(B2,D11)*B3^D11*(1-B3)^(B2-D11),"")</f>
         <v/>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="str">
+      <c r="A12" s="55" t="str">
         <f>CONCATENATE("P(", IF(ISBLANK(B10),"","lower ≤ "),"x",IF(ISBLANK(B11),""," ≤ upper"),") =")</f>
         <v>P(x) =</v>
       </c>
-      <c r="B12" s="57" t="str">
+      <c r="B12" s="56" t="str">
         <f>IF(OR(ISNUMBER(B10),ISNUMBER(B11)),IF(AND(B2&gt;0,B2&lt;=50,INT(B2)=B2,NOT(ISBLANK(B3)),B3&gt;=0,B3&lt;=1, OR(ISBLANK(B10),AND(B10&gt;=0,B10&lt;=B2,IF(ISNUMBER(B10),INT(B10)=B10,FALSE),OR(ISBLANK(B11),B10&lt;=B11))),OR(ISBLANK(B11),AND(B11&gt;=0,B11&lt;=B2,IF(ISNUMBER(B11),INT(B11)=B11,FALSE),OR(ISBLANK(B10),B10&lt;=B11)))),IF(ISBLANK(B10),SUMIF(D3:D53,"&lt;="&amp;B11,E3:E53),IF(ISBLANK(B11),SUMIF(D3:D53,"&gt;="&amp;B10,E3:E53),SUMIF(D3:D53,"&lt;="&amp;B11,E3:E53)-SUMIF(D3:D53,"&lt;"&amp;B10,E3:E53))),"Input error"),"")</f>
         <v/>
       </c>
@@ -10760,509 +10593,509 @@
         <f>IF(AND(ISNUMBER(D11),D11&lt;B2),D11+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" s="58" t="str">
+      <c r="E12" s="57" t="str">
         <f>IF(ISNUMBER(D12),COMBIN(B2,D12)*B3^D12*(1-B3)^(B2-D12),"")</f>
         <v/>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="str">
+      <c r="A13" s="49" t="str">
         <f>IF(AND(NOT(AND(ISBLANK(B10),ISBLANK(B11))),B2&gt;50),"Binomial Range tool in Respondus currently only works for n &lt;= 50"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="50"/>
       <c r="D13" s="1" t="str">
         <f>IF(AND(ISNUMBER(D12),D12&lt;B2),D12+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="58" t="str">
+      <c r="E13" s="57" t="str">
         <f>IF(ISNUMBER(D13),COMBIN(B2,D13)*B3^D13*(1-B3)^(B2-D13),"")</f>
         <v/>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="str">
         <f>IF(AND(ISNUMBER(D13),D13&lt;B2),D13+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="58" t="str">
+      <c r="E14" s="57" t="str">
         <f>IF(ISNUMBER(D14),COMBIN(B2,D14)*B3^D14*(1-B3)^(B2-D14),"")</f>
         <v/>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="str">
         <f>IF(AND(ISNUMBER(D14),D14&lt;B2),D14+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="58" t="str">
+      <c r="E15" s="57" t="str">
         <f>IF(ISNUMBER(D15),COMBIN(B2,D15)*B3^D15*(1-B3)^(B2-D15),"")</f>
         <v/>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="str">
         <f>IF(AND(ISNUMBER(D15),D15&lt;B2),D15+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="58" t="str">
+      <c r="E16" s="57" t="str">
         <f>IF(ISNUMBER(D16),COMBIN(B2,D16)*B3^D16*(1-B3)^(B2-D16),"")</f>
         <v/>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="str">
         <f>IF(AND(ISNUMBER(D16),D16&lt;B2),D16+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E17" s="58" t="str">
+      <c r="E17" s="57" t="str">
         <f>IF(ISNUMBER(D17),COMBIN(B2,D17)*B3^D17*(1-B3)^(B2-D17),"")</f>
         <v/>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="str">
         <f>IF(AND(ISNUMBER(D17),D17&lt;B2),D17+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E18" s="58" t="str">
+      <c r="E18" s="57" t="str">
         <f>IF(ISNUMBER(D18),COMBIN(B2,D18)*B3^D18*(1-B3)^(B2-D18),"")</f>
         <v/>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="str">
         <f>IF(AND(ISNUMBER(D18),D18&lt;B2),D18+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E19" s="58" t="str">
+      <c r="E19" s="57" t="str">
         <f>IF(ISNUMBER(D19),COMBIN(B2,D19)*B3^D19*(1-B3)^(B2-D19),"")</f>
         <v/>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="str">
         <f>IF(AND(ISNUMBER(D19),D19&lt;B2),D19+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E20" s="58" t="str">
+      <c r="E20" s="57" t="str">
         <f>IF(ISNUMBER(D20),COMBIN(B2,D20)*B3^D20*(1-B3)^(B2-D20),"")</f>
         <v/>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="str">
         <f>IF(AND(ISNUMBER(D20),D20&lt;B2),D20+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="58" t="str">
+      <c r="E21" s="57" t="str">
         <f>IF(ISNUMBER(D21),COMBIN(B2,D21)*B3^D21*(1-B3)^(B2-D21),"")</f>
         <v/>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="str">
         <f>IF(AND(ISNUMBER(D21),D21&lt;B2),D21+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="58" t="str">
+      <c r="E22" s="57" t="str">
         <f>IF(ISNUMBER(D22),COMBIN(B2,D22)*B3^D22*(1-B3)^(B2-D22),"")</f>
         <v/>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="str">
         <f>IF(AND(ISNUMBER(D22),D22&lt;B2),D22+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="58" t="str">
+      <c r="E23" s="57" t="str">
         <f>IF(ISNUMBER(D23),COMBIN(B2,D23)*B3^D23*(1-B3)^(B2-D23),"")</f>
         <v/>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="str">
         <f>IF(AND(ISNUMBER(D23),D23&lt;B2),D23+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E24" s="58" t="str">
+      <c r="E24" s="57" t="str">
         <f>IF(ISNUMBER(D24),COMBIN(B2,D24)*B3^D24*(1-B3)^(B2-D24),"")</f>
         <v/>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="str">
         <f>IF(AND(ISNUMBER(D24),D24&lt;B2),D24+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="58" t="str">
+      <c r="E25" s="57" t="str">
         <f>IF(ISNUMBER(D25),COMBIN(B2,D25)*B3^D25*(1-B3)^(B2-D25),"")</f>
         <v/>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="str">
         <f>IF(AND(ISNUMBER(D25),D25&lt;B2),D25+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="58" t="str">
+      <c r="E26" s="57" t="str">
         <f>IF(ISNUMBER(D26),COMBIN(B2,D26)*B3^D26*(1-B3)^(B2-D26),"")</f>
         <v/>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="str">
         <f>IF(AND(ISNUMBER(D26),D26&lt;B2),D26+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="58" t="str">
+      <c r="E27" s="57" t="str">
         <f>IF(ISNUMBER(D27),COMBIN(B2,D27)*B3^D27*(1-B3)^(B2-D27),"")</f>
         <v/>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="str">
         <f>IF(AND(ISNUMBER(D27),D27&lt;B2),D27+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="58" t="str">
+      <c r="E28" s="57" t="str">
         <f>IF(ISNUMBER(D28),COMBIN(B2,D28)*B3^D28*(1-B3)^(B2-D28),"")</f>
         <v/>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="str">
         <f>IF(AND(ISNUMBER(D28),D28&lt;B2),D28+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E29" s="58" t="str">
+      <c r="E29" s="57" t="str">
         <f>IF(ISNUMBER(D29),COMBIN(B2,D29)*B3^D29*(1-B3)^(B2-D29),"")</f>
         <v/>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="str">
         <f>IF(AND(ISNUMBER(D29),D29&lt;B2),D29+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E30" s="58" t="str">
+      <c r="E30" s="57" t="str">
         <f>IF(ISNUMBER(D30),COMBIN(B2,D30)*B3^D30*(1-B3)^(B2-D30),"")</f>
         <v/>
       </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="str">
         <f>IF(AND(ISNUMBER(D30),D30&lt;B2),D30+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E31" s="58" t="str">
+      <c r="E31" s="57" t="str">
         <f>IF(ISNUMBER(D31),COMBIN(B2,D31)*B3^D31*(1-B3)^(B2-D31),"")</f>
         <v/>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="str">
         <f>IF(AND(ISNUMBER(D31),D31&lt;B2),D31+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E32" s="58" t="str">
+      <c r="E32" s="57" t="str">
         <f>IF(ISNUMBER(D32),COMBIN(B2,D32)*B3^D32*(1-B3)^(B2-D32),"")</f>
         <v/>
       </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="str">
         <f>IF(AND(ISNUMBER(D32),D32&lt;B2),D32+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E33" s="58" t="str">
+      <c r="E33" s="57" t="str">
         <f>IF(ISNUMBER(D33),COMBIN(B2,D33)*B3^D33*(1-B3)^(B2-D33),"")</f>
         <v/>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="str">
         <f>IF(AND(ISNUMBER(D33),D33&lt;B2),D33+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E34" s="58" t="str">
+      <c r="E34" s="57" t="str">
         <f>IF(ISNUMBER(D34),COMBIN(B2,D34)*B3^D34*(1-B3)^(B2-D34),"")</f>
         <v/>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="str">
         <f>IF(AND(ISNUMBER(D34),D34&lt;B2),D34+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E35" s="58" t="str">
+      <c r="E35" s="57" t="str">
         <f>IF(ISNUMBER(D35),COMBIN(B2,D35)*B3^D35*(1-B3)^(B2-D35),"")</f>
         <v/>
       </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="str">
         <f>IF(AND(ISNUMBER(D35),D35&lt;B2),D35+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E36" s="58" t="str">
+      <c r="E36" s="57" t="str">
         <f>IF(ISNUMBER(D36),COMBIN(B2,D36)*B3^D36*(1-B3)^(B2-D36),"")</f>
         <v/>
       </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="str">
         <f>IF(AND(ISNUMBER(D36),D36&lt;B2),D36+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E37" s="58" t="str">
+      <c r="E37" s="57" t="str">
         <f>IF(ISNUMBER(D37),COMBIN(B2,D37)*B3^D37*(1-B3)^(B2-D37),"")</f>
         <v/>
       </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="str">
         <f>IF(AND(ISNUMBER(D37),D37&lt;B2),D37+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E38" s="58" t="str">
+      <c r="E38" s="57" t="str">
         <f>IF(ISNUMBER(D38),COMBIN(B2,D38)*B3^D38*(1-B3)^(B2-D38),"")</f>
         <v/>
       </c>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="str">
         <f>IF(AND(ISNUMBER(D38),D38&lt;B2),D38+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E39" s="58" t="str">
+      <c r="E39" s="57" t="str">
         <f>IF(ISNUMBER(D39),COMBIN(B2,D39)*B3^D39*(1-B3)^(B2-D39),"")</f>
         <v/>
       </c>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="str">
         <f>IF(AND(ISNUMBER(D39),D39&lt;B2),D39+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E40" s="58" t="str">
+      <c r="E40" s="57" t="str">
         <f>IF(ISNUMBER(D40),COMBIN(B2,D40)*B3^D40*(1-B3)^(B2-D40),"")</f>
         <v/>
       </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="str">
         <f>IF(AND(ISNUMBER(D40),D40&lt;B2),D40+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E41" s="58" t="str">
+      <c r="E41" s="57" t="str">
         <f>IF(ISNUMBER(D41),COMBIN(B2,D41)*B3^D41*(1-B3)^(B2-D41),"")</f>
         <v/>
       </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="str">
         <f>IF(AND(ISNUMBER(D41),D41&lt;B2),D41+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E42" s="58" t="str">
+      <c r="E42" s="57" t="str">
         <f>IF(ISNUMBER(D42),COMBIN(B2,D42)*B3^D42*(1-B3)^(B2-D42),"")</f>
         <v/>
       </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="str">
         <f>IF(AND(ISNUMBER(D42),D42&lt;B2),D42+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E43" s="58" t="str">
+      <c r="E43" s="57" t="str">
         <f>IF(ISNUMBER(D43),COMBIN(B2,D43)*B3^D43*(1-B3)^(B2-D43),"")</f>
         <v/>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="str">
         <f>IF(AND(ISNUMBER(D43),D43&lt;B2),D43+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E44" s="58" t="str">
+      <c r="E44" s="57" t="str">
         <f>IF(ISNUMBER(D44),COMBIN(B2,D44)*B3^D44*(1-B3)^(B2-D44),"")</f>
         <v/>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="str">
         <f>IF(AND(ISNUMBER(D44),D44&lt;B2),D44+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E45" s="58" t="str">
+      <c r="E45" s="57" t="str">
         <f>IF(ISNUMBER(D45),COMBIN(B2,D45)*B3^D45*(1-B3)^(B2-D45),"")</f>
         <v/>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="str">
         <f>IF(AND(ISNUMBER(D45),D45&lt;B2),D45+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E46" s="58" t="str">
+      <c r="E46" s="57" t="str">
         <f>IF(ISNUMBER(D46),COMBIN(B2,D46)*B3^D46*(1-B3)^(B2-D46),"")</f>
         <v/>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="str">
         <f>IF(AND(ISNUMBER(D46),D46&lt;B2),D46+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E47" s="58" t="str">
+      <c r="E47" s="57" t="str">
         <f>IF(ISNUMBER(D47),COMBIN(B2,D47)*B3^D47*(1-B3)^(B2-D47),"")</f>
         <v/>
       </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="str">
         <f>IF(AND(ISNUMBER(D47),D47&lt;B2),D47+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E48" s="58" t="str">
+      <c r="E48" s="57" t="str">
         <f>IF(ISNUMBER(D48),COMBIN(B2,D48)*B3^D48*(1-B3)^(B2-D48),"")</f>
         <v/>
       </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="str">
         <f>IF(AND(ISNUMBER(D48),D48&lt;B2),D48+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E49" s="58" t="str">
+      <c r="E49" s="57" t="str">
         <f>IF(ISNUMBER(D49),COMBIN(B2,D49)*B3^D49*(1-B3)^(B2-D49),"")</f>
         <v/>
       </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="str">
         <f>IF(AND(ISNUMBER(D49),D49&lt;B2),D49+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E50" s="58" t="str">
+      <c r="E50" s="57" t="str">
         <f>IF(ISNUMBER(D50),COMBIN(B2,D50)*B3^D50*(1-B3)^(B2-D50),"")</f>
         <v/>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="str">
         <f>IF(AND(ISNUMBER(D50),D50&lt;B2),D50+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E51" s="58" t="str">
+      <c r="E51" s="57" t="str">
         <f>IF(ISNUMBER(D51),COMBIN(B2,D51)*B3^D51*(1-B3)^(B2-D51),"")</f>
         <v/>
       </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="str">
         <f>IF(AND(ISNUMBER(D51),D51&lt;B2),D51+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E52" s="58" t="str">
+      <c r="E52" s="57" t="str">
         <f>IF(ISNUMBER(D52),COMBIN(B2,D52)*B3^D52*(1-B3)^(B2-D52),"")</f>
         <v/>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="str">
         <f>IF(AND(ISNUMBER(D52),D52&lt;B2),D52+1," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E53" s="58" t="str">
+      <c r="E53" s="57" t="str">
         <f>IF(ISNUMBER(D53),COMBIN(B2,D53)*B3^D53*(1-B3)^(B2-D53),"")</f>
         <v/>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
@@ -11270,6 +11103,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="EKin4zECxpgAsfKERZa+FX82ZIfQ7NfM65H1kTDmjl2rxvcC9l0WgpP/7G7LwL9VymzXRETL0/jJVQdLL7PKsA==" saltValue="b0EPrZsKYc0jHqD7LsdpUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11301,7 +11135,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="40">
@@ -11309,7 +11143,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="40">
@@ -11325,7 +11159,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="40"/>
@@ -11334,7 +11168,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="40"/>
@@ -11343,11 +11177,11 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="str">
+      <c r="A8" s="52" t="str">
         <f>CONCATENATE("P(", IF(ISBLANK(B6),"","lower ≤ "),IF(AND(B2=0,B3=1),"z","x"),IF(ISBLANK(B7),""," ≤ upper"),") =")</f>
         <v>P(z) =</v>
       </c>
-      <c r="B8" s="60" t="str">
+      <c r="B8" s="63" t="str">
         <f>IF(AND(ISBLANK(B6),ISBLANK(B7)),"",IF(OR(NOT(OR(ISBLANK(B6),ISNUMBER(B6))),NOT(OR(ISBLANK(B7),ISNUMBER(B7)))),"Input Error",IF(IF(OR(ISBLANK(B6),ISBLANK(B7)),FALSE,B6&gt;B7),"Input Error",IF(AND(ISNUMBER(B2),ISNUMBER(B3)),_xlfn.NORM.DIST(IF(ISBLANK(B7),1E+100,B7),B2,B3,TRUE)-_xlfn.NORM.DIST(IF(ISBLANK(B6),-1E+100,B6),B2,B3,TRUE),"Input µ,σ"))))</f>
         <v/>
       </c>
@@ -11362,21 +11196,21 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="16" t="str">
         <f>IF(AND(B11&lt;1,B11&gt;=0),"","area must be between 0 and 1")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="str">
+      <c r="A12" s="52" t="str">
         <f>IF(AND(B2=0,B3=1),"z =","x =")</f>
         <v>z =</v>
       </c>
-      <c r="B12" s="61" t="str">
+      <c r="B12" s="63" t="str">
         <f>IF(ISBLANK(B11),"",IF(NOT(ISNUMBER(B11)),"Input Error",IF(OR(B11&lt;=0,B11&gt;=1),"Input Error",IF(AND(ISNUMBER(B2),ISNUMBER(B3)),_xlfn.NORM.INV(B11,B2,B3),"Input µ,σ"))))</f>
         <v/>
       </c>
@@ -11390,7 +11224,9 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gu8kkGcGAD5OQ4F4aP2GOLh2/okVOCoB7Ux8zT9SGgFG88oQ++GDlIhc1IbMIWnC9ErHhVVU2KVU1ck/3k15iQ==" saltValue="g8LeosLKx6Wu5LXzYPSwOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11420,7 +11256,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="40"/>
@@ -11438,7 +11274,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="40"/>
@@ -11447,7 +11283,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="40"/>
@@ -11456,11 +11292,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="str">
+      <c r="A7" s="52" t="str">
         <f>CONCATENATE("P(", IF(ISBLANK(B5),"","lower ≤ "),"t",IF(ISBLANK(B6),""," ≤ upper"),") =")</f>
         <v>P(t) =</v>
       </c>
-      <c r="B7" s="57" t="str">
+      <c r="B7" s="63" t="str">
         <f>IF(AND(ISBLANK(B5),ISBLANK(B6)),"",IF(OR(NOT(OR(ISBLANK(B5),ISNUMBER(B5))),NOT(OR(ISBLANK(B6),ISNUMBER(B6)))),"Input Error",IF(IF(OR(ISBLANK(B5),ISBLANK(B6)),FALSE,B5&gt;B6),"Input Error",IF(B2&gt;0,IF(ISBLANK(B5),IF(B6&lt;0,TDIST(ABS(B6),B2,1),1-TDIST(ABS(B6),B2,1)),IF(ISBLANK(B6),IF(B5&lt;0,1-TDIST(ABS(B5),B2,1),TDIST(ABS(B5),B2,1)),IF(B5*B6&gt;=0,ABS(TDIST(ABS(B6),B2,1)-TDIST(ABS(B5),B2,1)),1-TDIST(ABS(B6),B2,1)-TDIST(ABS(B5),B2,1)))),"Input df"))))</f>
         <v/>
       </c>
@@ -11475,7 +11311,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="40"/>
@@ -11485,10 +11321,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="38" t="str">
+      <c r="B11" s="63" t="str">
         <f>IF(ISBLANK(B10),"",IF(NOT(ISNUMBER(B10)),"Input Error",IF(OR(B10&lt;=0,B10&gt;=1),"Input Error",IF(B2&gt;0,_xlfn.T.INV(B10,B2),"Input df"))))</f>
         <v/>
       </c>
@@ -11502,6 +11338,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="QyRc6LuhJgxNt29Dd9G3sUBn7Z1Vo4sQbcpFolqzdckLwfW1plQqfY9sUEzm4h14XUZyxC6XLcsSffWov0ZtSQ==" saltValue="520A9H9BRZ3//hXhn3wjLw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11695,6 +11532,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="g/L0+6Ohu4HU1I2hA2fmeuEmY4z9egIUTyfG/b5drpgLMOx/66x3hXnG0DGWmyGXn4RsiT1epz1lnyovWTyzoA==" saltValue="vvVtfcul3HS14g2wbi+9pQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11762,7 +11600,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C3" s="25" t="str">
         <f>IF(ISNUMBER(C2),C2,"")</f>
@@ -11871,7 +11709,7 @@
       <c r="B8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="30" t="str">
+      <c r="C8" s="65" t="str">
         <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C2)),IF(AND(INT(C6)=C6,C6&gt;0,C5&gt;0),(C4-C2)/(C5/SQRT(C6)),"Input Error"),"")</f>
         <v/>
       </c>
@@ -11884,7 +11722,7 @@
       <c r="I8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="30" t="str">
+      <c r="J8" s="65" t="str">
         <f>IF(AND(ISNUMBER(J2),ISNUMBER(J4),ISNUMBER(J5)),IF(AND(INT(J4)=J4,INT(J5)=J5,J2&gt;0,J2&lt;1,J5&gt;0,J5&lt;J4),(J6-J2)/SQRT(J2*(1-J2)/J4),"Input Error"),"")</f>
         <v/>
       </c>
@@ -11899,7 +11737,7 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="30" t="str">
+      <c r="C9" s="65" t="str">
         <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C2)),IF(AND(INT(C6)=C6,C6&gt;0,C5&gt;0),IF(B3="≠",2*IF(C8&lt;0,NORMSDIST(C8),1-NORMSDIST(C8)),IF(B3="&lt;",NORMSDIST(C8),IF(B3="&gt;",1-NORMSDIST(C8),"Select H1"))),"Input Error"),"")</f>
         <v/>
       </c>
@@ -11912,7 +11750,7 @@
       <c r="I9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="30" t="str">
+      <c r="J9" s="65" t="str">
         <f>IF(AND(ISNUMBER(J2),ISNUMBER(J4),ISNUMBER(J5)),IF(AND(INT(J4)=J4,INT(J5)=J5,J2&gt;0,J2&lt;1,J5&gt;0,J5&lt;J4),IF(I3="≠",2*IF(J8&lt;0,NORMSDIST(J8),1-NORMSDIST(J8)),IF(I3="&lt;",NORMSDIST(J8),IF(I3="&gt;",1-NORMSDIST(J8),"Select H1"))),"Input Error"),"")</f>
         <v/>
       </c>
@@ -12002,7 +11840,7 @@
       <c r="B18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="30" t="str">
+      <c r="C18" s="65" t="str">
         <f>IF(AND(ISNUMBER(C14),ISNUMBER(C15),ISNUMBER(C16),ISNUMBER(C12)),IF(AND(INT(C16)=C16,C16&gt;0,C15&gt;0),(C14-C12)/(C15/SQRT(C16)),"Input Error"),"")</f>
         <v/>
       </c>
@@ -12017,7 +11855,7 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="30" t="str">
+      <c r="C19" s="65" t="str">
         <f>IF(AND(ISNUMBER(C14),ISNUMBER(C15),ISNUMBER(C16),ISNUMBER(C12)),IF(AND(INT(C16)=C16,C16&gt;0,C15&gt;0),IF(B13="≠",TDIST(ABS(C18),C16-1,2),IF(B13="&lt;",IF(C18&lt;0,TDIST(ABS(C18),C16-1,1),1-TDIST(ABS(C18),C16-1,1)),IF(B13="&gt;",IF(C18&lt;0,1-TDIST(ABS(C18),C16-1,1),TDIST(ABS(C18),C16-1,1)),"Select H1"))),"Input Error"),"")</f>
         <v/>
       </c>
@@ -12049,6 +11887,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="FAXMHmEmyMnqjXgYIqFq9K1c9Gtn1SUyZGJv7aFc4E2FwMG5kY4atfAXtTBYhkSgngXMlUfAfUDChdppicbV/g==" saltValue="BHHojX6RJVv1zbsJm1K2SA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations xWindow="100" yWindow="336" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select H1" prompt="≠, &lt;, or &gt;" sqref="B3 I3 B13" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>$A$98:$A$100</formula1>
@@ -12128,7 +11967,7 @@
         <v>108</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>106</v>
@@ -12290,7 +12129,7 @@
       <c r="B11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="65" t="str">
         <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C7),ISNUMBER(C8),ISNUMBER(C9)),IF(AND(INT(C6)=C6,C6&gt;0,C5&gt;0,INT(C9)=C9,C9&gt;0,C8&gt;0),(C4-C7)/SQRT(C5^2/C6+C8^2/C9),"Input Error"),"")</f>
         <v/>
       </c>
@@ -12303,7 +12142,7 @@
       <c r="I11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="30" t="str">
+      <c r="J11" s="65" t="str">
         <f>IF(AND(ISNUMBER(J4),ISNUMBER(J5),ISNUMBER(J7),ISNUMBER(J8)),IF(AND(INT(J4)=J4,INT(J5)=J5,J5&gt;0,J5&lt;J4,INT(J7)=J7,INT(J8)=J8,J8&gt;0,J8&lt;J7),(J6-J9)/SQRT(((J5+J8)/(J4+J7))*(1-((J5+J8)/(J4+J7)))/J4+((J5+J8)/(J4+J7))*(1-((J5+J8)/(J4+J7)))/J7),"Input Error"),"")</f>
         <v/>
       </c>
@@ -12331,7 +12170,7 @@
       <c r="I12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="30" t="str">
+      <c r="J12" s="65" t="str">
         <f>IF(AND(ISNUMBER(J4),ISNUMBER(J5),ISNUMBER(J7),ISNUMBER(J8)),IF(AND(INT(J4)=J4,INT(J5)=J5,J5&gt;0,J5&lt;J4,INT(J7)=J7,INT(J8)=J8,J8&gt;0,J8&lt;J7),IF(I3="≠",2*IF(J11&lt;0,NORMSDIST(J11),1-NORMSDIST(J11)),IF(I3="&lt;",NORMSDIST(J11),IF(I3="&gt;",1-NORMSDIST(J11),"Select H1"))),"Input Error"),"")</f>
         <v/>
       </c>
@@ -12346,7 +12185,7 @@
       <c r="B13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="30" t="str">
+      <c r="C13" s="65" t="str">
         <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C7),ISNUMBER(C8),ISNUMBER(C9)),IF(AND(INT(C6)=C6,C6&gt;0,C5&gt;0,INT(C9)=C9,C9&gt;0,C8&gt;0), IF(B3="≠",TDIST(ABS(C11),C12,2),IF(B3="&lt;",IF(C11&lt;0,TDIST(ABS(C11),C12,1),1-TDIST(ABS(C11),C12,1)),IF(B3="&gt;",IF(C11&lt;0,1-TDIST(ABS(C11),C12,1),TDIST(ABS(C11),C12,1)),"Select H1"))),"Input Error"),"")</f>
         <v/>
       </c>
@@ -12375,6 +12214,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="jKyu0cRiy3HXbGiLACOA0xTk5Qx4CofzkQ/F6akIyQqW30KM8BeJkTnaueppshVaCgaVJ4Js9/Fx5oI5PA2fWg==" saltValue="xk6kzGKKtPamGzJr1+ddNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select H1" prompt="≠, &lt;, or &gt;" sqref="B3 I3" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>$A$93:$A$95</formula1>
